--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters CATTLE.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters CATTLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA8E2B4-0EB1-3347-980F-B227F27C3F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C044835-F0D4-6145-B0A3-DC5EF0C6CF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13040" yWindow="500" windowWidth="15760" windowHeight="16280" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="177">
   <si>
     <t># Initial population</t>
   </si>
@@ -597,9 +597,6 @@
     <t>AlphaO</t>
   </si>
   <si>
-    <t>CullsO</t>
-  </si>
-  <si>
     <t>lwO</t>
   </si>
   <si>
@@ -622,6 +619,12 @@
   </si>
   <si>
     <t>cattle_trial</t>
+  </si>
+  <si>
+    <t>CullO</t>
+  </si>
+  <si>
+    <t>cattle_trial_2</t>
   </si>
 </sst>
 </file>
@@ -1123,15 +1126,14 @@
   <dimension ref="A1:BC134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1:BD1048576"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.83203125" style="27" customWidth="1"/>
-    <col min="2" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="52.33203125" customWidth="1"/>
+    <col min="2" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="6" width="43.1640625" style="2" customWidth="1"/>
     <col min="7" max="10" width="43.1640625" customWidth="1"/>
     <col min="11" max="11" width="42.33203125" customWidth="1"/>
@@ -1172,7 +1174,10 @@
         <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -1212,6 +1217,9 @@
       <c r="C2" s="24">
         <v>12</v>
       </c>
+      <c r="D2" s="24">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
@@ -1241,6 +1249,9 @@
         <v>1</v>
       </c>
       <c r="C4">
+        <v>2070822</v>
+      </c>
+      <c r="D4">
         <v>2070822</v>
       </c>
       <c r="E4"/>
@@ -1281,6 +1292,9 @@
       <c r="C5">
         <v>2070822</v>
       </c>
+      <c r="D5">
+        <v>2070822</v>
+      </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="Q5" s="15"/>
@@ -1319,6 +1333,9 @@
       <c r="C6">
         <v>1915971</v>
       </c>
+      <c r="D6">
+        <v>1915971</v>
+      </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="Q6" s="15"/>
@@ -1357,6 +1374,9 @@
       <c r="C7">
         <v>1147386</v>
       </c>
+      <c r="D7">
+        <v>1147386</v>
+      </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="Q7" s="15"/>
@@ -1395,6 +1415,9 @@
       <c r="C8">
         <v>14049629</v>
       </c>
+      <c r="D8">
+        <v>14049629</v>
+      </c>
       <c r="E8"/>
       <c r="F8"/>
       <c r="Q8" s="15"/>
@@ -1433,6 +1456,9 @@
       <c r="C9">
         <v>3048715</v>
       </c>
+      <c r="D9">
+        <v>3048715</v>
+      </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="Q9" s="15"/>
@@ -1468,6 +1494,9 @@
       <c r="C10">
         <v>3048715</v>
       </c>
+      <c r="D10">
+        <v>3048715</v>
+      </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -1509,7 +1538,9 @@
       <c r="C12" s="4">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1568,7 +1599,9 @@
       <c r="C13" s="4">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1656,7 +1689,10 @@
         <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="D16" t="s">
+        <v>173</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16"/>
@@ -1694,7 +1730,10 @@
         <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="D17" t="s">
+        <v>172</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17"/>
@@ -1752,6 +1791,9 @@
         <v>100</v>
       </c>
       <c r="C20">
+        <v>0.4</v>
+      </c>
+      <c r="D20">
         <v>0.4</v>
       </c>
       <c r="R20" s="4"/>
@@ -1802,6 +1844,9 @@
       <c r="C21">
         <v>120</v>
       </c>
+      <c r="D21">
+        <v>120</v>
+      </c>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -1847,6 +1892,9 @@
       <c r="C22">
         <v>0.4</v>
       </c>
+      <c r="D22">
+        <v>0.4</v>
+      </c>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
@@ -1890,6 +1938,9 @@
         <v>102</v>
       </c>
       <c r="C23">
+        <v>40</v>
+      </c>
+      <c r="D23">
         <v>40</v>
       </c>
       <c r="R23" s="4"/>
@@ -2018,6 +2069,9 @@
       <c r="C26">
         <v>0.5</v>
       </c>
+      <c r="D26">
+        <v>0.5</v>
+      </c>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
@@ -2063,6 +2117,9 @@
       <c r="C27">
         <v>0.5</v>
       </c>
+      <c r="D27">
+        <v>0.5</v>
+      </c>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -2108,6 +2165,9 @@
       <c r="C28">
         <v>100</v>
       </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -2222,7 +2282,10 @@
         <f>0.04/12</f>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="7">
+        <f>0.04/12</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -2271,6 +2334,10 @@
         <f>0.54/12</f>
         <v>4.5000000000000005E-2</v>
       </c>
+      <c r="D34">
+        <f>0.54/12</f>
+        <v>4.5000000000000005E-2</v>
+      </c>
       <c r="E34"/>
       <c r="F34"/>
       <c r="R34" s="4"/>
@@ -2306,6 +2373,10 @@
         <f>0.54/12</f>
         <v>4.5000000000000005E-2</v>
       </c>
+      <c r="D35">
+        <f>0.54/12</f>
+        <v>4.5000000000000005E-2</v>
+      </c>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
@@ -2358,6 +2429,9 @@
         <v>16</v>
       </c>
       <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" t="s">
         <v>74</v>
       </c>
       <c r="E38" s="20"/>
@@ -2404,6 +2478,9 @@
       <c r="C39" t="s">
         <v>75</v>
       </c>
+      <c r="D39" t="s">
+        <v>75</v>
+      </c>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="H39" s="6"/>
@@ -2448,6 +2525,9 @@
       <c r="C40" t="s">
         <v>76</v>
       </c>
+      <c r="D40" t="s">
+        <v>76</v>
+      </c>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
       <c r="I40" s="5"/>
@@ -2490,6 +2570,9 @@
       <c r="C41" t="s">
         <v>77</v>
       </c>
+      <c r="D41" t="s">
+        <v>77</v>
+      </c>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
       <c r="J41" s="6"/>
@@ -2529,6 +2612,9 @@
       <c r="C42" t="s">
         <v>77</v>
       </c>
+      <c r="D42" t="s">
+        <v>77</v>
+      </c>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
@@ -2581,6 +2667,10 @@
         <v>21</v>
       </c>
       <c r="C45">
+        <f>1/108</f>
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="D45">
         <f>1/108</f>
         <v>9.2592592592592587E-3</v>
       </c>
@@ -2608,6 +2698,10 @@
         <v>22</v>
       </c>
       <c r="C46">
+        <f>1/48</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D46">
         <f>1/48</f>
         <v>2.0833333333333332E-2</v>
       </c>
@@ -2655,9 +2749,13 @@
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C47">
+        <f>1/48</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D47">
         <f>1/48</f>
         <v>2.0833333333333332E-2</v>
       </c>
@@ -2730,6 +2828,9 @@
         <v>25</v>
       </c>
       <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" t="s">
         <v>78</v>
       </c>
       <c r="E51" s="6"/>
@@ -2772,6 +2873,9 @@
       <c r="C52" t="s">
         <v>146</v>
       </c>
+      <c r="D52" t="s">
+        <v>146</v>
+      </c>
       <c r="E52" s="6"/>
       <c r="F52"/>
       <c r="L52" s="6"/>
@@ -2812,6 +2916,9 @@
       <c r="C53" t="s">
         <v>79</v>
       </c>
+      <c r="D53" t="s">
+        <v>79</v>
+      </c>
       <c r="E53" s="6"/>
       <c r="F53"/>
       <c r="M53" s="6"/>
@@ -2852,6 +2959,9 @@
       <c r="C54" t="s">
         <v>79</v>
       </c>
+      <c r="D54" t="s">
+        <v>79</v>
+      </c>
       <c r="E54" s="6"/>
       <c r="F54"/>
       <c r="N54" s="6"/>
@@ -2892,6 +3002,9 @@
       <c r="C55" t="s">
         <v>80</v>
       </c>
+      <c r="D55" t="s">
+        <v>80</v>
+      </c>
       <c r="E55" s="6"/>
       <c r="F55"/>
       <c r="O55" s="6"/>
@@ -2932,6 +3045,9 @@
       <c r="C56" t="s">
         <v>81</v>
       </c>
+      <c r="D56" t="s">
+        <v>81</v>
+      </c>
       <c r="E56" s="6"/>
       <c r="F56"/>
       <c r="P56" s="6"/>
@@ -2964,9 +3080,12 @@
     </row>
     <row r="57" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A57" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" t="s">
         <v>81</v>
       </c>
       <c r="R57" s="4"/>
@@ -3021,6 +3140,9 @@
         <v>31</v>
       </c>
       <c r="C60">
+        <v>0.42</v>
+      </c>
+      <c r="D60">
         <v>0.42</v>
       </c>
       <c r="E60"/>
@@ -3122,6 +3244,9 @@
       <c r="C64" t="s">
         <v>82</v>
       </c>
+      <c r="D64" t="s">
+        <v>82</v>
+      </c>
       <c r="E64" s="6"/>
       <c r="F64"/>
       <c r="K64" s="6"/>
@@ -3161,6 +3286,9 @@
       <c r="C65" t="s">
         <v>83</v>
       </c>
+      <c r="D65" t="s">
+        <v>83</v>
+      </c>
       <c r="E65" s="6"/>
       <c r="F65"/>
       <c r="L65" s="6"/>
@@ -3198,6 +3326,9 @@
         <v>36</v>
       </c>
       <c r="C66" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" t="s">
         <v>84</v>
       </c>
       <c r="E66" s="6"/>
@@ -3250,6 +3381,9 @@
       <c r="C67" t="s">
         <v>85</v>
       </c>
+      <c r="D67" t="s">
+        <v>85</v>
+      </c>
       <c r="E67" s="6"/>
       <c r="F67"/>
       <c r="N67" s="6"/>
@@ -3289,6 +3423,9 @@
       <c r="C68" t="s">
         <v>86</v>
       </c>
+      <c r="D68" t="s">
+        <v>86</v>
+      </c>
       <c r="E68" s="6"/>
       <c r="F68"/>
       <c r="O68" s="6"/>
@@ -3328,6 +3465,9 @@
       <c r="C69" t="s">
         <v>87</v>
       </c>
+      <c r="D69" t="s">
+        <v>87</v>
+      </c>
       <c r="E69" s="6"/>
       <c r="F69"/>
       <c r="P69" s="6"/>
@@ -3359,9 +3499,12 @@
     </row>
     <row r="70" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A70" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C70" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" t="s">
         <v>87</v>
       </c>
       <c r="R70" s="4"/>
@@ -3413,6 +3556,9 @@
         <v>145</v>
       </c>
       <c r="C73">
+        <v>0.25</v>
+      </c>
+      <c r="D73">
         <v>0.25</v>
       </c>
       <c r="E73"/>
@@ -3486,6 +3632,9 @@
         <v>43</v>
       </c>
       <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
         <v>1</v>
       </c>
       <c r="E77"/>
@@ -3535,6 +3684,9 @@
       <c r="C78">
         <v>0.5</v>
       </c>
+      <c r="D78">
+        <v>0.5</v>
+      </c>
       <c r="E78"/>
       <c r="F78"/>
       <c r="R78" s="4"/>
@@ -3637,6 +3789,9 @@
       <c r="C81">
         <v>40</v>
       </c>
+      <c r="D81">
+        <v>40</v>
+      </c>
       <c r="E81"/>
       <c r="F81"/>
       <c r="R81" s="4"/>
@@ -3742,6 +3897,9 @@
       <c r="C84">
         <v>0.1</v>
       </c>
+      <c r="D84">
+        <v>0.1</v>
+      </c>
       <c r="E84"/>
       <c r="F84"/>
       <c r="R84" s="4"/>
@@ -3779,6 +3937,9 @@
       <c r="C85">
         <v>0.2</v>
       </c>
+      <c r="D85">
+        <v>0.2</v>
+      </c>
       <c r="E85"/>
       <c r="F85"/>
       <c r="R85" s="4"/>
@@ -3816,6 +3977,9 @@
       <c r="C86">
         <v>0.3</v>
       </c>
+      <c r="D86">
+        <v>0.3</v>
+      </c>
       <c r="E86"/>
       <c r="F86"/>
       <c r="R86" s="4"/>
@@ -3905,6 +4069,9 @@
       <c r="C89">
         <v>0.5</v>
       </c>
+      <c r="D89">
+        <v>0.5</v>
+      </c>
       <c r="E89"/>
       <c r="F89"/>
       <c r="R89" s="4"/>
@@ -3974,6 +4141,9 @@
         <v>52</v>
       </c>
       <c r="C92">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D92">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="E92"/>
@@ -4028,6 +4198,9 @@
       <c r="C93">
         <v>2.5999999999999999E-2</v>
       </c>
+      <c r="D93">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="E93"/>
       <c r="F93"/>
       <c r="Q93" s="7"/>
@@ -4080,6 +4253,9 @@
       <c r="C94">
         <v>2.5999999999999999E-2</v>
       </c>
+      <c r="D94">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="E94"/>
       <c r="F94"/>
       <c r="Q94" s="7"/>
@@ -4132,6 +4308,9 @@
       <c r="C95">
         <v>2.5999999999999999E-2</v>
       </c>
+      <c r="D95">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="E95"/>
       <c r="F95"/>
       <c r="Q95" s="7"/>
@@ -4184,6 +4363,9 @@
       <c r="C96">
         <v>2.5999999999999999E-2</v>
       </c>
+      <c r="D96">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="E96"/>
       <c r="F96"/>
       <c r="Q96" s="7"/>
@@ -4236,6 +4418,9 @@
       <c r="C97">
         <v>2.5999999999999999E-2</v>
       </c>
+      <c r="D97">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="E97"/>
       <c r="F97"/>
       <c r="Q97" s="7"/>
@@ -4280,9 +4465,12 @@
     </row>
     <row r="98" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A98" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C98">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D98">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="E98"/>
@@ -4395,6 +4583,9 @@
       <c r="C102">
         <v>0.25</v>
       </c>
+      <c r="D102">
+        <v>0.25</v>
+      </c>
       <c r="E102"/>
       <c r="F102"/>
       <c r="R102" s="4"/>
@@ -4494,6 +4685,9 @@
       <c r="C106">
         <v>0.5</v>
       </c>
+      <c r="D106">
+        <v>0.5</v>
+      </c>
       <c r="E106"/>
       <c r="F106"/>
       <c r="R106" s="4"/>
@@ -4578,6 +4772,9 @@
       <c r="C109" t="s">
         <v>88</v>
       </c>
+      <c r="D109" t="s">
+        <v>88</v>
+      </c>
       <c r="E109"/>
       <c r="F109"/>
       <c r="R109" s="4"/>
@@ -4669,6 +4866,9 @@
       <c r="C114" t="s">
         <v>89</v>
       </c>
+      <c r="D114" t="s">
+        <v>89</v>
+      </c>
       <c r="E114"/>
       <c r="F114"/>
       <c r="R114" s="4"/>
@@ -4755,6 +4955,9 @@
         <v>157</v>
       </c>
       <c r="C119" t="s">
+        <v>90</v>
+      </c>
+      <c r="D119" t="s">
         <v>90</v>
       </c>
       <c r="E119"/>
@@ -4805,6 +5008,9 @@
       <c r="C120">
         <v>1</v>
       </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
       <c r="E120" s="20"/>
       <c r="F120"/>
       <c r="R120" s="19"/>
@@ -4837,9 +5043,12 @@
     </row>
     <row r="121" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A121" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C121" t="s">
+        <v>90</v>
+      </c>
+      <c r="D121" t="s">
         <v>90</v>
       </c>
       <c r="E121" s="20"/>
@@ -4874,9 +5083,12 @@
     </row>
     <row r="122" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A122" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C122" t="s">
+        <v>90</v>
+      </c>
+      <c r="D122" t="s">
         <v>90</v>
       </c>
       <c r="R122" s="4"/>
@@ -4994,6 +5206,9 @@
       <c r="C128" t="s">
         <v>91</v>
       </c>
+      <c r="D128" t="s">
+        <v>91</v>
+      </c>
       <c r="E128" s="20"/>
       <c r="F128"/>
       <c r="R128" s="19"/>
@@ -5058,6 +5273,9 @@
         <v>143</v>
       </c>
       <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
         <v>0</v>
       </c>
       <c r="E132"/>

--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters CATTLE.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters CATTLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF47D91-DBB9-1149-BF0F-C43C3BF16700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF4AEC6-F11E-8949-8051-7FCD5AF8D0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14580" yWindow="500" windowWidth="14220" windowHeight="16280" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="173">
   <si>
     <t># Initial population</t>
   </si>
@@ -499,9 +499,6 @@
     <t>lab_non_health</t>
   </si>
   <si>
-    <t>Health_exp</t>
-  </si>
-  <si>
     <t>Interest_rate</t>
   </si>
   <si>
@@ -620,6 +617,12 @@
   </si>
   <si>
     <t>cattle_trial_past_mortality_zero</t>
+  </si>
+  <si>
+    <t>Health_exp_prev</t>
+  </si>
+  <si>
+    <t>Health_exp_treatment</t>
   </si>
 </sst>
 </file>
@@ -1124,11 +1127,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
-  <dimension ref="A1:BC134"/>
+  <dimension ref="A1:BC135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B12" sqref="B12"/>
+      <selection pane="topRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1175,19 +1178,19 @@
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -1300,7 +1303,7 @@
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1525,7 +1528,7 @@
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10">
         <v>3048715</v>
@@ -1575,7 +1578,7 @@
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="3">
         <v>8.3333333333333329E-2</v>
@@ -1640,7 +1643,7 @@
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" s="3">
         <v>4.1666666666666664E-2</v>
@@ -1784,16 +1787,16 @@
         <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O17" s="4"/>
       <c r="R17" s="18"/>
@@ -1900,10 +1903,10 @@
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
         <v>135</v>
-      </c>
-      <c r="B21" t="s">
-        <v>136</v>
       </c>
       <c r="C21">
         <v>120</v>
@@ -2104,7 +2107,7 @@
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -2146,10 +2149,10 @@
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C26">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2200,10 +2203,10 @@
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D27">
         <v>0.5</v>
@@ -2254,11 +2257,11 @@
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C28">
         <f>(10690/365)/C27</f>
-        <v>58.575342465753423</v>
+        <v>48.812785388127857</v>
       </c>
       <c r="D28">
         <f>(10690/365)/D27</f>
@@ -2383,19 +2386,19 @@
         <v>13</v>
       </c>
       <c r="C33" s="6">
-        <f>0.08/12</f>
+        <f t="shared" ref="C33:F34" si="0">0.08/12</f>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="D33" s="6">
-        <f>0.08/12</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="E33" s="6">
-        <f>0.08/12</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="F33" s="6">
-        <f>0.08/12</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="G33" s="6"/>
@@ -2441,19 +2444,19 @@
         <v>14</v>
       </c>
       <c r="C34" s="6">
-        <f>0.08/12</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="D34" s="6">
-        <f>0.08/12</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="E34" s="6">
-        <f>0.08/12</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="F34" s="6">
-        <f>0.08/12</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="R34" s="3"/>
@@ -2483,7 +2486,7 @@
     </row>
     <row r="35" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35">
         <f>0.125/12</f>
@@ -2755,7 +2758,7 @@
     </row>
     <row r="42" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C42">
         <f>-LOG(1-0.01)</f>
@@ -2860,19 +2863,19 @@
         <v>22</v>
       </c>
       <c r="C46">
-        <f>1/48</f>
+        <f t="shared" ref="C46:F47" si="1">1/48</f>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D46">
-        <f>1/48</f>
+        <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E46">
-        <f>1/48</f>
+        <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="F46">
-        <f>1/48</f>
+        <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="Q46" s="13"/>
@@ -2917,22 +2920,22 @@
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A47" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C47">
-        <f>1/48</f>
+        <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D47">
-        <f>1/48</f>
+        <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E47">
-        <f>1/48</f>
+        <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="F47">
-        <f>1/48</f>
+        <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="R47" s="3"/>
@@ -3004,16 +3007,16 @@
         <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K51" s="5"/>
       <c r="R51" s="18"/>
@@ -3051,16 +3054,16 @@
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L52" s="5"/>
       <c r="R52" s="18"/>
@@ -3098,16 +3101,16 @@
         <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M53" s="5"/>
       <c r="R53" s="18"/>
@@ -3145,16 +3148,16 @@
         <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N54" s="5"/>
       <c r="R54" s="18"/>
@@ -3192,16 +3195,16 @@
         <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" t="s">
         <v>164</v>
       </c>
-      <c r="E55" t="s">
-        <v>165</v>
-      </c>
       <c r="F55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="5"/>
       <c r="R55" s="18"/>
@@ -3239,16 +3242,16 @@
         <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" t="s">
         <v>164</v>
       </c>
-      <c r="E56" t="s">
-        <v>165</v>
-      </c>
       <c r="F56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P56" s="5"/>
       <c r="R56" s="18"/>
@@ -3280,19 +3283,19 @@
     </row>
     <row r="57" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A57" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" t="s">
+        <v>163</v>
+      </c>
+      <c r="E57" t="s">
         <v>164</v>
       </c>
-      <c r="E57" t="s">
-        <v>165</v>
-      </c>
       <c r="F57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
@@ -3733,7 +3736,7 @@
     </row>
     <row r="70" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A70" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C70">
         <v>9488</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="73" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A73" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -4761,7 +4764,7 @@
     </row>
     <row r="98" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A98" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C98">
         <v>2.5999999999999999E-2</v>
@@ -5268,7 +5271,7 @@
     </row>
     <row r="119" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A119" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C119" t="s">
         <v>80</v>
@@ -5367,7 +5370,7 @@
     </row>
     <row r="121" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A121" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C121" t="s">
         <v>80</v>
@@ -5411,7 +5414,7 @@
     </row>
     <row r="122" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A122" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C122" t="s">
         <v>80</v>
@@ -5532,22 +5535,22 @@
     </row>
     <row r="128" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A128" s="26" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="B128" t="s">
         <v>70</v>
       </c>
       <c r="C128" t="s">
+        <v>165</v>
+      </c>
+      <c r="D128" t="s">
         <v>166</v>
       </c>
-      <c r="D128" t="s">
-        <v>167</v>
-      </c>
       <c r="E128" t="s">
+        <v>165</v>
+      </c>
+      <c r="F128" t="s">
         <v>166</v>
-      </c>
-      <c r="F128" t="s">
-        <v>167</v>
       </c>
       <c r="R128" s="18"/>
       <c r="S128" s="3"/>
@@ -5559,6 +5562,12 @@
       <c r="AR128" s="19"/>
     </row>
     <row r="129" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A129" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C129" t="s">
+        <v>165</v>
+      </c>
       <c r="R129" s="3"/>
       <c r="S129" s="3"/>
       <c r="T129" s="3"/>
@@ -5573,9 +5582,6 @@
       <c r="AC129" s="14"/>
     </row>
     <row r="130" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A130" s="26" t="s">
-        <v>71</v>
-      </c>
       <c r="R130" s="3"/>
       <c r="S130" s="3"/>
       <c r="T130" s="3"/>
@@ -5591,7 +5597,7 @@
     </row>
     <row r="131" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A131" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R131" s="3"/>
       <c r="S131" s="3"/>
@@ -5608,19 +5614,7 @@
     </row>
     <row r="132" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A132" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="R132" s="3"/>
       <c r="S132" s="3"/>
@@ -5634,28 +5628,25 @@
       <c r="AA132" s="14"/>
       <c r="AB132" s="14"/>
       <c r="AC132" s="14"/>
-      <c r="AD132" s="14"/>
-      <c r="AE132" s="14"/>
-      <c r="AF132" s="14"/>
-      <c r="AG132" s="14"/>
-      <c r="AH132" s="14"/>
-      <c r="AI132" s="14"/>
-      <c r="AJ132" s="14"/>
-      <c r="AK132" s="14"/>
-      <c r="AL132" s="14"/>
-      <c r="AM132" s="14"/>
-      <c r="AN132" s="14"/>
-      <c r="AO132" s="14"/>
-      <c r="AP132" s="14"/>
-      <c r="AR132" s="14"/>
-      <c r="AS132" s="14"/>
-      <c r="AT132" s="14"/>
-      <c r="AU132" s="14"/>
-      <c r="AV132" s="14"/>
-      <c r="AW132" s="14"/>
-      <c r="AX132" s="14"/>
     </row>
     <row r="133" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A133" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="R133" s="3"/>
+      <c r="S133" s="3"/>
       <c r="T133" s="3"/>
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
@@ -5666,6 +5657,26 @@
       <c r="AA133" s="14"/>
       <c r="AB133" s="14"/>
       <c r="AC133" s="14"/>
+      <c r="AD133" s="14"/>
+      <c r="AE133" s="14"/>
+      <c r="AF133" s="14"/>
+      <c r="AG133" s="14"/>
+      <c r="AH133" s="14"/>
+      <c r="AI133" s="14"/>
+      <c r="AJ133" s="14"/>
+      <c r="AK133" s="14"/>
+      <c r="AL133" s="14"/>
+      <c r="AM133" s="14"/>
+      <c r="AN133" s="14"/>
+      <c r="AO133" s="14"/>
+      <c r="AP133" s="14"/>
+      <c r="AR133" s="14"/>
+      <c r="AS133" s="14"/>
+      <c r="AT133" s="14"/>
+      <c r="AU133" s="14"/>
+      <c r="AV133" s="14"/>
+      <c r="AW133" s="14"/>
+      <c r="AX133" s="14"/>
     </row>
     <row r="134" spans="1:50" x14ac:dyDescent="0.2">
       <c r="T134" s="3"/>
@@ -5678,6 +5689,18 @@
       <c r="AA134" s="14"/>
       <c r="AB134" s="14"/>
       <c r="AC134" s="14"/>
+    </row>
+    <row r="135" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="T135" s="3"/>
+      <c r="U135" s="3"/>
+      <c r="V135" s="3"/>
+      <c r="W135" s="3"/>
+      <c r="X135" s="14"/>
+      <c r="Y135" s="14"/>
+      <c r="Z135" s="14"/>
+      <c r="AA135" s="14"/>
+      <c r="AB135" s="14"/>
+      <c r="AC135" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5699,37 +5722,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters CATTLE.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters CATTLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF4AEC6-F11E-8949-8051-7FCD5AF8D0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388A5AA6-16A4-C942-AD80-D53531857531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="500" windowWidth="14220" windowHeight="16280" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="37180" yWindow="-220" windowWidth="27380" windowHeight="16280" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -80,7 +80,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -91,7 +91,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="174">
   <si>
     <t># Initial population</t>
   </si>
@@ -226,9 +226,6 @@
     <t xml:space="preserve">## Financial value of adult Male  </t>
   </si>
   <si>
-    <t>## Off take which go for fertility in females (used when calculating hide numbers)</t>
-  </si>
-  <si>
     <t xml:space="preserve">## skin/hides  </t>
   </si>
   <si>
@@ -505,9 +502,6 @@
     <t>N_NM_t0</t>
   </si>
   <si>
-    <t>#fert_offtake</t>
-  </si>
-  <si>
     <t>lac_duration</t>
   </si>
   <si>
@@ -538,9 +532,6 @@
     <t>Rules for this to be read by the program</t>
   </si>
   <si>
-    <t>Labour</t>
-  </si>
-  <si>
     <t>N_O_t0</t>
   </si>
   <si>
@@ -623,6 +614,18 @@
   </si>
   <si>
     <t>Health_exp_treatment</t>
+  </si>
+  <si>
+    <t>Labour_cattle</t>
+  </si>
+  <si>
+    <t>Infrastructure_per_head</t>
+  </si>
+  <si>
+    <t>rpert(10000, 0.18, 0.25, 0.23)</t>
+  </si>
+  <si>
+    <t>#Proportion of adult females milked</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,19 +682,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -705,8 +695,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -743,6 +739,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -765,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -809,10 +811,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,11 +1133,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
-  <dimension ref="A1:BC135"/>
+  <dimension ref="A1:BC133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C27" sqref="C27"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1139,7 +1145,7 @@
     <col min="1" max="1" width="34.83203125" style="26" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="3" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" customWidth="1"/>
     <col min="5" max="5" width="43.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.33203125" customWidth="1"/>
     <col min="7" max="10" width="43.1640625" customWidth="1"/>
@@ -1175,22 +1181,22 @@
   <sheetData>
     <row r="1" spans="1:55" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -1223,7 +1229,7 @@
     </row>
     <row r="2" spans="1:55" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="23">
         <v>12</v>
@@ -1258,16 +1264,16 @@
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>2070822</v>
-      </c>
-      <c r="D4">
-        <v>2070822</v>
+      <c r="C4" s="21">
+        <v>4190000</v>
+      </c>
+      <c r="D4" s="21">
+        <v>2130000</v>
       </c>
       <c r="E4">
         <v>2070822</v>
@@ -1303,16 +1309,16 @@
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>2070822</v>
-      </c>
-      <c r="D5">
-        <v>2070822</v>
+      <c r="C5" s="21">
+        <v>4660000</v>
+      </c>
+      <c r="D5" s="21">
+        <v>1440000</v>
       </c>
       <c r="E5">
         <v>2070822</v>
@@ -1348,16 +1354,16 @@
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>1915971</v>
-      </c>
-      <c r="D6">
-        <v>1915971</v>
+      <c r="C6" s="21">
+        <v>4470000</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1360000</v>
       </c>
       <c r="E6">
         <v>1915971</v>
@@ -1393,16 +1399,16 @@
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>1147386</v>
-      </c>
-      <c r="D7">
-        <v>1147386</v>
+      <c r="C7" s="21">
+        <v>5480000</v>
+      </c>
+      <c r="D7" s="21">
+        <v>760000</v>
       </c>
       <c r="E7">
         <v>1147386</v>
@@ -1438,16 +1444,16 @@
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>14049629</v>
-      </c>
-      <c r="D8">
-        <v>14049629</v>
+      <c r="C8" s="21">
+        <v>16700000</v>
+      </c>
+      <c r="D8" s="21">
+        <v>5320000</v>
       </c>
       <c r="E8">
         <v>14049629</v>
@@ -1483,16 +1489,16 @@
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>3048715</v>
-      </c>
-      <c r="D9">
-        <v>3048715</v>
+      <c r="C9" s="21">
+        <v>19500000</v>
+      </c>
+      <c r="D9" s="21">
+        <v>2440000</v>
       </c>
       <c r="E9">
         <v>3048715</v>
@@ -1528,13 +1534,13 @@
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10">
-        <v>3048715</v>
-      </c>
-      <c r="D10">
-        <v>3048715</v>
+        <v>142</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0</v>
       </c>
       <c r="E10">
         <v>3048715</v>
@@ -1559,10 +1565,7 @@
       <c r="A11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
-        <f>1/6</f>
-        <v>0.16666666666666666</v>
-      </c>
+      <c r="B11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1578,12 +1581,12 @@
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="3">
+        <v>143</v>
+      </c>
+      <c r="C12" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E12" s="3">
@@ -1643,12 +1646,12 @@
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="3">
+        <v>144</v>
+      </c>
+      <c r="C13" s="29">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="29">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E13" s="3">
@@ -1739,13 +1742,13 @@
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16">
-        <v>0.5</v>
-      </c>
-      <c r="D16">
-        <v>0.72</v>
+        <v>86</v>
+      </c>
+      <c r="C16" s="21">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0.69</v>
       </c>
       <c r="E16">
         <v>0.5</v>
@@ -1784,19 +1787,19 @@
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" t="s">
-        <v>160</v>
+        <v>87</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O17" s="4"/>
       <c r="R17" s="18"/>
@@ -1848,13 +1851,16 @@
       <c r="AC19" s="14"/>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20">
+      <c r="A20" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="32">
         <v>0.4</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="32">
         <v>0.4</v>
       </c>
       <c r="E20">
@@ -1903,16 +1909,16 @@
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21">
-        <v>120</v>
-      </c>
-      <c r="D21">
-        <v>120</v>
+        <v>133</v>
+      </c>
+      <c r="C21" s="21">
+        <v>195</v>
+      </c>
+      <c r="D21" s="21">
+        <v>192</v>
       </c>
       <c r="E21">
         <v>120</v>
@@ -1960,13 +1966,13 @@
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22">
-        <v>0.4</v>
-      </c>
-      <c r="D22">
-        <v>0.4</v>
+        <v>89</v>
+      </c>
+      <c r="C22" s="21">
+        <v>1.45</v>
+      </c>
+      <c r="D22" s="21">
+        <v>1.79</v>
       </c>
       <c r="E22">
         <v>0.4</v>
@@ -2014,7 +2020,7 @@
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23">
         <v>31</v>
@@ -2107,7 +2113,7 @@
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -2148,14 +2154,15 @@
       <c r="BC25" s="21"/>
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26">
+      <c r="A26" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32">
         <v>0.2</v>
       </c>
-      <c r="D26">
-        <v>0</v>
+      <c r="D26" s="32">
+        <v>0.1</v>
       </c>
       <c r="E26">
         <v>0.5</v>
@@ -2202,13 +2209,14 @@
       <c r="BC26" s="21"/>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27">
+      <c r="A27" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32">
         <v>0.6</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="32">
         <v>0.5</v>
       </c>
       <c r="E27">
@@ -2256,14 +2264,15 @@
       <c r="BC27" s="21"/>
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28">
-        <f>(10690/365)/C27</f>
+      <c r="A28" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32">
+        <f>(10690/365)/0.6</f>
         <v>48.812785388127857</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="32">
         <f>(10690/365)/D27</f>
         <v>58.575342465753423</v>
       </c>
@@ -2380,21 +2389,19 @@
     </row>
     <row r="33" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="6">
-        <f t="shared" ref="C33:F34" si="0">0.08/12</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="D33" s="6">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666671E-3</v>
+      <c r="C33" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D33" s="31">
+        <v>0.19</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E33:F34" si="0">0.08/12</f>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="F33" s="6">
@@ -2438,18 +2445,16 @@
     </row>
     <row r="34" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="6">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="D34" s="6">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666671E-3</v>
+      <c r="C34" s="31">
+        <v>0.09</v>
+      </c>
+      <c r="D34" s="31">
+        <v>0.08</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" si="0"/>
@@ -2486,15 +2491,13 @@
     </row>
     <row r="35" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35">
-        <f>0.125/12</f>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="D35">
-        <f>0.125/12</f>
-        <v>1.0416666666666666E-2</v>
+        <v>149</v>
+      </c>
+      <c r="C35" s="21">
+        <v>0.09</v>
+      </c>
+      <c r="D35" s="21">
+        <v>0.08</v>
       </c>
       <c r="E35">
         <f>0.125/12</f>
@@ -2535,6 +2538,8 @@
       <c r="A37" s="26" t="s">
         <v>15</v>
       </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
@@ -2550,18 +2555,16 @@
     </row>
     <row r="38" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A38" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
-      <c r="C38">
-        <f>-LOG(1-0.12)</f>
-        <v>5.551732784983137E-2</v>
-      </c>
-      <c r="D38">
-        <f>-LOG(1-0.28)</f>
-        <v>0.14266750356873156</v>
+      <c r="C38" s="30">
+        <v>0.12</v>
+      </c>
+      <c r="D38" s="29">
+        <v>0.28000000000000003</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2603,18 +2606,16 @@
     </row>
     <row r="39" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A39" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
       </c>
-      <c r="C39">
-        <f>-LOG(1-0.06)</f>
-        <v>2.6872146400301365E-2</v>
-      </c>
-      <c r="D39">
-        <f>-LOG(1-0.21)</f>
-        <v>0.10237290870955855</v>
+      <c r="C39" s="30">
+        <v>0.06</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>172</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2656,18 +2657,16 @@
     </row>
     <row r="40" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
       </c>
-      <c r="C40">
-        <f>-LOG(1-0.02)</f>
-        <v>8.7739243075051505E-3</v>
-      </c>
-      <c r="D40">
-        <f>-LOG(1-0.04)</f>
-        <v>1.7728766960431602E-2</v>
+      <c r="C40" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="D40" s="29">
+        <v>0.04</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2707,18 +2706,16 @@
     </row>
     <row r="41" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A41" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
       </c>
-      <c r="C41">
-        <f>-LOG(1-0.01)</f>
-        <v>4.3648054024500883E-3</v>
-      </c>
-      <c r="D41">
-        <f>-LOG(1-0.07)</f>
-        <v>3.1517051446064911E-2</v>
+      <c r="C41" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="D41" s="29">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2758,15 +2755,13 @@
     </row>
     <row r="42" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42">
-        <f>-LOG(1-0.01)</f>
-        <v>4.3648054024500883E-3</v>
-      </c>
-      <c r="D42">
-        <f>-LOG(1-0.07)</f>
-        <v>3.1517051446064911E-2</v>
+        <v>150</v>
+      </c>
+      <c r="C42" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="D42" s="29">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2788,6 +2783,8 @@
       <c r="AC42" s="14"/>
     </row>
     <row r="43" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
@@ -2819,17 +2816,17 @@
       <c r="AC44" s="14"/>
     </row>
     <row r="45" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A45" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A45" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="32">
         <f>1/108</f>
         <v>9.2592592592592587E-3</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="32">
         <f>1/108</f>
         <v>9.2592592592592587E-3</v>
       </c>
@@ -2856,17 +2853,17 @@
       <c r="AC45" s="15"/>
     </row>
     <row r="46" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="32">
         <f t="shared" ref="C46:F47" si="1">1/48</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="32">
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
@@ -2919,14 +2916,15 @@
       <c r="BC46" s="12"/>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A47" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47">
+      <c r="A47" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32">
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="32">
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
@@ -3001,22 +2999,22 @@
     </row>
     <row r="51" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A51" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
       </c>
-      <c r="C51" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" t="s">
-        <v>161</v>
+      <c r="C51" s="21">
+        <v>90</v>
+      </c>
+      <c r="D51" s="21">
+        <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F51" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K51" s="5"/>
       <c r="R51" s="18"/>
@@ -3048,22 +3046,22 @@
     </row>
     <row r="52" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A52" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
       </c>
-      <c r="C52" t="s">
-        <v>161</v>
-      </c>
-      <c r="D52" t="s">
-        <v>161</v>
+      <c r="C52" s="21">
+        <v>90</v>
+      </c>
+      <c r="D52" s="21">
+        <v>100</v>
       </c>
       <c r="E52" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F52" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L52" s="5"/>
       <c r="R52" s="18"/>
@@ -3095,22 +3093,22 @@
     </row>
     <row r="53" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A53" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
         <v>27</v>
       </c>
-      <c r="C53" t="s">
-        <v>162</v>
-      </c>
-      <c r="D53" t="s">
-        <v>162</v>
-      </c>
-      <c r="E53" t="s">
-        <v>162</v>
+      <c r="C53" s="21">
+        <v>170</v>
+      </c>
+      <c r="D53" s="21">
+        <v>180</v>
+      </c>
+      <c r="E53">
+        <v>180</v>
       </c>
       <c r="F53" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M53" s="5"/>
       <c r="R53" s="18"/>
@@ -3142,22 +3140,22 @@
     </row>
     <row r="54" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A54" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B54" t="s">
         <v>28</v>
       </c>
-      <c r="C54" t="s">
-        <v>162</v>
-      </c>
-      <c r="D54" t="s">
-        <v>162</v>
-      </c>
-      <c r="E54" t="s">
-        <v>162</v>
+      <c r="C54" s="21">
+        <v>170</v>
+      </c>
+      <c r="D54" s="21">
+        <v>180</v>
+      </c>
+      <c r="E54">
+        <v>180</v>
       </c>
       <c r="F54" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N54" s="5"/>
       <c r="R54" s="18"/>
@@ -3189,22 +3187,22 @@
     </row>
     <row r="55" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A55" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B55" t="s">
         <v>29</v>
       </c>
-      <c r="C55" t="s">
-        <v>164</v>
-      </c>
-      <c r="D55" t="s">
-        <v>163</v>
+      <c r="C55" s="21">
+        <v>255</v>
+      </c>
+      <c r="D55" s="21">
+        <v>240</v>
       </c>
       <c r="E55" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F55" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O55" s="5"/>
       <c r="R55" s="18"/>
@@ -3236,22 +3234,22 @@
     </row>
     <row r="56" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A56" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
         <v>29</v>
       </c>
-      <c r="C56" t="s">
-        <v>164</v>
-      </c>
-      <c r="D56" t="s">
-        <v>163</v>
+      <c r="C56" s="21">
+        <v>255</v>
+      </c>
+      <c r="D56" s="21">
+        <v>240</v>
       </c>
       <c r="E56" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F56" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P56" s="5"/>
       <c r="R56" s="18"/>
@@ -3283,19 +3281,19 @@
     </row>
     <row r="57" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A57" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="C57" t="s">
-        <v>164</v>
-      </c>
-      <c r="D57" t="s">
-        <v>163</v>
+        <v>151</v>
+      </c>
+      <c r="C57" s="21">
+        <v>255</v>
+      </c>
+      <c r="D57" s="21">
+        <v>240</v>
       </c>
       <c r="E57" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F57" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
@@ -3342,16 +3340,16 @@
       <c r="AC59" s="14"/>
     </row>
     <row r="60" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A60" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="A60" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="32">
         <v>0.42</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="32">
         <v>0.42</v>
       </c>
       <c r="E60">
@@ -3448,23 +3446,23 @@
       <c r="AC63" s="14"/>
     </row>
     <row r="64" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A64" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="A64" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C64" t="s">
-        <v>74</v>
-      </c>
-      <c r="D64" t="s">
-        <v>74</v>
+      <c r="C64" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>73</v>
       </c>
       <c r="E64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K64" s="5"/>
       <c r="R64" s="18"/>
@@ -3494,23 +3492,23 @@
       <c r="BC64" s="21"/>
     </row>
     <row r="65" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A65" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="A65" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C65" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" t="s">
-        <v>75</v>
+      <c r="C65" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>74</v>
       </c>
       <c r="E65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L65" s="5"/>
       <c r="R65" s="18"/>
@@ -3541,7 +3539,7 @@
     </row>
     <row r="66" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A66" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B66" t="s">
         <v>36</v>
@@ -3597,23 +3595,23 @@
       <c r="BC66" s="21"/>
     </row>
     <row r="67" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A67" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="A67" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C67" t="s">
-        <v>76</v>
-      </c>
-      <c r="D67" t="s">
-        <v>76</v>
+      <c r="C67" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>75</v>
       </c>
       <c r="E67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N67" s="5"/>
       <c r="R67" s="18"/>
@@ -3643,23 +3641,23 @@
       <c r="BC67" s="21"/>
     </row>
     <row r="68" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A68" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="A68" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C68" t="s">
-        <v>77</v>
-      </c>
-      <c r="D68" t="s">
-        <v>77</v>
+      <c r="C68" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>76</v>
       </c>
       <c r="E68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O68" s="5"/>
       <c r="R68" s="18"/>
@@ -3690,7 +3688,7 @@
     </row>
     <row r="69" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A69" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s">
         <v>39</v>
@@ -3736,7 +3734,7 @@
     </row>
     <row r="70" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A70" s="26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C70">
         <v>9488</v>
@@ -3778,9 +3776,6 @@
       <c r="AC71" s="14"/>
     </row>
     <row r="72" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A72" s="26" t="s">
-        <v>40</v>
-      </c>
       <c r="R72" s="3"/>
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
@@ -3796,19 +3791,7 @@
     </row>
     <row r="73" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A73" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R73" s="3"/>
       <c r="S73" s="3"/>
@@ -3824,6 +3807,9 @@
       <c r="AC73" s="14"/>
     </row>
     <row r="74" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A74" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="R74" s="3"/>
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
@@ -3838,8 +3824,23 @@
       <c r="AC74" s="14"/>
     </row>
     <row r="75" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A75" s="26" t="s">
-        <v>41</v>
+      <c r="A75" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="32">
+        <v>1</v>
+      </c>
+      <c r="D75" s="32">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
       </c>
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
@@ -3853,10 +3854,48 @@
       <c r="AA75" s="14"/>
       <c r="AB75" s="14"/>
       <c r="AC75" s="14"/>
+      <c r="AD75" s="14"/>
+      <c r="AE75" s="14"/>
+      <c r="AF75" s="14"/>
+      <c r="AG75" s="14"/>
+      <c r="AH75" s="14"/>
+      <c r="AI75" s="14"/>
+      <c r="AJ75" s="14"/>
+      <c r="AK75" s="14"/>
+      <c r="AL75" s="14"/>
+      <c r="AM75" s="14"/>
+      <c r="AN75" s="14"/>
+      <c r="AO75" s="14"/>
+      <c r="AP75" s="14"/>
+      <c r="AR75" s="21"/>
+      <c r="AS75" s="21"/>
+      <c r="AT75" s="21"/>
+      <c r="AU75" s="21"/>
+      <c r="AV75" s="21"/>
+      <c r="AW75" s="21"/>
+      <c r="AX75" s="21"/>
+      <c r="AY75" s="21"/>
+      <c r="AZ75" s="21"/>
+      <c r="BA75" s="21"/>
+      <c r="BB75" s="21"/>
+      <c r="BC75" s="21"/>
     </row>
     <row r="76" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A76" s="26" t="s">
-        <v>42</v>
+      <c r="A76" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32">
+        <v>0</v>
+      </c>
+      <c r="D76" s="32">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
       </c>
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
@@ -3870,26 +3909,33 @@
       <c r="AA76" s="14"/>
       <c r="AB76" s="14"/>
       <c r="AC76" s="14"/>
+      <c r="AD76" s="14"/>
+      <c r="AE76" s="14"/>
+      <c r="AF76" s="14"/>
+      <c r="AG76" s="14"/>
+      <c r="AH76" s="14"/>
+      <c r="AI76" s="14"/>
+      <c r="AJ76" s="14"/>
+      <c r="AK76" s="14"/>
+      <c r="AL76" s="14"/>
+      <c r="AM76" s="14"/>
+      <c r="AN76" s="14"/>
+      <c r="AO76" s="14"/>
+      <c r="AP76" s="14"/>
+      <c r="AR76" s="21"/>
+      <c r="AS76" s="21"/>
+      <c r="AT76" s="21"/>
+      <c r="AU76" s="21"/>
+      <c r="AV76" s="21"/>
+      <c r="AW76" s="21"/>
+      <c r="AX76" s="21"/>
+      <c r="AY76" s="21"/>
+      <c r="AZ76" s="21"/>
+      <c r="BA76" s="21"/>
+      <c r="BB76" s="21"/>
+      <c r="BC76" s="21"/>
     </row>
     <row r="77" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A77" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B77" t="s">
-        <v>43</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
       <c r="R77" s="3"/>
       <c r="S77" s="3"/>
       <c r="T77" s="3"/>
@@ -3902,19 +3948,6 @@
       <c r="AA77" s="14"/>
       <c r="AB77" s="14"/>
       <c r="AC77" s="14"/>
-      <c r="AD77" s="14"/>
-      <c r="AE77" s="14"/>
-      <c r="AF77" s="14"/>
-      <c r="AG77" s="14"/>
-      <c r="AH77" s="14"/>
-      <c r="AI77" s="14"/>
-      <c r="AJ77" s="14"/>
-      <c r="AK77" s="14"/>
-      <c r="AL77" s="14"/>
-      <c r="AM77" s="14"/>
-      <c r="AN77" s="14"/>
-      <c r="AO77" s="14"/>
-      <c r="AP77" s="14"/>
       <c r="AR77" s="21"/>
       <c r="AS77" s="21"/>
       <c r="AT77" s="21"/>
@@ -3930,19 +3963,7 @@
     </row>
     <row r="78" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A78" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
@@ -3956,19 +3977,6 @@
       <c r="AA78" s="14"/>
       <c r="AB78" s="14"/>
       <c r="AC78" s="14"/>
-      <c r="AD78" s="14"/>
-      <c r="AE78" s="14"/>
-      <c r="AF78" s="14"/>
-      <c r="AG78" s="14"/>
-      <c r="AH78" s="14"/>
-      <c r="AI78" s="14"/>
-      <c r="AJ78" s="14"/>
-      <c r="AK78" s="14"/>
-      <c r="AL78" s="14"/>
-      <c r="AM78" s="14"/>
-      <c r="AN78" s="14"/>
-      <c r="AO78" s="14"/>
-      <c r="AP78" s="14"/>
       <c r="AR78" s="21"/>
       <c r="AS78" s="21"/>
       <c r="AT78" s="21"/>
@@ -3983,6 +3991,21 @@
       <c r="BC78" s="21"/>
     </row>
     <row r="79" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A79" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="32">
+        <v>40</v>
+      </c>
+      <c r="D79" s="32">
+        <v>40</v>
+      </c>
+      <c r="E79">
+        <v>40</v>
+      </c>
+      <c r="F79">
+        <v>40</v>
+      </c>
       <c r="R79" s="3"/>
       <c r="S79" s="3"/>
       <c r="T79" s="3"/>
@@ -3995,6 +4018,19 @@
       <c r="AA79" s="14"/>
       <c r="AB79" s="14"/>
       <c r="AC79" s="14"/>
+      <c r="AD79" s="14"/>
+      <c r="AE79" s="14"/>
+      <c r="AF79" s="14"/>
+      <c r="AG79" s="14"/>
+      <c r="AH79" s="14"/>
+      <c r="AI79" s="14"/>
+      <c r="AJ79" s="14"/>
+      <c r="AK79" s="14"/>
+      <c r="AL79" s="14"/>
+      <c r="AM79" s="14"/>
+      <c r="AN79" s="14"/>
+      <c r="AO79" s="14"/>
+      <c r="AP79" s="14"/>
       <c r="AR79" s="21"/>
       <c r="AS79" s="21"/>
       <c r="AT79" s="21"/>
@@ -4009,9 +4045,6 @@
       <c r="BC79" s="21"/>
     </row>
     <row r="80" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A80" s="26" t="s">
-        <v>44</v>
-      </c>
       <c r="R80" s="3"/>
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
@@ -4039,19 +4072,7 @@
     </row>
     <row r="81" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A81" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C81">
-        <v>40</v>
-      </c>
-      <c r="D81">
-        <v>40</v>
-      </c>
-      <c r="E81">
-        <v>40</v>
-      </c>
-      <c r="F81">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
@@ -4065,19 +4086,6 @@
       <c r="AA81" s="14"/>
       <c r="AB81" s="14"/>
       <c r="AC81" s="14"/>
-      <c r="AD81" s="14"/>
-      <c r="AE81" s="14"/>
-      <c r="AF81" s="14"/>
-      <c r="AG81" s="14"/>
-      <c r="AH81" s="14"/>
-      <c r="AI81" s="14"/>
-      <c r="AJ81" s="14"/>
-      <c r="AK81" s="14"/>
-      <c r="AL81" s="14"/>
-      <c r="AM81" s="14"/>
-      <c r="AN81" s="14"/>
-      <c r="AO81" s="14"/>
-      <c r="AP81" s="14"/>
       <c r="AR81" s="21"/>
       <c r="AS81" s="21"/>
       <c r="AT81" s="21"/>
@@ -4092,6 +4100,24 @@
       <c r="BC81" s="21"/>
     </row>
     <row r="82" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A82" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="D82" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E82">
+        <v>0.1</v>
+      </c>
+      <c r="F82">
+        <v>0.1</v>
+      </c>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
@@ -4118,8 +4144,23 @@
       <c r="BC82" s="21"/>
     </row>
     <row r="83" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A83" s="26" t="s">
-        <v>45</v>
+      <c r="A83" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D83" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E83">
+        <v>0.2</v>
+      </c>
+      <c r="F83">
+        <v>0.2</v>
       </c>
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
@@ -4147,23 +4188,23 @@
       <c r="BC83" s="21"/>
     </row>
     <row r="84" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A84" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B84" t="s">
-        <v>46</v>
-      </c>
-      <c r="C84">
-        <v>0.1</v>
-      </c>
-      <c r="D84">
-        <v>0.1</v>
+      <c r="A84" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D84" s="32">
+        <v>0.5</v>
       </c>
       <c r="E84">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F84">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
@@ -4191,24 +4232,6 @@
       <c r="BC84" s="21"/>
     </row>
     <row r="85" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A85" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B85" t="s">
-        <v>47</v>
-      </c>
-      <c r="C85">
-        <v>0.2</v>
-      </c>
-      <c r="D85">
-        <v>0.2</v>
-      </c>
-      <c r="E85">
-        <v>0.2</v>
-      </c>
-      <c r="F85">
-        <v>0.2</v>
-      </c>
       <c r="R85" s="3"/>
       <c r="S85" s="3"/>
       <c r="T85" s="3"/>
@@ -4236,22 +4259,7 @@
     </row>
     <row r="86" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A86" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B86" t="s">
         <v>48</v>
-      </c>
-      <c r="C86">
-        <v>0.5</v>
-      </c>
-      <c r="D86">
-        <v>0.5</v>
-      </c>
-      <c r="E86">
-        <v>0.5</v>
-      </c>
-      <c r="F86">
-        <v>0.5</v>
       </c>
       <c r="R86" s="3"/>
       <c r="S86" s="3"/>
@@ -4279,6 +4287,22 @@
       <c r="BC86" s="21"/>
     </row>
     <row r="87" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A87" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D87" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E87">
+        <v>0.5</v>
+      </c>
+      <c r="F87">
+        <v>0.5</v>
+      </c>
       <c r="R87" s="3"/>
       <c r="S87" s="3"/>
       <c r="T87" s="3"/>
@@ -4320,34 +4344,10 @@
       <c r="AA88" s="14"/>
       <c r="AB88" s="14"/>
       <c r="AC88" s="14"/>
-      <c r="AR88" s="21"/>
-      <c r="AS88" s="21"/>
-      <c r="AT88" s="21"/>
-      <c r="AU88" s="21"/>
-      <c r="AV88" s="21"/>
-      <c r="AW88" s="21"/>
-      <c r="AX88" s="21"/>
-      <c r="AY88" s="21"/>
-      <c r="AZ88" s="21"/>
-      <c r="BA88" s="21"/>
-      <c r="BB88" s="21"/>
-      <c r="BC88" s="21"/>
     </row>
     <row r="89" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A89" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C89">
-        <v>0.5</v>
-      </c>
-      <c r="D89">
-        <v>0.5</v>
-      </c>
-      <c r="E89">
-        <v>0.5</v>
-      </c>
-      <c r="F89">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="R89" s="3"/>
       <c r="S89" s="3"/>
@@ -4361,64 +4361,136 @@
       <c r="AA89" s="14"/>
       <c r="AB89" s="14"/>
       <c r="AC89" s="14"/>
-      <c r="AR89" s="21"/>
-      <c r="AS89" s="21"/>
-      <c r="AT89" s="21"/>
-      <c r="AU89" s="21"/>
-      <c r="AV89" s="21"/>
-      <c r="AW89" s="21"/>
-      <c r="AX89" s="21"/>
-      <c r="AY89" s="21"/>
-      <c r="AZ89" s="21"/>
-      <c r="BA89" s="21"/>
-      <c r="BB89" s="21"/>
-      <c r="BC89" s="21"/>
     </row>
     <row r="90" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A90" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="R90" s="3"/>
-      <c r="S90" s="3"/>
-      <c r="T90" s="3"/>
-      <c r="U90" s="3"/>
-      <c r="V90" s="3"/>
-      <c r="W90" s="3"/>
-      <c r="X90" s="14"/>
-      <c r="Y90" s="14"/>
-      <c r="Z90" s="14"/>
-      <c r="AA90" s="14"/>
-      <c r="AB90" s="14"/>
-      <c r="AC90" s="14"/>
+      <c r="A90" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" s="32">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D90" s="32">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E90">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F90">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="16"/>
+      <c r="Y90" s="16"/>
+      <c r="Z90" s="16"/>
+      <c r="AA90" s="16"/>
+      <c r="AB90" s="16"/>
+      <c r="AC90" s="16"/>
+      <c r="AD90" s="16"/>
+      <c r="AE90" s="16"/>
+      <c r="AF90" s="16"/>
+      <c r="AG90" s="16"/>
+      <c r="AH90" s="16"/>
+      <c r="AI90" s="16"/>
+      <c r="AJ90" s="16"/>
+      <c r="AK90" s="16"/>
+      <c r="AL90" s="16"/>
+      <c r="AM90" s="16"/>
+      <c r="AN90" s="16"/>
+      <c r="AO90" s="16"/>
+      <c r="AP90" s="16"/>
+      <c r="AQ90" s="16"/>
+      <c r="AR90" s="16"/>
+      <c r="AS90" s="16"/>
+      <c r="AT90" s="16"/>
+      <c r="AU90" s="16"/>
+      <c r="AV90" s="16"/>
+      <c r="AW90" s="16"/>
+      <c r="AX90" s="16"/>
+      <c r="AY90" s="16"/>
+      <c r="AZ90" s="16"/>
+      <c r="BA90" s="16"/>
+      <c r="BB90" s="16"/>
+      <c r="BC90" s="16"/>
     </row>
     <row r="91" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A91" s="26" t="s">
+      <c r="A91" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="R91" s="3"/>
-      <c r="S91" s="3"/>
-      <c r="T91" s="3"/>
-      <c r="U91" s="3"/>
-      <c r="V91" s="3"/>
-      <c r="W91" s="3"/>
-      <c r="X91" s="14"/>
-      <c r="Y91" s="14"/>
-      <c r="Z91" s="14"/>
-      <c r="AA91" s="14"/>
-      <c r="AB91" s="14"/>
-      <c r="AC91" s="14"/>
+      <c r="C91" s="32">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D91" s="32">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E91">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F91">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="16"/>
+      <c r="Y91" s="16"/>
+      <c r="Z91" s="16"/>
+      <c r="AA91" s="16"/>
+      <c r="AB91" s="16"/>
+      <c r="AC91" s="16"/>
+      <c r="AD91" s="16"/>
+      <c r="AE91" s="16"/>
+      <c r="AF91" s="16"/>
+      <c r="AG91" s="16"/>
+      <c r="AH91" s="16"/>
+      <c r="AI91" s="16"/>
+      <c r="AJ91" s="16"/>
+      <c r="AK91" s="16"/>
+      <c r="AL91" s="16"/>
+      <c r="AM91" s="16"/>
+      <c r="AN91" s="16"/>
+      <c r="AO91" s="16"/>
+      <c r="AP91" s="16"/>
+      <c r="AQ91" s="16"/>
+      <c r="AR91" s="16"/>
+      <c r="AS91" s="16"/>
+      <c r="AT91" s="16"/>
+      <c r="AU91" s="16"/>
+      <c r="AV91" s="16"/>
+      <c r="AW91" s="16"/>
+      <c r="AX91" s="16"/>
+      <c r="AY91" s="16"/>
+      <c r="AZ91" s="16"/>
+      <c r="BA91" s="16"/>
+      <c r="BB91" s="16"/>
+      <c r="BC91" s="16"/>
     </row>
     <row r="92" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A92" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="A92" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="32">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="32">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="E92">
@@ -4468,16 +4540,16 @@
       <c r="BC92" s="16"/>
     </row>
     <row r="93" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A93" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="A93" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="32">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="32">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="E93">
@@ -4527,16 +4599,16 @@
       <c r="BC93" s="16"/>
     </row>
     <row r="94" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A94" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="A94" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="32">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="32">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="E94">
@@ -4586,16 +4658,16 @@
       <c r="BC94" s="16"/>
     </row>
     <row r="95" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A95" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="A95" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B95" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="32">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="32">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="E95">
@@ -4645,16 +4717,14 @@
       <c r="BC95" s="16"/>
     </row>
     <row r="96" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A96" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B96" t="s">
-        <v>54</v>
-      </c>
-      <c r="C96">
+      <c r="A96" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B96" s="32"/>
+      <c r="C96" s="32">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="32">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="E96">
@@ -4704,121 +4774,53 @@
       <c r="BC96" s="16"/>
     </row>
     <row r="97" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A97" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B97" t="s">
-        <v>54</v>
-      </c>
-      <c r="C97">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D97">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E97">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="F97">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="Q97" s="6"/>
-      <c r="R97" s="6"/>
-      <c r="S97" s="6"/>
-      <c r="T97" s="6"/>
-      <c r="U97" s="6"/>
-      <c r="V97" s="6"/>
-      <c r="W97" s="6"/>
-      <c r="X97" s="16"/>
-      <c r="Y97" s="16"/>
-      <c r="Z97" s="16"/>
-      <c r="AA97" s="16"/>
-      <c r="AB97" s="16"/>
-      <c r="AC97" s="16"/>
-      <c r="AD97" s="16"/>
-      <c r="AE97" s="16"/>
-      <c r="AF97" s="16"/>
-      <c r="AG97" s="16"/>
-      <c r="AH97" s="16"/>
-      <c r="AI97" s="16"/>
-      <c r="AJ97" s="16"/>
-      <c r="AK97" s="16"/>
-      <c r="AL97" s="16"/>
-      <c r="AM97" s="16"/>
-      <c r="AN97" s="16"/>
-      <c r="AO97" s="16"/>
-      <c r="AP97" s="16"/>
-      <c r="AQ97" s="16"/>
-      <c r="AR97" s="16"/>
-      <c r="AS97" s="16"/>
-      <c r="AT97" s="16"/>
-      <c r="AU97" s="16"/>
-      <c r="AV97" s="16"/>
-      <c r="AW97" s="16"/>
-      <c r="AX97" s="16"/>
-      <c r="AY97" s="16"/>
-      <c r="AZ97" s="16"/>
-      <c r="BA97" s="16"/>
-      <c r="BB97" s="16"/>
-      <c r="BC97" s="16"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="14"/>
+      <c r="Y97" s="14"/>
+      <c r="Z97" s="14"/>
+      <c r="AA97" s="14"/>
+      <c r="AB97" s="14"/>
+      <c r="AC97" s="14"/>
+      <c r="AD97" s="14"/>
+      <c r="AE97" s="14"/>
+      <c r="AF97" s="14"/>
+      <c r="AG97" s="14"/>
+      <c r="AH97" s="14"/>
+      <c r="AI97" s="14"/>
+      <c r="AJ97" s="14"/>
+      <c r="AK97" s="14"/>
+      <c r="AL97" s="14"/>
+      <c r="AM97" s="14"/>
+      <c r="AN97" s="14"/>
+      <c r="AO97" s="14"/>
+      <c r="AP97" s="14"/>
     </row>
     <row r="98" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A98" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C98">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D98">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E98">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="F98">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="Q98" s="6"/>
-      <c r="R98" s="6"/>
-      <c r="S98" s="6"/>
-      <c r="T98" s="6"/>
-      <c r="U98" s="6"/>
-      <c r="V98" s="6"/>
-      <c r="W98" s="6"/>
-      <c r="X98" s="16"/>
-      <c r="Y98" s="16"/>
-      <c r="Z98" s="16"/>
-      <c r="AA98" s="16"/>
-      <c r="AB98" s="16"/>
-      <c r="AC98" s="16"/>
-      <c r="AD98" s="16"/>
-      <c r="AE98" s="16"/>
-      <c r="AF98" s="16"/>
-      <c r="AG98" s="16"/>
-      <c r="AH98" s="16"/>
-      <c r="AI98" s="16"/>
-      <c r="AJ98" s="16"/>
-      <c r="AK98" s="16"/>
-      <c r="AL98" s="16"/>
-      <c r="AM98" s="16"/>
-      <c r="AN98" s="16"/>
-      <c r="AO98" s="16"/>
-      <c r="AP98" s="16"/>
-      <c r="AQ98" s="16"/>
-      <c r="AR98" s="16"/>
-      <c r="AS98" s="16"/>
-      <c r="AT98" s="16"/>
-      <c r="AU98" s="16"/>
-      <c r="AV98" s="16"/>
-      <c r="AW98" s="16"/>
-      <c r="AX98" s="16"/>
-      <c r="AY98" s="16"/>
-      <c r="AZ98" s="16"/>
-      <c r="BA98" s="16"/>
-      <c r="BB98" s="16"/>
-      <c r="BC98" s="16"/>
+        <v>54</v>
+      </c>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="14"/>
+      <c r="Y98" s="14"/>
+      <c r="Z98" s="14"/>
+      <c r="AA98" s="14"/>
+      <c r="AB98" s="14"/>
+      <c r="AC98" s="14"/>
     </row>
     <row r="99" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A99" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="R99" s="3"/>
       <c r="S99" s="3"/>
       <c r="T99" s="3"/>
@@ -4831,23 +4833,23 @@
       <c r="AA99" s="14"/>
       <c r="AB99" s="14"/>
       <c r="AC99" s="14"/>
-      <c r="AD99" s="14"/>
-      <c r="AE99" s="14"/>
-      <c r="AF99" s="14"/>
-      <c r="AG99" s="14"/>
-      <c r="AH99" s="14"/>
-      <c r="AI99" s="14"/>
-      <c r="AJ99" s="14"/>
-      <c r="AK99" s="14"/>
-      <c r="AL99" s="14"/>
-      <c r="AM99" s="14"/>
-      <c r="AN99" s="14"/>
-      <c r="AO99" s="14"/>
-      <c r="AP99" s="14"/>
     </row>
     <row r="100" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A100" s="26" t="s">
-        <v>55</v>
+      <c r="A100" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100" s="32"/>
+      <c r="C100" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="D100" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="E100">
+        <v>0.25</v>
+      </c>
+      <c r="F100">
+        <v>0.25</v>
       </c>
       <c r="R100" s="3"/>
       <c r="S100" s="3"/>
@@ -4861,11 +4863,34 @@
       <c r="AA100" s="14"/>
       <c r="AB100" s="14"/>
       <c r="AC100" s="14"/>
+      <c r="AD100" s="14"/>
+      <c r="AE100" s="14"/>
+      <c r="AF100" s="14"/>
+      <c r="AG100" s="14"/>
+      <c r="AH100" s="14"/>
+      <c r="AI100" s="14"/>
+      <c r="AJ100" s="14"/>
+      <c r="AK100" s="14"/>
+      <c r="AL100" s="14"/>
+      <c r="AM100" s="14"/>
+      <c r="AN100" s="14"/>
+      <c r="AO100" s="14"/>
+      <c r="AP100" s="14"/>
+      <c r="AQ100" s="14"/>
+      <c r="AR100" s="14"/>
+      <c r="AS100" s="14"/>
+      <c r="AT100" s="14"/>
+      <c r="AU100" s="14"/>
+      <c r="AV100" s="14"/>
+      <c r="AW100" s="14"/>
+      <c r="AX100" s="14"/>
+      <c r="AY100" s="14"/>
+      <c r="AZ100" s="14"/>
+      <c r="BA100" s="14"/>
+      <c r="BB100" s="14"/>
+      <c r="BC100" s="14"/>
     </row>
     <row r="101" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A101" s="26" t="s">
-        <v>56</v>
-      </c>
       <c r="R101" s="3"/>
       <c r="S101" s="3"/>
       <c r="T101" s="3"/>
@@ -4878,22 +4903,11 @@
       <c r="AA101" s="14"/>
       <c r="AB101" s="14"/>
       <c r="AC101" s="14"/>
+      <c r="AQ101"/>
     </row>
     <row r="102" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A102" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C102">
-        <v>0.25</v>
-      </c>
-      <c r="D102">
-        <v>0.25</v>
-      </c>
-      <c r="E102">
-        <v>0.25</v>
-      </c>
-      <c r="F102">
-        <v>0.25</v>
+        <v>56</v>
       </c>
       <c r="R102" s="3"/>
       <c r="S102" s="3"/>
@@ -4907,34 +4921,12 @@
       <c r="AA102" s="14"/>
       <c r="AB102" s="14"/>
       <c r="AC102" s="14"/>
-      <c r="AD102" s="14"/>
-      <c r="AE102" s="14"/>
-      <c r="AF102" s="14"/>
-      <c r="AG102" s="14"/>
-      <c r="AH102" s="14"/>
-      <c r="AI102" s="14"/>
-      <c r="AJ102" s="14"/>
-      <c r="AK102" s="14"/>
-      <c r="AL102" s="14"/>
-      <c r="AM102" s="14"/>
-      <c r="AN102" s="14"/>
-      <c r="AO102" s="14"/>
-      <c r="AP102" s="14"/>
-      <c r="AQ102" s="14"/>
-      <c r="AR102" s="14"/>
-      <c r="AS102" s="14"/>
-      <c r="AT102" s="14"/>
-      <c r="AU102" s="14"/>
-      <c r="AV102" s="14"/>
-      <c r="AW102" s="14"/>
-      <c r="AX102" s="14"/>
-      <c r="AY102" s="14"/>
-      <c r="AZ102" s="14"/>
-      <c r="BA102" s="14"/>
-      <c r="BB102" s="14"/>
-      <c r="BC102" s="14"/>
+      <c r="AQ102"/>
     </row>
     <row r="103" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A103" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="R103" s="3"/>
       <c r="S103" s="3"/>
       <c r="T103" s="3"/>
@@ -4950,8 +4942,21 @@
       <c r="AQ103"/>
     </row>
     <row r="104" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A104" s="26" t="s">
-        <v>57</v>
+      <c r="A104" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B104" s="32"/>
+      <c r="C104" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D104" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E104">
+        <v>0.5</v>
+      </c>
+      <c r="F104">
+        <v>0.5</v>
       </c>
       <c r="R104" s="3"/>
       <c r="S104" s="3"/>
@@ -4965,12 +4970,34 @@
       <c r="AA104" s="14"/>
       <c r="AB104" s="14"/>
       <c r="AC104" s="14"/>
-      <c r="AQ104"/>
+      <c r="AD104" s="14"/>
+      <c r="AE104" s="14"/>
+      <c r="AF104" s="14"/>
+      <c r="AG104" s="14"/>
+      <c r="AH104" s="14"/>
+      <c r="AI104" s="14"/>
+      <c r="AJ104" s="14"/>
+      <c r="AK104" s="14"/>
+      <c r="AL104" s="14"/>
+      <c r="AM104" s="14"/>
+      <c r="AN104" s="14"/>
+      <c r="AO104" s="14"/>
+      <c r="AP104" s="14"/>
+      <c r="AQ104" s="14"/>
+      <c r="AR104" s="14"/>
+      <c r="AS104" s="14"/>
+      <c r="AT104" s="14"/>
+      <c r="AU104" s="14"/>
+      <c r="AV104" s="14"/>
+      <c r="AW104" s="14"/>
+      <c r="AX104" s="14"/>
+      <c r="AY104" s="14"/>
+      <c r="AZ104" s="14"/>
+      <c r="BA104" s="14"/>
+      <c r="BB104" s="14"/>
+      <c r="BC104" s="14"/>
     </row>
     <row r="105" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A105" s="26" t="s">
-        <v>56</v>
-      </c>
       <c r="R105" s="3"/>
       <c r="S105" s="3"/>
       <c r="T105" s="3"/>
@@ -4987,19 +5014,7 @@
     </row>
     <row r="106" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A106" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C106">
-        <v>0.5</v>
-      </c>
-      <c r="D106">
-        <v>0.5</v>
-      </c>
-      <c r="E106">
-        <v>0.5</v>
-      </c>
-      <c r="F106">
-        <v>0.5</v>
+        <v>57</v>
       </c>
       <c r="R106" s="3"/>
       <c r="S106" s="3"/>
@@ -5013,34 +5028,27 @@
       <c r="AA106" s="14"/>
       <c r="AB106" s="14"/>
       <c r="AC106" s="14"/>
-      <c r="AD106" s="14"/>
-      <c r="AE106" s="14"/>
-      <c r="AF106" s="14"/>
-      <c r="AG106" s="14"/>
-      <c r="AH106" s="14"/>
-      <c r="AI106" s="14"/>
-      <c r="AJ106" s="14"/>
-      <c r="AK106" s="14"/>
-      <c r="AL106" s="14"/>
-      <c r="AM106" s="14"/>
-      <c r="AN106" s="14"/>
-      <c r="AO106" s="14"/>
-      <c r="AP106" s="14"/>
-      <c r="AQ106" s="14"/>
-      <c r="AR106" s="14"/>
-      <c r="AS106" s="14"/>
-      <c r="AT106" s="14"/>
-      <c r="AU106" s="14"/>
-      <c r="AV106" s="14"/>
-      <c r="AW106" s="14"/>
-      <c r="AX106" s="14"/>
-      <c r="AY106" s="14"/>
-      <c r="AZ106" s="14"/>
-      <c r="BA106" s="14"/>
-      <c r="BB106" s="14"/>
-      <c r="BC106" s="14"/>
+      <c r="AQ106"/>
     </row>
     <row r="107" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A107" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D107" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E107" t="s">
+        <v>77</v>
+      </c>
+      <c r="F107" t="s">
+        <v>77</v>
+      </c>
       <c r="R107" s="3"/>
       <c r="S107" s="3"/>
       <c r="T107" s="3"/>
@@ -5056,9 +5064,6 @@
       <c r="AQ107"/>
     </row>
     <row r="108" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A108" s="26" t="s">
-        <v>58</v>
-      </c>
       <c r="R108" s="3"/>
       <c r="S108" s="3"/>
       <c r="T108" s="3"/>
@@ -5071,26 +5076,10 @@
       <c r="AA108" s="14"/>
       <c r="AB108" s="14"/>
       <c r="AC108" s="14"/>
-      <c r="AQ108"/>
     </row>
     <row r="109" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A109" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B109" t="s">
         <v>59</v>
-      </c>
-      <c r="C109" t="s">
-        <v>78</v>
-      </c>
-      <c r="D109" t="s">
-        <v>78</v>
-      </c>
-      <c r="E109" t="s">
-        <v>78</v>
-      </c>
-      <c r="F109" t="s">
-        <v>78</v>
       </c>
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
@@ -5104,9 +5093,11 @@
       <c r="AA109" s="14"/>
       <c r="AB109" s="14"/>
       <c r="AC109" s="14"/>
-      <c r="AQ109"/>
     </row>
     <row r="110" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A110" s="26" t="s">
+        <v>60</v>
+      </c>
       <c r="R110" s="3"/>
       <c r="S110" s="3"/>
       <c r="T110" s="3"/>
@@ -5122,7 +5113,7 @@
     </row>
     <row r="111" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A111" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R111" s="3"/>
       <c r="S111" s="3"/>
@@ -5138,8 +5129,23 @@
       <c r="AC111" s="14"/>
     </row>
     <row r="112" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A112" s="26" t="s">
-        <v>61</v>
+      <c r="A112" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D112" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E112" t="s">
+        <v>78</v>
+      </c>
+      <c r="F112" t="s">
+        <v>78</v>
       </c>
       <c r="R112" s="3"/>
       <c r="S112" s="3"/>
@@ -5153,11 +5159,9 @@
       <c r="AA112" s="14"/>
       <c r="AB112" s="14"/>
       <c r="AC112" s="14"/>
+      <c r="AQ112"/>
     </row>
     <row r="113" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A113" s="26" t="s">
-        <v>62</v>
-      </c>
       <c r="R113" s="3"/>
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
@@ -5173,22 +5177,7 @@
     </row>
     <row r="114" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A114" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="B114" t="s">
         <v>63</v>
-      </c>
-      <c r="C114" t="s">
-        <v>79</v>
-      </c>
-      <c r="D114" t="s">
-        <v>79</v>
-      </c>
-      <c r="E114" t="s">
-        <v>79</v>
-      </c>
-      <c r="F114" t="s">
-        <v>79</v>
       </c>
       <c r="R114" s="3"/>
       <c r="S114" s="3"/>
@@ -5202,9 +5191,11 @@
       <c r="AA114" s="14"/>
       <c r="AB114" s="14"/>
       <c r="AC114" s="14"/>
-      <c r="AQ114"/>
     </row>
     <row r="115" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A115" s="26" t="s">
+        <v>64</v>
+      </c>
       <c r="R115" s="3"/>
       <c r="S115" s="3"/>
       <c r="T115" s="3"/>
@@ -5220,7 +5211,7 @@
     </row>
     <row r="116" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A116" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R116" s="3"/>
       <c r="S116" s="3"/>
@@ -5236,8 +5227,21 @@
       <c r="AC116" s="14"/>
     </row>
     <row r="117" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A117" s="26" t="s">
-        <v>65</v>
+      <c r="A117" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B117" s="32"/>
+      <c r="C117" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D117" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E117" t="s">
+        <v>79</v>
+      </c>
+      <c r="F117" t="s">
+        <v>79</v>
       </c>
       <c r="R117" s="3"/>
       <c r="S117" s="3"/>
@@ -5251,182 +5255,180 @@
       <c r="AA117" s="14"/>
       <c r="AB117" s="14"/>
       <c r="AC117" s="14"/>
+      <c r="AD117" s="14"/>
+      <c r="AE117" s="14"/>
+      <c r="AF117" s="14"/>
+      <c r="AG117" s="14"/>
+      <c r="AH117" s="14"/>
+      <c r="AI117" s="14"/>
+      <c r="AJ117" s="14"/>
+      <c r="AK117" s="14"/>
+      <c r="AL117" s="14"/>
+      <c r="AM117" s="14"/>
+      <c r="AN117" s="14"/>
+      <c r="AO117" s="14"/>
+      <c r="AP117" s="14"/>
+      <c r="AQ117" s="14"/>
+      <c r="AR117" s="14"/>
+      <c r="AS117" s="14"/>
+      <c r="AT117" s="14"/>
+      <c r="AU117" s="14"/>
+      <c r="AV117" s="14"/>
+      <c r="AW117" s="14"/>
+      <c r="AX117" s="14"/>
+      <c r="AY117" s="14"/>
+      <c r="AZ117" s="14"/>
+      <c r="BA117" s="14"/>
+      <c r="BB117" s="14"/>
+      <c r="BC117" s="14"/>
     </row>
     <row r="118" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A118" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="R118" s="3"/>
+      <c r="A118" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118" s="32"/>
+      <c r="C118" s="32">
+        <v>1</v>
+      </c>
+      <c r="D118" s="32">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="R118" s="18"/>
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
-      <c r="W118" s="3"/>
+      <c r="W118" s="14"/>
       <c r="X118" s="14"/>
       <c r="Y118" s="14"/>
       <c r="Z118" s="14"/>
       <c r="AA118" s="14"/>
       <c r="AB118" s="14"/>
       <c r="AC118" s="14"/>
+      <c r="AD118" s="22"/>
+      <c r="AE118" s="17"/>
+      <c r="AF118" s="22"/>
+      <c r="AR118" s="19"/>
+      <c r="AS118" s="7"/>
+      <c r="AT118" s="7"/>
+      <c r="AU118" s="7"/>
+      <c r="AV118" s="7"/>
+      <c r="AW118" s="7"/>
+      <c r="AX118" s="7"/>
+      <c r="AY118" s="7"/>
+      <c r="AZ118" s="7"/>
+      <c r="BA118" s="7"/>
+      <c r="BB118" s="7"/>
+      <c r="BC118" s="7"/>
     </row>
     <row r="119" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A119" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C119" t="s">
-        <v>80</v>
-      </c>
-      <c r="D119" t="s">
-        <v>80</v>
+      <c r="A119" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B119" s="32"/>
+      <c r="C119" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D119" s="32">
+        <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F119" t="s">
-        <v>80</v>
-      </c>
-      <c r="R119" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="R119" s="18"/>
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
-      <c r="W119" s="3"/>
+      <c r="W119" s="14"/>
       <c r="X119" s="14"/>
       <c r="Y119" s="14"/>
       <c r="Z119" s="14"/>
       <c r="AA119" s="14"/>
       <c r="AB119" s="14"/>
       <c r="AC119" s="14"/>
-      <c r="AD119" s="14"/>
-      <c r="AE119" s="14"/>
-      <c r="AF119" s="14"/>
-      <c r="AG119" s="14"/>
-      <c r="AH119" s="14"/>
-      <c r="AI119" s="14"/>
-      <c r="AJ119" s="14"/>
-      <c r="AK119" s="14"/>
-      <c r="AL119" s="14"/>
-      <c r="AM119" s="14"/>
-      <c r="AN119" s="14"/>
-      <c r="AO119" s="14"/>
-      <c r="AP119" s="14"/>
-      <c r="AQ119" s="14"/>
-      <c r="AR119" s="14"/>
-      <c r="AS119" s="14"/>
-      <c r="AT119" s="14"/>
-      <c r="AU119" s="14"/>
-      <c r="AV119" s="14"/>
-      <c r="AW119" s="14"/>
-      <c r="AX119" s="14"/>
-      <c r="AY119" s="14"/>
-      <c r="AZ119" s="14"/>
-      <c r="BA119" s="14"/>
-      <c r="BB119" s="14"/>
-      <c r="BC119" s="14"/>
+      <c r="AD119" s="22"/>
+      <c r="AE119" s="17"/>
+      <c r="AF119" s="22"/>
+      <c r="AR119" s="19"/>
+      <c r="AS119" s="7"/>
+      <c r="AT119" s="7"/>
+      <c r="AU119" s="7"/>
+      <c r="AV119" s="7"/>
+      <c r="AW119" s="7"/>
+      <c r="AX119" s="7"/>
+      <c r="AY119" s="7"/>
+      <c r="AZ119" s="7"/>
+      <c r="BA119" s="7"/>
+      <c r="BB119" s="7"/>
+      <c r="BC119" s="7"/>
     </row>
     <row r="120" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A120" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-      <c r="R120" s="18"/>
+      <c r="A120" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B120" s="32"/>
+      <c r="C120" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D120" s="32">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>79</v>
+      </c>
+      <c r="F120" t="s">
+        <v>79</v>
+      </c>
+      <c r="R120" s="3"/>
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
-      <c r="W120" s="14"/>
+      <c r="W120" s="3"/>
       <c r="X120" s="14"/>
       <c r="Y120" s="14"/>
       <c r="Z120" s="14"/>
       <c r="AA120" s="14"/>
       <c r="AB120" s="14"/>
       <c r="AC120" s="14"/>
-      <c r="AD120" s="22"/>
-      <c r="AE120" s="17"/>
-      <c r="AF120" s="22"/>
-      <c r="AR120" s="19"/>
       <c r="AS120" s="7"/>
       <c r="AT120" s="7"/>
       <c r="AU120" s="7"/>
       <c r="AV120" s="7"/>
       <c r="AW120" s="7"/>
-      <c r="AX120" s="7"/>
-      <c r="AY120" s="7"/>
-      <c r="AZ120" s="7"/>
-      <c r="BA120" s="7"/>
-      <c r="BB120" s="7"/>
-      <c r="BC120" s="7"/>
     </row>
     <row r="121" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A121" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C121" t="s">
-        <v>80</v>
-      </c>
-      <c r="D121" t="s">
-        <v>80</v>
-      </c>
-      <c r="E121" t="s">
-        <v>80</v>
-      </c>
-      <c r="F121" t="s">
-        <v>80</v>
-      </c>
-      <c r="R121" s="18"/>
+      <c r="R121" s="3"/>
       <c r="S121" s="3"/>
       <c r="T121" s="3"/>
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
-      <c r="W121" s="14"/>
+      <c r="W121" s="3"/>
       <c r="X121" s="14"/>
       <c r="Y121" s="14"/>
       <c r="Z121" s="14"/>
       <c r="AA121" s="14"/>
       <c r="AB121" s="14"/>
       <c r="AC121" s="14"/>
-      <c r="AD121" s="22"/>
-      <c r="AE121" s="17"/>
-      <c r="AF121" s="22"/>
-      <c r="AR121" s="19"/>
       <c r="AS121" s="7"/>
       <c r="AT121" s="7"/>
       <c r="AU121" s="7"/>
       <c r="AV121" s="7"/>
       <c r="AW121" s="7"/>
-      <c r="AX121" s="7"/>
-      <c r="AY121" s="7"/>
-      <c r="AZ121" s="7"/>
-      <c r="BA121" s="7"/>
-      <c r="BB121" s="7"/>
-      <c r="BC121" s="7"/>
     </row>
     <row r="122" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A122" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C122" t="s">
-        <v>80</v>
-      </c>
-      <c r="D122" t="s">
-        <v>80</v>
-      </c>
-      <c r="E122" t="s">
-        <v>80</v>
-      </c>
-      <c r="F122" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="R122" s="3"/>
       <c r="S122" s="3"/>
@@ -5440,13 +5442,11 @@
       <c r="AA122" s="14"/>
       <c r="AB122" s="14"/>
       <c r="AC122" s="14"/>
-      <c r="AS122" s="7"/>
-      <c r="AT122" s="7"/>
-      <c r="AU122" s="7"/>
-      <c r="AV122" s="7"/>
-      <c r="AW122" s="7"/>
     </row>
     <row r="123" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A123" s="26" t="s">
+        <v>64</v>
+      </c>
       <c r="R123" s="3"/>
       <c r="S123" s="3"/>
       <c r="T123" s="3"/>
@@ -5459,11 +5459,6 @@
       <c r="AA123" s="14"/>
       <c r="AB123" s="14"/>
       <c r="AC123" s="14"/>
-      <c r="AS123" s="7"/>
-      <c r="AT123" s="7"/>
-      <c r="AU123" s="7"/>
-      <c r="AV123" s="7"/>
-      <c r="AW123" s="7"/>
     </row>
     <row r="124" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A124" s="26" t="s">
@@ -5484,7 +5479,7 @@
     </row>
     <row r="125" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A125" s="26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="R125" s="3"/>
       <c r="S125" s="3"/>
@@ -5500,25 +5495,49 @@
       <c r="AC125" s="14"/>
     </row>
     <row r="126" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A126" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="R126" s="3"/>
+      <c r="A126" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B126" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D126" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E126" t="s">
+        <v>162</v>
+      </c>
+      <c r="F126" t="s">
+        <v>163</v>
+      </c>
+      <c r="R126" s="18"/>
       <c r="S126" s="3"/>
       <c r="T126" s="3"/>
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
       <c r="W126" s="3"/>
-      <c r="X126" s="14"/>
-      <c r="Y126" s="14"/>
-      <c r="Z126" s="14"/>
-      <c r="AA126" s="14"/>
-      <c r="AB126" s="14"/>
-      <c r="AC126" s="14"/>
+      <c r="AE126" s="17"/>
+      <c r="AR126" s="19"/>
     </row>
     <row r="127" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A127" s="26" t="s">
-        <v>69</v>
+      <c r="A127" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B127" s="32"/>
+      <c r="C127" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D127" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E127" t="s">
+        <v>162</v>
+      </c>
+      <c r="F127" t="s">
+        <v>162</v>
       </c>
       <c r="R127" s="3"/>
       <c r="S127" s="3"/>
@@ -5534,39 +5553,22 @@
       <c r="AC127" s="14"/>
     </row>
     <row r="128" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A128" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="B128" t="s">
-        <v>70</v>
-      </c>
-      <c r="C128" t="s">
-        <v>165</v>
-      </c>
-      <c r="D128" t="s">
-        <v>166</v>
-      </c>
-      <c r="E128" t="s">
-        <v>165</v>
-      </c>
-      <c r="F128" t="s">
-        <v>166</v>
-      </c>
-      <c r="R128" s="18"/>
+      <c r="R128" s="3"/>
       <c r="S128" s="3"/>
       <c r="T128" s="3"/>
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
       <c r="W128" s="3"/>
-      <c r="AE128" s="17"/>
-      <c r="AR128" s="19"/>
+      <c r="X128" s="14"/>
+      <c r="Y128" s="14"/>
+      <c r="Z128" s="14"/>
+      <c r="AA128" s="14"/>
+      <c r="AB128" s="14"/>
+      <c r="AC128" s="14"/>
     </row>
     <row r="129" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A129" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C129" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="R129" s="3"/>
       <c r="S129" s="3"/>
@@ -5582,6 +5584,9 @@
       <c r="AC129" s="14"/>
     </row>
     <row r="130" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A130" s="26" t="s">
+        <v>71</v>
+      </c>
       <c r="R130" s="3"/>
       <c r="S130" s="3"/>
       <c r="T130" s="3"/>
@@ -5596,8 +5601,21 @@
       <c r="AC130" s="14"/>
     </row>
     <row r="131" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A131" s="26" t="s">
-        <v>71</v>
+      <c r="A131" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" s="32"/>
+      <c r="C131" s="32">
+        <v>0</v>
+      </c>
+      <c r="D131" s="32">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
       </c>
       <c r="R131" s="3"/>
       <c r="S131" s="3"/>
@@ -5611,13 +5629,44 @@
       <c r="AA131" s="14"/>
       <c r="AB131" s="14"/>
       <c r="AC131" s="14"/>
+      <c r="AD131" s="14"/>
+      <c r="AE131" s="14"/>
+      <c r="AF131" s="14"/>
+      <c r="AG131" s="14"/>
+      <c r="AH131" s="14"/>
+      <c r="AI131" s="14"/>
+      <c r="AJ131" s="14"/>
+      <c r="AK131" s="14"/>
+      <c r="AL131" s="14"/>
+      <c r="AM131" s="14"/>
+      <c r="AN131" s="14"/>
+      <c r="AO131" s="14"/>
+      <c r="AP131" s="14"/>
+      <c r="AR131" s="14"/>
+      <c r="AS131" s="14"/>
+      <c r="AT131" s="14"/>
+      <c r="AU131" s="14"/>
+      <c r="AV131" s="14"/>
+      <c r="AW131" s="14"/>
+      <c r="AX131" s="14"/>
     </row>
     <row r="132" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A132" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="R132" s="3"/>
-      <c r="S132" s="3"/>
+      <c r="A132" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" s="32"/>
+      <c r="C132" s="32">
+        <v>1</v>
+      </c>
+      <c r="D132" s="32">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
       <c r="T132" s="3"/>
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
@@ -5630,23 +5679,6 @@
       <c r="AC132" s="14"/>
     </row>
     <row r="133" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A133" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="R133" s="3"/>
-      <c r="S133" s="3"/>
       <c r="T133" s="3"/>
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
@@ -5657,50 +5689,6 @@
       <c r="AA133" s="14"/>
       <c r="AB133" s="14"/>
       <c r="AC133" s="14"/>
-      <c r="AD133" s="14"/>
-      <c r="AE133" s="14"/>
-      <c r="AF133" s="14"/>
-      <c r="AG133" s="14"/>
-      <c r="AH133" s="14"/>
-      <c r="AI133" s="14"/>
-      <c r="AJ133" s="14"/>
-      <c r="AK133" s="14"/>
-      <c r="AL133" s="14"/>
-      <c r="AM133" s="14"/>
-      <c r="AN133" s="14"/>
-      <c r="AO133" s="14"/>
-      <c r="AP133" s="14"/>
-      <c r="AR133" s="14"/>
-      <c r="AS133" s="14"/>
-      <c r="AT133" s="14"/>
-      <c r="AU133" s="14"/>
-      <c r="AV133" s="14"/>
-      <c r="AW133" s="14"/>
-      <c r="AX133" s="14"/>
-    </row>
-    <row r="134" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="T134" s="3"/>
-      <c r="U134" s="3"/>
-      <c r="V134" s="3"/>
-      <c r="W134" s="3"/>
-      <c r="X134" s="14"/>
-      <c r="Y134" s="14"/>
-      <c r="Z134" s="14"/>
-      <c r="AA134" s="14"/>
-      <c r="AB134" s="14"/>
-      <c r="AC134" s="14"/>
-    </row>
-    <row r="135" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="T135" s="3"/>
-      <c r="U135" s="3"/>
-      <c r="V135" s="3"/>
-      <c r="W135" s="3"/>
-      <c r="X135" s="14"/>
-      <c r="Y135" s="14"/>
-      <c r="Z135" s="14"/>
-      <c r="AA135" s="14"/>
-      <c r="AB135" s="14"/>
-      <c r="AC135" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5722,37 +5710,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters CATTLE.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters CATTLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDA3FF9-173D-E247-A81F-A0FE9BE48DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0282CBBC-801E-F549-A4CC-CB1CF9725B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="27300" windowHeight="16140" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="27300" windowHeight="16140" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="272">
   <si>
     <t># Initial population</t>
   </si>
@@ -670,12 +670,6 @@
     <t>rpert(10000, 15840,  49104, 33475)</t>
   </si>
   <si>
-    <t>rpert(10000, 0.11, 0.15, 0.13)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 0.1, 0.11, 0.105)</t>
-  </si>
-  <si>
     <t>rpert(10000, 11116, 11116, 11116)</t>
   </si>
   <si>
@@ -694,16 +688,7 @@
     <t>rpert(10000, 38324,  38324, 38324)</t>
   </si>
   <si>
-    <t>rpert(10000, 0.5, 0.9, 0.7)</t>
-  </si>
-  <si>
     <t>rpert(10000, 0.8,  1.5, 1.15)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 0.8,  1.7, 1.2)</t>
-  </si>
-  <si>
-    <t>rpert(10000,  1.5, 2.3, 1.9)</t>
   </si>
   <si>
     <t>cattle_trial_periurban_dairy_current</t>
@@ -716,12 +701,6 @@
   </si>
   <si>
     <t>rpert(10000, 8.3, 11.7, 18)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 0.07, 0.07, 0.07)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 0.01, 0.01, 0.01)</t>
   </si>
   <si>
     <t>cattle_trial_CLM_ideal</t>
@@ -764,9 +743,6 @@
   </si>
   <si>
     <t>rpert(10000,  23396,  26396,  24396)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 9581, 9881, 11181)</t>
   </si>
   <si>
     <t>rpert(10000, 20644, 23644, 22644)</t>
@@ -899,6 +875,51 @@
   </si>
   <si>
     <t>cattle_trial_periurban_dairy_ideal_O</t>
+  </si>
+  <si>
+    <t>rpert(10000, 9581, 11981, 10181)</t>
+  </si>
+  <si>
+    <t>0.025/12</t>
+  </si>
+  <si>
+    <t>0.02/12</t>
+  </si>
+  <si>
+    <t>0.048/12</t>
+  </si>
+  <si>
+    <t>0.27/12</t>
+  </si>
+  <si>
+    <t>0.11/12</t>
+  </si>
+  <si>
+    <t>0.71/12</t>
+  </si>
+  <si>
+    <t>0.26/12</t>
+  </si>
+  <si>
+    <t>0.28/12</t>
+  </si>
+  <si>
+    <t>0.05/12</t>
+  </si>
+  <si>
+    <t>0/12</t>
+  </si>
+  <si>
+    <t>rpert(10000, 0.11/12, 0.15/12, 0.13/12)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 0.1/12, 0.11/12, 0.105/12)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 0.07/12, 0.07/12, 0.07/12)</t>
+  </si>
+  <si>
+    <t>0.03/12</t>
   </si>
 </sst>
 </file>
@@ -1474,9 +1495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
   <dimension ref="A1:AGM159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK61" sqref="AK61"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AW88" sqref="AW88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1498,9 +1519,9 @@
     <col min="15" max="15" width="15.83203125" style="33" customWidth="1"/>
     <col min="16" max="16" width="16.83203125" style="33" customWidth="1"/>
     <col min="17" max="17" width="21" style="33" customWidth="1"/>
-    <col min="18" max="18" width="15.83203125" style="17" customWidth="1"/>
-    <col min="19" max="19" width="15" style="17" customWidth="1"/>
-    <col min="20" max="20" width="15.1640625" style="17" customWidth="1"/>
+    <col min="18" max="18" width="27.5" style="17" customWidth="1"/>
+    <col min="19" max="19" width="27.6640625" style="17" customWidth="1"/>
+    <col min="20" max="20" width="25.6640625" style="17" customWidth="1"/>
     <col min="21" max="31" width="19.33203125" style="17" customWidth="1"/>
     <col min="32" max="32" width="19" style="17" customWidth="1"/>
     <col min="33" max="33" width="27" style="21" customWidth="1"/>
@@ -1540,46 +1561,46 @@
         <v>154</v>
       </c>
       <c r="D1" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="M1" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="F1" s="31" t="s">
+      <c r="N1" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="P1" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="Q1" s="31" t="s">
         <v>232</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>240</v>
       </c>
       <c r="R1" s="38" t="s">
         <v>155</v>
@@ -1588,88 +1609,88 @@
         <v>156</v>
       </c>
       <c r="T1" s="38" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="U1" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="V1" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="W1" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="X1" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y1" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z1" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA1" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB1" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC1" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="AD1" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="AE1" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="AF1" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="AG1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="AK1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AL1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AM1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AN1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AD1" s="38" t="s">
+      <c r="AO1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AE1" s="38" t="s">
+      <c r="AP1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AF1" s="38" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AG1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="AV1" s="4"/>
       <c r="AW1" s="4"/>
@@ -1694,7 +1715,7 @@
     </row>
     <row r="2" spans="1:871" s="42" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="43"/>
@@ -9049,7 +9070,7 @@
         <v>162</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F17" s="33" t="s">
         <v>162</v>
@@ -9079,7 +9100,7 @@
         <v>162</v>
       </c>
       <c r="O17" s="40" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="P17" s="33" t="s">
         <v>162</v>
@@ -12054,49 +12075,49 @@
         <v>210</v>
       </c>
       <c r="AG22" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AH22" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AI22" s="50" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AJ22" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AK22" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AL22" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AM22" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AN22" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AO22" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AP22" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AQ22" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AR22" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AS22" s="50" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AT22" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AU22" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AV22" s="5"/>
       <c r="AW22" s="5"/>
@@ -12934,7 +12955,7 @@
         <v>174</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>174</v>
@@ -12964,7 +12985,7 @@
         <v>174</v>
       </c>
       <c r="O23" s="40" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P23" s="33" t="s">
         <v>174</v>
@@ -13018,49 +13039,49 @@
         <v>1.79</v>
       </c>
       <c r="AG23" s="21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AH23" s="21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AI23" s="50" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AJ23" s="21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AK23" s="21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AL23" s="21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AM23" s="21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AN23" s="21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AO23" s="21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AP23" s="21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AQ23" s="21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AR23" s="21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AS23" s="50" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AT23" s="21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AU23" s="21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AV23" s="5"/>
       <c r="AW23" s="5"/>
@@ -15885,47 +15906,47 @@
         <v>0.27397260273972601</v>
       </c>
       <c r="F28" s="33">
-        <f>80/365</f>
+        <f t="shared" ref="F28:P28" si="0">80/365</f>
         <v>0.21917808219178081</v>
       </c>
       <c r="G28" s="33">
-        <f>80/365</f>
+        <f t="shared" si="0"/>
         <v>0.21917808219178081</v>
       </c>
       <c r="H28" s="33">
-        <f>80/365</f>
+        <f t="shared" si="0"/>
         <v>0.21917808219178081</v>
       </c>
       <c r="I28" s="33">
-        <f>80/365</f>
+        <f t="shared" si="0"/>
         <v>0.21917808219178081</v>
       </c>
       <c r="J28" s="33">
-        <f>80/365</f>
+        <f t="shared" si="0"/>
         <v>0.21917808219178081</v>
       </c>
       <c r="K28" s="33">
-        <f>80/365</f>
+        <f t="shared" si="0"/>
         <v>0.21917808219178081</v>
       </c>
       <c r="L28" s="33">
-        <f>80/365</f>
+        <f t="shared" si="0"/>
         <v>0.21917808219178081</v>
       </c>
       <c r="M28" s="33">
-        <f>80/365</f>
+        <f t="shared" si="0"/>
         <v>0.21917808219178081</v>
       </c>
       <c r="N28" s="33">
-        <f>80/365</f>
+        <f t="shared" si="0"/>
         <v>0.21917808219178081</v>
       </c>
       <c r="O28" s="33">
-        <f>80/365</f>
+        <f t="shared" si="0"/>
         <v>0.21917808219178081</v>
       </c>
       <c r="P28" s="33">
-        <f>80/365</f>
+        <f t="shared" si="0"/>
         <v>0.21917808219178081</v>
       </c>
       <c r="Q28" s="40">
@@ -17955,50 +17976,50 @@
       <c r="AF34" s="17">
         <v>0</v>
       </c>
-      <c r="AG34" s="21">
-        <v>0.11</v>
-      </c>
-      <c r="AH34" s="21">
-        <v>0.11</v>
-      </c>
-      <c r="AI34" s="21">
-        <v>0.11</v>
-      </c>
-      <c r="AJ34" s="21">
-        <v>0.11</v>
-      </c>
-      <c r="AK34" s="21">
-        <v>0.11</v>
-      </c>
-      <c r="AL34" s="21">
-        <v>0.11</v>
-      </c>
-      <c r="AM34" s="21">
-        <v>0.11</v>
-      </c>
-      <c r="AN34" s="21">
-        <v>0.11</v>
-      </c>
-      <c r="AO34" s="21">
-        <v>0.11</v>
-      </c>
-      <c r="AP34" s="21">
-        <v>0.11</v>
-      </c>
-      <c r="AQ34" s="21">
-        <v>0.11</v>
-      </c>
-      <c r="AR34" s="21">
-        <v>0.11</v>
-      </c>
-      <c r="AS34" s="21">
-        <v>0.11</v>
-      </c>
-      <c r="AT34" s="21">
-        <v>0.11</v>
-      </c>
-      <c r="AU34" s="21">
-        <v>0.11</v>
+      <c r="AG34" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH34" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="AI34" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ34" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK34" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="AL34" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="AM34" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN34" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="AO34" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="AP34" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="AQ34" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="AR34" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="AS34" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="AT34" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="AU34" s="21" t="s">
+        <v>262</v>
       </c>
       <c r="AV34" s="5"/>
       <c r="AW34" s="5"/>
@@ -18919,50 +18940,50 @@
       <c r="AF35" s="17">
         <v>0</v>
       </c>
-      <c r="AG35" s="21">
-        <v>0.71</v>
-      </c>
-      <c r="AH35" s="21">
-        <v>0.71</v>
-      </c>
-      <c r="AI35" s="21">
-        <v>0.71</v>
-      </c>
-      <c r="AJ35" s="21">
-        <v>0.71</v>
-      </c>
-      <c r="AK35" s="21">
-        <v>0.71</v>
-      </c>
-      <c r="AL35" s="21">
-        <v>0.71</v>
-      </c>
-      <c r="AM35" s="21">
-        <v>0.71</v>
-      </c>
-      <c r="AN35" s="21">
-        <v>0.71</v>
-      </c>
-      <c r="AO35" s="21">
-        <v>0.71</v>
-      </c>
-      <c r="AP35" s="21">
-        <v>0.71</v>
-      </c>
-      <c r="AQ35" s="21">
-        <v>0.71</v>
-      </c>
-      <c r="AR35" s="21">
-        <v>0.71</v>
-      </c>
-      <c r="AS35" s="21">
-        <v>0.71</v>
-      </c>
-      <c r="AT35" s="21">
-        <v>0.71</v>
-      </c>
-      <c r="AU35" s="21">
-        <v>0.71</v>
+      <c r="AG35" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH35" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI35" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ35" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK35" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL35" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AM35" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN35" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AO35" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AP35" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AQ35" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AR35" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AS35" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AT35" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU35" s="21" t="s">
+        <v>263</v>
       </c>
       <c r="AV35" s="5"/>
       <c r="AW35" s="5"/>
@@ -19838,95 +19859,95 @@
       <c r="Q36" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="R36" s="17">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="S36" s="17">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="T36" s="17">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="U36" s="17">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="V36" s="17">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="W36" s="17">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="X36" s="17">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="Y36" s="17">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="Z36" s="17">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AA36" s="17">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AB36" s="17">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AC36" s="17">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AD36" s="17">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE36" s="17">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AF36" s="17">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AG36" s="21">
-        <v>0.26</v>
-      </c>
-      <c r="AH36" s="21">
-        <v>0.26</v>
-      </c>
-      <c r="AI36" s="21">
-        <v>0.26</v>
-      </c>
-      <c r="AJ36" s="21">
-        <v>0.26</v>
-      </c>
-      <c r="AK36" s="21">
-        <v>0.26</v>
-      </c>
-      <c r="AL36" s="21">
-        <v>0.26</v>
-      </c>
-      <c r="AM36" s="21">
-        <v>0.26</v>
-      </c>
-      <c r="AN36" s="21">
-        <v>0.26</v>
-      </c>
-      <c r="AO36" s="21">
-        <v>0.26</v>
-      </c>
-      <c r="AP36" s="21">
-        <v>0.26</v>
-      </c>
-      <c r="AQ36" s="21">
-        <v>0.26</v>
-      </c>
-      <c r="AR36" s="21">
-        <v>0.26</v>
-      </c>
-      <c r="AS36" s="21">
-        <v>0.26</v>
-      </c>
-      <c r="AT36" s="21">
-        <v>0.26</v>
-      </c>
-      <c r="AU36" s="21">
-        <v>0.26</v>
+      <c r="R36" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="S36" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="T36" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="U36" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="V36" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="W36" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="X36" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y36" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z36" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA36" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB36" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC36" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD36" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE36" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF36" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG36" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="AH36" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI36" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ36" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK36" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL36" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="AM36" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="AN36" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO36" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP36" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="AQ36" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="AR36" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="AS36" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="AT36" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="AU36" s="21" t="s">
+        <v>264</v>
       </c>
       <c r="AV36" s="5"/>
       <c r="AW36" s="5"/>
@@ -20802,50 +20823,50 @@
       <c r="Q37" s="35">
         <v>0</v>
       </c>
-      <c r="R37" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="S37" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="T37" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="U37" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="V37" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="W37" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="X37" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="Y37" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="Z37" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="AA37" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="AB37" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="AC37" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="AD37" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="AE37" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="AF37" s="17">
-        <v>0.02</v>
+      <c r="R37" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="S37" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="T37" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="U37" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="V37" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="W37" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="X37" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y37" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z37" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA37" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB37" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC37" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD37" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE37" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF37" s="17" t="s">
+        <v>259</v>
       </c>
       <c r="AG37" s="21">
         <v>0</v>
@@ -21769,95 +21790,95 @@
       <c r="Q38" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="R38" s="19">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="S38" s="19">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="T38" s="19">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="U38" s="19">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="V38" s="19">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="W38" s="19">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="X38" s="19">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="Y38" s="19">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="Z38" s="19">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="AA38" s="19">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="AB38" s="19">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="AC38" s="19">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="AD38" s="19">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="AE38" s="19">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="AF38" s="19">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="AG38" s="24">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AH38" s="24">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AI38" s="24">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AJ38" s="24">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AK38" s="24">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AL38" s="24">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AM38" s="24">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AN38" s="24">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AO38" s="24">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AP38" s="24">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AQ38" s="24">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AR38" s="24">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AS38" s="24">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AT38" s="24">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AU38" s="24">
-        <v>0.28000000000000003</v>
+      <c r="R38" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="S38" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="T38" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="U38" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="V38" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="W38" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="X38" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y38" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z38" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA38" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB38" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC38" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD38" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE38" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF38" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG38" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="AH38" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI38" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ38" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="AK38" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="AL38" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="AM38" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN38" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="AO38" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="AP38" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="AQ38" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="AR38" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="AS38" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="AT38" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="AU38" s="24" t="s">
+        <v>265</v>
       </c>
       <c r="AV38" s="5"/>
       <c r="AW38" s="5"/>
@@ -22736,95 +22757,95 @@
       <c r="Q39" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="R39" s="19">
-        <v>0.27</v>
-      </c>
-      <c r="S39" s="19">
-        <v>0.27</v>
-      </c>
-      <c r="T39" s="19">
-        <v>0.27</v>
-      </c>
-      <c r="U39" s="19">
-        <v>0.27</v>
-      </c>
-      <c r="V39" s="19">
-        <v>0.27</v>
-      </c>
-      <c r="W39" s="19">
-        <v>0.27</v>
-      </c>
-      <c r="X39" s="19">
-        <v>0.27</v>
-      </c>
-      <c r="Y39" s="19">
-        <v>0.27</v>
-      </c>
-      <c r="Z39" s="19">
-        <v>0.27</v>
-      </c>
-      <c r="AA39" s="19">
-        <v>0.27</v>
-      </c>
-      <c r="AB39" s="19">
-        <v>0.27</v>
-      </c>
-      <c r="AC39" s="19">
-        <v>0.27</v>
-      </c>
-      <c r="AD39" s="19">
-        <v>0.27</v>
-      </c>
-      <c r="AE39" s="19">
-        <v>0.27</v>
-      </c>
-      <c r="AF39" s="19">
-        <v>0.27</v>
-      </c>
-      <c r="AG39" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="AH39" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="AI39" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="AJ39" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="AK39" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="AL39" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="AM39" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="AN39" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="AO39" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="AP39" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="AQ39" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="AR39" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="AS39" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="AT39" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="AU39" s="24">
-        <v>0.05</v>
+      <c r="R39" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="S39" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="T39" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="U39" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="V39" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="W39" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="X39" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y39" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z39" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA39" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB39" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC39" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD39" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE39" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF39" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="AG39" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="AH39" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="AI39" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ39" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK39" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="AL39" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM39" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="AN39" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO39" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="AP39" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="AQ39" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR39" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="AS39" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="AT39" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="AU39" s="24" t="s">
+        <v>266</v>
       </c>
       <c r="AV39" s="5"/>
       <c r="AW39" s="5"/>
@@ -23745,50 +23766,50 @@
       <c r="AF40" s="17">
         <v>0</v>
       </c>
-      <c r="AG40" s="21">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM40" s="21">
-        <v>0</v>
-      </c>
-      <c r="AN40" s="21">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP40" s="21">
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR40" s="21">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="21">
-        <v>0</v>
-      </c>
-      <c r="AT40" s="21">
-        <v>0</v>
-      </c>
-      <c r="AU40" s="21">
-        <v>0</v>
+      <c r="AG40" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH40" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI40" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ40" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK40" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL40" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM40" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN40" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AO40" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP40" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ40" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR40" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS40" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AT40" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AU40" s="21" t="s">
+        <v>267</v>
       </c>
       <c r="AV40" s="5"/>
       <c r="AW40" s="5"/>
@@ -24736,7 +24757,7 @@
         <v>173</v>
       </c>
       <c r="R43" s="18" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="S43" s="53">
         <v>0</v>
@@ -24748,16 +24769,16 @@
         <v>0</v>
       </c>
       <c r="V43" s="18" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="W43" s="18" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="X43" s="18" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="Y43" s="18" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="Z43" s="53">
         <v>0</v>
@@ -24766,22 +24787,22 @@
         <v>0</v>
       </c>
       <c r="AB43" s="18" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="AC43" s="18" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="AD43" s="18" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="AE43" s="18" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="AF43" s="18" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="AG43" s="23" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="AH43" s="54">
         <v>0</v>
@@ -24793,16 +24814,16 @@
         <v>0</v>
       </c>
       <c r="AK43" s="23" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="AL43" s="23" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="AM43" s="23" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="AN43" s="23" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="AO43" s="54">
         <v>0</v>
@@ -24811,19 +24832,19 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="23" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="AR43" s="23" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="AS43" s="23" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="AT43" s="23" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="AU43" s="23" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="AV43" s="5"/>
       <c r="AW43" s="5"/>
@@ -25703,7 +25724,7 @@
         <v>172</v>
       </c>
       <c r="R44" s="18" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="S44" s="53">
         <v>0</v>
@@ -25712,25 +25733,25 @@
         <v>0</v>
       </c>
       <c r="U44" s="18" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="V44" s="53">
         <v>0</v>
       </c>
       <c r="W44" s="18" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="X44" s="18" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="Y44" s="18" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="Z44" s="18" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="AA44" s="18" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="AB44" s="53">
         <v>0</v>
@@ -25739,16 +25760,16 @@
         <v>0</v>
       </c>
       <c r="AD44" s="18" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="AE44" s="18" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="AF44" s="18" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="AG44" s="23" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="AH44" s="54">
         <v>0</v>
@@ -25757,25 +25778,25 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="23" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="AK44" s="54">
         <v>0</v>
       </c>
       <c r="AL44" s="23" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="AM44" s="23" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="AN44" s="23" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="AO44" s="23" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="AP44" s="23" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="AQ44" s="54">
         <v>0</v>
@@ -25784,13 +25805,13 @@
         <v>0</v>
       </c>
       <c r="AS44" s="23" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="AT44" s="23" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="AU44" s="23" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="AV44" s="5"/>
       <c r="AW44" s="5"/>
@@ -26669,8 +26690,8 @@
       <c r="Q45" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="R45" s="18">
-        <v>0.09</v>
+      <c r="R45" s="18" t="s">
+        <v>171</v>
       </c>
       <c r="S45" s="53">
         <v>0</v>
@@ -26678,44 +26699,44 @@
       <c r="T45" s="53">
         <v>0</v>
       </c>
-      <c r="U45" s="18">
-        <v>0.09</v>
-      </c>
-      <c r="V45" s="18">
-        <v>0.09</v>
+      <c r="U45" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="V45" s="18" t="s">
+        <v>171</v>
       </c>
       <c r="W45" s="53">
         <v>0</v>
       </c>
-      <c r="X45" s="18">
-        <v>0.09</v>
-      </c>
-      <c r="Y45" s="18">
-        <v>0.09</v>
-      </c>
-      <c r="Z45" s="18">
-        <v>0.09</v>
-      </c>
-      <c r="AA45" s="18">
-        <v>0.09</v>
-      </c>
-      <c r="AB45" s="18">
-        <v>0.09</v>
-      </c>
-      <c r="AC45" s="18">
-        <v>0.09</v>
+      <c r="X45" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y45" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z45" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA45" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB45" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC45" s="18" t="s">
+        <v>171</v>
       </c>
       <c r="AD45" s="53">
         <v>0</v>
       </c>
-      <c r="AE45" s="18">
-        <v>0.09</v>
-      </c>
-      <c r="AF45" s="18">
-        <v>0.09</v>
-      </c>
-      <c r="AG45" s="23">
-        <v>0.03</v>
+      <c r="AE45" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF45" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG45" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="AH45" s="54">
         <v>0</v>
@@ -26723,41 +26744,41 @@
       <c r="AI45" s="54">
         <v>0</v>
       </c>
-      <c r="AJ45" s="23">
-        <v>0.03</v>
-      </c>
-      <c r="AK45" s="23">
-        <v>0.03</v>
+      <c r="AJ45" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK45" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="AL45" s="54">
         <v>0</v>
       </c>
-      <c r="AM45" s="23">
-        <v>0.03</v>
-      </c>
-      <c r="AN45" s="23">
-        <v>0.03</v>
-      </c>
-      <c r="AO45" s="23">
-        <v>0.03</v>
-      </c>
-      <c r="AP45" s="23">
-        <v>0.03</v>
-      </c>
-      <c r="AQ45" s="23">
-        <v>0.03</v>
-      </c>
-      <c r="AR45" s="23">
-        <v>0.03</v>
+      <c r="AM45" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="AN45" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="AO45" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="AP45" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="AQ45" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR45" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="AS45" s="54">
         <v>0</v>
       </c>
-      <c r="AT45" s="23">
-        <v>0.03</v>
-      </c>
-      <c r="AU45" s="23">
-        <v>0.03</v>
+      <c r="AT45" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU45" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="AV45" s="5"/>
       <c r="AW45" s="5"/>
@@ -27636,8 +27657,8 @@
       <c r="Q46" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="R46" s="18">
-        <v>0.11</v>
+      <c r="R46" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="S46" s="53">
         <v>0</v>
@@ -27645,44 +27666,44 @@
       <c r="T46" s="53">
         <v>0</v>
       </c>
-      <c r="U46" s="18">
-        <v>0.11</v>
-      </c>
-      <c r="V46" s="18">
-        <v>0.11</v>
-      </c>
-      <c r="W46" s="18">
-        <v>0.11</v>
+      <c r="U46" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="V46" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="W46" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="X46" s="53">
         <v>0</v>
       </c>
-      <c r="Y46" s="18">
-        <v>0.11</v>
-      </c>
-      <c r="Z46" s="18">
-        <v>0.11</v>
-      </c>
-      <c r="AA46" s="18">
-        <v>0.11</v>
-      </c>
-      <c r="AB46" s="18">
-        <v>0.11</v>
-      </c>
-      <c r="AC46" s="18">
-        <v>0.11</v>
-      </c>
-      <c r="AD46" s="18">
-        <v>0.11</v>
+      <c r="Y46" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z46" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA46" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB46" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC46" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD46" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="AE46" s="53">
         <v>0</v>
       </c>
-      <c r="AF46" s="18">
-        <v>0.11</v>
-      </c>
-      <c r="AG46" s="23">
-        <v>0.03</v>
+      <c r="AF46" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG46" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="AH46" s="54">
         <v>0</v>
@@ -27690,41 +27711,41 @@
       <c r="AI46" s="54">
         <v>0</v>
       </c>
-      <c r="AJ46" s="23">
-        <v>0.03</v>
-      </c>
-      <c r="AK46" s="23">
-        <v>0.03</v>
-      </c>
-      <c r="AL46" s="23">
-        <v>0.03</v>
+      <c r="AJ46" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK46" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="AL46" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="AM46" s="54">
         <v>0</v>
       </c>
-      <c r="AN46" s="23">
-        <v>0.03</v>
-      </c>
-      <c r="AO46" s="23">
-        <v>0.03</v>
-      </c>
-      <c r="AP46" s="23">
-        <v>0.03</v>
-      </c>
-      <c r="AQ46" s="23">
-        <v>0.03</v>
-      </c>
-      <c r="AR46" s="23">
-        <v>0.03</v>
-      </c>
-      <c r="AS46" s="23">
-        <v>0.03</v>
+      <c r="AN46" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="AO46" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="AP46" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="AQ46" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR46" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS46" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="AT46" s="54">
         <v>0</v>
       </c>
-      <c r="AU46" s="23">
-        <v>0.03</v>
+      <c r="AU46" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="AV46" s="5"/>
       <c r="AW46" s="5"/>
@@ -29591,183 +29612,183 @@
         <v>21</v>
       </c>
       <c r="C50" s="33">
-        <f>1/108</f>
+        <f t="shared" ref="C50:AU50" si="1">1/108</f>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="D50" s="33">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="E50" s="33">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="F50" s="33">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="G50" s="33">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="H50" s="33">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="I50" s="33">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="J50" s="33">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="K50" s="33">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="L50" s="33">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="M50" s="33">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="N50" s="33">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="O50" s="33">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="P50" s="33">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="Q50" s="33">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="R50" s="17">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="S50" s="17">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="T50" s="17">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="U50" s="17">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="V50" s="17">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="W50" s="17">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="X50" s="17">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="Y50" s="17">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="Z50" s="17">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AA50" s="17">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AB50" s="17">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AC50" s="17">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AD50" s="17">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AE50" s="17">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AF50" s="17">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AG50" s="21">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AH50" s="21">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AI50" s="21">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AJ50" s="21">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AK50" s="21">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AL50" s="21">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AM50" s="21">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AN50" s="21">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AO50" s="21">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AP50" s="21">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AQ50" s="21">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AR50" s="21">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AS50" s="21">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AT50" s="21">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AU50" s="21">
-        <f>1/108</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AV50" s="26"/>
@@ -30607,179 +30628,179 @@
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="D51" s="33">
-        <f t="shared" ref="D51:E52" si="0">1/48</f>
+        <f t="shared" ref="D51:E52" si="2">1/48</f>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E51" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="F51" s="33">
-        <f>1/60</f>
+        <f t="shared" ref="F51:AF51" si="3">1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="G51" s="33">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="H51" s="33">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="I51" s="33">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="J51" s="33">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="K51" s="33">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="L51" s="33">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="M51" s="33">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="N51" s="33">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="O51" s="33">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="P51" s="33">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="Q51" s="33">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="R51" s="17">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="S51" s="17">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="T51" s="17">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="U51" s="17">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="V51" s="17">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="W51" s="17">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="X51" s="17">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="Y51" s="17">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="Z51" s="17">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="AA51" s="17">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="AB51" s="17">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="AC51" s="17">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="AD51" s="17">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="AE51" s="17">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="AF51" s="17">
-        <f>1/60</f>
+        <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="AG51" s="21">
-        <f>1/108</f>
+        <f t="shared" ref="AG51:AU51" si="4">1/108</f>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AH51" s="21">
-        <f>1/108</f>
+        <f t="shared" si="4"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AI51" s="21">
-        <f>1/108</f>
+        <f t="shared" si="4"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AJ51" s="21">
-        <f>1/108</f>
+        <f t="shared" si="4"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AK51" s="21">
-        <f>1/108</f>
+        <f t="shared" si="4"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AL51" s="21">
-        <f>1/108</f>
+        <f t="shared" si="4"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AM51" s="21">
-        <f>1/108</f>
+        <f t="shared" si="4"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AN51" s="21">
-        <f>1/108</f>
+        <f t="shared" si="4"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AO51" s="21">
-        <f>1/108</f>
+        <f t="shared" si="4"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AP51" s="21">
-        <f>1/108</f>
+        <f t="shared" si="4"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AQ51" s="21">
-        <f>1/108</f>
+        <f t="shared" si="4"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AR51" s="21">
-        <f>1/108</f>
+        <f t="shared" si="4"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AS51" s="21">
-        <f>1/108</f>
+        <f t="shared" si="4"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AT51" s="21">
-        <f>1/108</f>
+        <f t="shared" si="4"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AU51" s="21">
-        <f>1/108</f>
+        <f t="shared" si="4"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AV51" s="26"/>
@@ -31617,59 +31638,59 @@
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="D52" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E52" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="F52" s="33">
-        <f>1/60</f>
+        <f t="shared" ref="F52:Q52" si="5">1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="G52" s="33">
-        <f>1/60</f>
+        <f t="shared" si="5"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="H52" s="33">
-        <f>1/60</f>
+        <f t="shared" si="5"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="I52" s="33">
-        <f>1/60</f>
+        <f t="shared" si="5"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="J52" s="33">
-        <f>1/60</f>
+        <f t="shared" si="5"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="K52" s="33">
-        <f>1/60</f>
+        <f t="shared" si="5"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="L52" s="33">
-        <f>1/60</f>
+        <f t="shared" si="5"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="M52" s="33">
-        <f>1/60</f>
+        <f t="shared" si="5"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="N52" s="33">
-        <f>1/60</f>
+        <f t="shared" si="5"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="O52" s="33">
-        <f>1/60</f>
+        <f t="shared" si="5"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="P52" s="33">
-        <f>1/60</f>
+        <f t="shared" si="5"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="Q52" s="33">
-        <f>1/60</f>
+        <f t="shared" si="5"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="R52" s="17">
@@ -40429,7 +40450,7 @@
         <v>182</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F69" s="33" t="s">
         <v>182</v>
@@ -40447,7 +40468,7 @@
         <v>182</v>
       </c>
       <c r="K69" s="40" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L69" s="33" t="s">
         <v>182</v>
@@ -40468,94 +40489,94 @@
         <v>182</v>
       </c>
       <c r="R69" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S69" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T69" s="48" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="U69" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V69" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W69" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X69" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y69" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Z69" s="48" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AA69" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AB69" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AC69" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AD69" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AE69" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF69" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AG69" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AH69" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AI69" s="50" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AJ69" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AK69" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AL69" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AM69" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AN69" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AO69" s="50" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AP69" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AQ69" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AR69" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AS69" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AT69" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AU69" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AV69" s="5"/>
       <c r="AW69" s="5"/>
@@ -41396,7 +41417,7 @@
         <v>183</v>
       </c>
       <c r="E70" s="40" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F70" s="33" t="s">
         <v>183</v>
@@ -41420,7 +41441,7 @@
         <v>183</v>
       </c>
       <c r="M70" s="40" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="N70" s="33" t="s">
         <v>183</v>
@@ -41435,94 +41456,94 @@
         <v>183</v>
       </c>
       <c r="R70" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="S70" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T70" s="48" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="U70" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="V70" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="W70" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="X70" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Y70" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Z70" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA70" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AB70" s="48" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AC70" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AD70" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AE70" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AF70" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AG70" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AH70" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AI70" s="50" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AJ70" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AK70" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AL70" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AM70" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AN70" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AO70" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AP70" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AQ70" s="50" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AR70" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AS70" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AT70" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AU70" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AV70" s="5"/>
       <c r="AW70" s="5"/>
@@ -42363,7 +42384,7 @@
         <v>184</v>
       </c>
       <c r="E71" s="40" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F71" s="33" t="s">
         <v>184</v>
@@ -42393,7 +42414,7 @@
         <v>184</v>
       </c>
       <c r="O71" s="40" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="P71" s="33" t="s">
         <v>184</v>
@@ -42402,94 +42423,94 @@
         <v>184</v>
       </c>
       <c r="R71" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="S71" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="T71" s="48" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="U71" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="V71" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="W71" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="X71" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Y71" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Z71" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AA71" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AB71" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AC71" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AD71" s="48" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AE71" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AF71" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AG71" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AH71" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI71" s="50" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AJ71" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AK71" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AL71" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AM71" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AN71" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AO71" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AP71" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AQ71" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AR71" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AS71" s="50" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AT71" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AU71" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AV71" s="5"/>
       <c r="AW71" s="5"/>
@@ -43330,7 +43351,7 @@
         <v>185</v>
       </c>
       <c r="E72" s="40" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F72" s="33" t="s">
         <v>185</v>
@@ -43351,7 +43372,7 @@
         <v>185</v>
       </c>
       <c r="L72" s="40" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M72" s="33" t="s">
         <v>185</v>
@@ -43369,94 +43390,94 @@
         <v>185</v>
       </c>
       <c r="R72" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S72" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T72" s="48" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="U72" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="V72" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="W72" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="X72" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Y72" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Z72" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AA72" s="48" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="AB72" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AC72" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AD72" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AE72" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AF72" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG72" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AH72" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AI72" s="50" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="AJ72" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AK72" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AL72" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AM72" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AN72" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AO72" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AP72" s="50" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="AQ72" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AR72" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AS72" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AT72" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AU72" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AV72" s="5"/>
       <c r="AW72" s="5"/>
@@ -44297,7 +44318,7 @@
         <v>186</v>
       </c>
       <c r="E73" s="40" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F73" s="33" t="s">
         <v>186</v>
@@ -44324,7 +44345,7 @@
         <v>186</v>
       </c>
       <c r="N73" s="40" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O73" s="33" t="s">
         <v>186</v>
@@ -44336,94 +44357,94 @@
         <v>186</v>
       </c>
       <c r="R73" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S73" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="T73" s="48" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="U73" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="V73" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="W73" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="X73" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Y73" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z73" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AA73" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AB73" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AC73" s="48" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AD73" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AE73" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AF73" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG73" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AH73" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI73" s="50" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AJ73" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AK73" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AL73" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AM73" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AN73" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AO73" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AP73" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AQ73" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AR73" s="50" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AS73" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AT73" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AU73" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AV73" s="5"/>
       <c r="AW73" s="5"/>
@@ -45264,7 +45285,7 @@
         <v>187</v>
       </c>
       <c r="E74" s="40" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F74" s="33" t="s">
         <v>187</v>
@@ -45297,100 +45318,100 @@
         <v>187</v>
       </c>
       <c r="P74" s="40" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Q74" s="33" t="s">
         <v>187</v>
       </c>
       <c r="R74" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="S74" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="T74" s="48" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="U74" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V74" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="W74" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="X74" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Y74" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Z74" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AA74" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AB74" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AC74" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AD74" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AE74" s="48" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AF74" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AG74" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AH74" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AI74" s="50" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AJ74" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AK74" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AL74" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AM74" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AN74" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AO74" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AP74" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AQ74" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AR74" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AS74" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AT74" s="50" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AU74" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AV74" s="5"/>
       <c r="AW74" s="5"/>
@@ -46228,7 +46249,7 @@
         <v>187</v>
       </c>
       <c r="E75" s="40" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F75" s="33" t="s">
         <v>187</v>
@@ -46264,7 +46285,7 @@
         <v>187</v>
       </c>
       <c r="Q75" s="40" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="R75" s="17">
         <v>0</v>
@@ -50221,95 +50242,95 @@
       <c r="Q87" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="R87" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="S87" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="T87" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="U87" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="V87" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="W87" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="X87" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y87" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z87" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA87" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="AB87" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC87" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD87" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE87" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF87" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG87" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH87" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI87" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ87" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK87" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AL87" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM87" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN87" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AO87" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP87" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ87" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AR87" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AS87" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT87" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AU87" s="21" t="s">
-        <v>196</v>
+      <c r="R87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="S87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="T87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="U87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="V87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="W87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="X87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AR87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT87" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU87" s="33" t="s">
+        <v>175</v>
       </c>
       <c r="AV87" s="5"/>
       <c r="AW87" s="5"/>
@@ -51144,139 +51165,139 @@
         <v>46</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E88" s="33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F88" s="33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G88" s="33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H88" s="33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I88" s="33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J88" s="33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K88" s="33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L88" s="33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M88" s="33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N88" s="33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O88" s="33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P88" s="33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q88" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="R88" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="S88" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="T88" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="U88" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="V88" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="W88" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="X88" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y88" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z88" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA88" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB88" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC88" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD88" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE88" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF88" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG88" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH88" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI88" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ88" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="AK88" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL88" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM88" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="AN88" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="AO88" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="AP88" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="AQ88" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="AR88" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="AS88" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="AT88" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="AU88" s="21" t="s">
-        <v>198</v>
+        <v>194</v>
+      </c>
+      <c r="R88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="S88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="T88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="U88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="V88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="W88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="X88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU88" s="33" t="s">
+        <v>194</v>
       </c>
       <c r="AV88" s="5"/>
       <c r="AW88" s="5"/>
@@ -52155,95 +52176,95 @@
       <c r="Q89" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="R89" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="S89" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="T89" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="U89" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="V89" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="W89" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="X89" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y89" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z89" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA89" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB89" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC89" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD89" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE89" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="AF89" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG89" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH89" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI89" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ89" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AK89" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AL89" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AM89" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN89" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AO89" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AP89" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AQ89" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AR89" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AS89" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AT89" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AU89" s="21" t="s">
-        <v>199</v>
+      <c r="R89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="S89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="T89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="U89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="V89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="W89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="X89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AO89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AQ89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT89" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU89" s="33" t="s">
+        <v>176</v>
       </c>
       <c r="AV89" s="5"/>
       <c r="AW89" s="5"/>

--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters CATTLE.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters CATTLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0282CBBC-801E-F549-A4CC-CB1CF9725B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CCED44-FA81-7043-BB49-1D8188E8577C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="27300" windowHeight="16140" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="28100" windowHeight="16140" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Justin</author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2F263E43-F915-4137-85CF-5A81894CE5E8}">
@@ -99,12 +100,210 @@
         </r>
       </text>
     </comment>
+    <comment ref="E17" authorId="1" shapeId="0" xr:uid="{EF78F4E6-039A-B045-8B9B-D365EA49AFBB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the par.rate from EE was invalid. This is taken from Sheep CLM system and  the existing  is  proprtionaly increased to get the ideal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O17" authorId="1" shapeId="0" xr:uid="{197DA58C-0E1F-4642-9F9C-2F0DE63C34AF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the par.rate from EE was invalid. This is taken from Sheep CLM system and  the existing  is  proprtionaly increased to get the ideal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C61" authorId="1" shapeId="0" xr:uid="{E0F57D87-D490-A54E-BF74-50CFE78F96E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>we didn’t elcit this parameter os taken form the AM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D61" authorId="1" shapeId="0" xr:uid="{9CC69C53-3AF8-164C-9791-D62AE67A6E71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>we didn’t elcit this parameter os taken form the AM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E61" authorId="1" shapeId="0" xr:uid="{D7DB8497-0070-9242-A38F-B6C1B02B9C4C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>we didn’t elcit this parameter os taken form the AM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P61" authorId="1" shapeId="0" xr:uid="{582C5344-82DE-FF44-8DA1-9E27F974436C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>we didn’t elcit this parameter os taken form the AM</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="301">
   <si>
     <t># Initial population</t>
   </si>
@@ -706,49 +905,10 @@
     <t>cattle_trial_CLM_ideal</t>
   </si>
   <si>
-    <t>rpert(10000, 0.49, 0.76, 0.625)</t>
-  </si>
-  <si>
     <t># for now ideal scenarios are just made up</t>
   </si>
   <si>
-    <t>rpert(10000, 1.45, 2.5, 2)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 10876, 13616, 11088)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 13200, 19793, 16896)</t>
-  </si>
-  <si>
-    <t>rpert(10000,  18480,  29825,  23337)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 9345, 19793, 9556)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 17160, 22750, 20592)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 15840,  51104, 33475)</t>
-  </si>
-  <si>
     <t>cattle_trial_past_ideal</t>
-  </si>
-  <si>
-    <t>rpert(10000, 11116, 13116, 12116)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 16938, 19938, 17938)</t>
-  </si>
-  <si>
-    <t>rpert(10000,  23396,  26396,  24396)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 20644, 23644, 22644)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 38324,  41324, 39324)</t>
   </si>
   <si>
     <t>cattle_trial_periurban_dairy_ideal</t>
@@ -758,12 +918,6 @@
   </si>
   <si>
     <t>rpert(10000, 250, 380, 290)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 9581, 11581, 10581)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 38324,  40324, 39324)</t>
   </si>
   <si>
     <t>cattle_trial_CLM_all_mortality_zero</t>
@@ -877,9 +1031,6 @@
     <t>cattle_trial_periurban_dairy_ideal_O</t>
   </si>
   <si>
-    <t>rpert(10000, 9581, 11981, 10181)</t>
-  </si>
-  <si>
     <t>0.025/12</t>
   </si>
   <si>
@@ -920,6 +1071,141 @@
   </si>
   <si>
     <t>0.03/12</t>
+  </si>
+  <si>
+    <t>rpert(75, 540, 330)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 0.63, 0.75, 0.69)</t>
+  </si>
+  <si>
+    <t>rpert (10000, 1, 2, 1.0001)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1, 8, 2.19)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 22, 150, 110)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 23, 180, 120)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 90, 300, 180)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 100, 350, 190)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 150, 350, 240)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 170, 450, 300)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 22, 120, 90)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 23, 150, 90)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 100, 320, 170)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 150, 340, 240)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 170, 400, 255)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 90, 280, 160)</t>
+  </si>
+  <si>
+    <t>rpert(10000,  (18480+1848), (27825+2782), (23337+2333))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (9345+934), (17793+1779), (9556+955))</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1, 2, 1.0001)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 75, 450, 273)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1, 8, 2.21)</t>
+  </si>
+  <si>
+    <t>rpert(10000, (10876+(0.2*10876)), (11616+(0.2*11616)), (11088+(0.2*11088)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (13200+(0.3*13200)), (17793+(0.3*17793)), (16896+(0.3*16896)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (17160), (20750), (20592))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (15840+(0.2*15840)), (49104+(0.2*49104)), (33475+(0.2*33475)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, 23, 160, 120)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 24, 170, 130)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 100, 300, 220)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 110, 320, 240)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 140, 350, 310)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 150, 500, 400)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 90, 450, 261)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 2, 45, 10.5)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 35, 200, 160)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 36, 220, 160)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 190, 450, 250)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 195, 500, 400)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 250, 600, 550)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 255, 650, 550)</t>
+  </si>
+  <si>
+    <t>rpert(10000, (11116+(0.1*11116)), (11116+(0.1*11116)), (11116+(0.1*11116)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (16938+(0.1*16938)), (16938+(0.1*16938)), (16938+(0.1*16938)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (23396+(0*23396)),  (23396+(0*23396)),  (23396+(0*23396)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (9581+(0.1*9581)), (9581+(0.1*9581)), (9581+(0.1*9581)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (20644+(0*20644)), (20644+(0*20644)), (20644+(0*20644)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (38324+(0*38324)), (38324+(0*38324)), (38324+(0*38324)))</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1276,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1057,6 +1343,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1079,7 +1371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1179,6 +1471,11 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1495,9 +1792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
   <dimension ref="A1:AGM159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW88" sqref="AW88"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1505,7 +1802,7 @@
     <col min="1" max="1" width="34.83203125" style="13" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="3" width="24.83203125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="19" style="33" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="33" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="33" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" style="33" customWidth="1"/>
     <col min="7" max="7" width="23.5" style="33" customWidth="1"/>
@@ -1527,7 +1824,12 @@
     <col min="33" max="33" width="27" style="21" customWidth="1"/>
     <col min="34" max="34" width="23.5" style="21" customWidth="1"/>
     <col min="35" max="35" width="29.83203125" style="21" customWidth="1"/>
-    <col min="36" max="47" width="27" style="21" customWidth="1"/>
+    <col min="36" max="36" width="20.1640625" style="21" customWidth="1"/>
+    <col min="37" max="37" width="18.83203125" style="21" customWidth="1"/>
+    <col min="38" max="38" width="18.1640625" style="21" customWidth="1"/>
+    <col min="39" max="39" width="20.33203125" style="21" customWidth="1"/>
+    <col min="40" max="40" width="17.83203125" style="21" customWidth="1"/>
+    <col min="41" max="47" width="27" style="21" customWidth="1"/>
     <col min="48" max="48" width="22" bestFit="1" customWidth="1"/>
     <col min="49" max="55" width="42.1640625" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="43.1640625" bestFit="1" customWidth="1"/>
@@ -1561,46 +1863,46 @@
         <v>154</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>199</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="M1" s="31" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="R1" s="38" t="s">
         <v>155</v>
@@ -1609,43 +1911,43 @@
         <v>156</v>
       </c>
       <c r="T1" s="38" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="U1" s="38" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="V1" s="38" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="W1" s="38" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="X1" s="38" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="Y1" s="38" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="Z1" s="38" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="AA1" s="38" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="AB1" s="38" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="AC1" s="38" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="AD1" s="38" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="AE1" s="38" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="AF1" s="38" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="AG1" s="2" t="s">
         <v>195</v>
@@ -1654,43 +1956,43 @@
         <v>196</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="AV1" s="4"/>
       <c r="AW1" s="4"/>
@@ -1715,7 +2017,7 @@
     </row>
     <row r="2" spans="1:871" s="42" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="43"/>
@@ -9069,8 +9371,8 @@
       <c r="D17" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="40" t="s">
-        <v>200</v>
+      <c r="E17" s="55" t="s">
+        <v>257</v>
       </c>
       <c r="F17" s="33" t="s">
         <v>162</v>
@@ -9099,8 +9401,8 @@
       <c r="N17" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="O17" s="40" t="s">
-        <v>200</v>
+      <c r="O17" s="55" t="s">
+        <v>257</v>
       </c>
       <c r="P17" s="33" t="s">
         <v>162</v>
@@ -9115,7 +9417,7 @@
         <v>0.69</v>
       </c>
       <c r="T17" s="48">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="U17" s="17">
         <v>0.69</v>
@@ -9145,7 +9447,7 @@
         <v>0.69</v>
       </c>
       <c r="AD17" s="48">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="AE17" s="17">
         <v>0.69</v>
@@ -10033,8 +10335,8 @@
       <c r="D18" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="33" t="s">
-        <v>151</v>
+      <c r="E18" s="55" t="s">
+        <v>258</v>
       </c>
       <c r="F18" s="33" t="s">
         <v>151</v>
@@ -10063,8 +10365,8 @@
       <c r="N18" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="O18" s="33" t="s">
-        <v>151</v>
+      <c r="O18" s="55" t="s">
+        <v>258</v>
       </c>
       <c r="P18" s="33" t="s">
         <v>151</v>
@@ -10078,8 +10380,8 @@
       <c r="S18" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="T18" s="17" t="s">
-        <v>151</v>
+      <c r="T18" s="48" t="s">
+        <v>274</v>
       </c>
       <c r="U18" s="17" t="s">
         <v>151</v>
@@ -10108,8 +10410,8 @@
       <c r="AC18" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="AD18" s="17" t="s">
-        <v>151</v>
+      <c r="AD18" s="48" t="s">
+        <v>274</v>
       </c>
       <c r="AE18" s="17" t="s">
         <v>151</v>
@@ -10123,8 +10425,8 @@
       <c r="AH18" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="AI18" s="21" t="s">
-        <v>151</v>
+      <c r="AI18" s="50" t="s">
+        <v>274</v>
       </c>
       <c r="AJ18" s="21" t="s">
         <v>151</v>
@@ -11024,7 +11326,7 @@
         <v>0.1</v>
       </c>
       <c r="E21" s="40">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F21" s="33">
         <v>0.1</v>
@@ -11054,7 +11356,7 @@
         <v>0.1</v>
       </c>
       <c r="O21" s="40">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P21" s="33">
         <v>0.1</v>
@@ -11069,7 +11371,7 @@
         <v>0.1</v>
       </c>
       <c r="T21" s="48">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="U21" s="17">
         <v>0.1</v>
@@ -11099,7 +11401,7 @@
         <v>0.1</v>
       </c>
       <c r="AD21" s="48">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AE21" s="17">
         <v>0.1</v>
@@ -11990,8 +12292,8 @@
       <c r="D22" s="33">
         <v>210</v>
       </c>
-      <c r="E22" s="33">
-        <v>210</v>
+      <c r="E22" s="55" t="s">
+        <v>256</v>
       </c>
       <c r="F22" s="33">
         <v>210</v>
@@ -12020,8 +12322,8 @@
       <c r="N22" s="33">
         <v>210</v>
       </c>
-      <c r="O22" s="33">
-        <v>210</v>
+      <c r="O22" s="55" t="s">
+        <v>256</v>
       </c>
       <c r="P22" s="33">
         <v>210</v>
@@ -12035,8 +12337,8 @@
       <c r="S22" s="17">
         <v>210</v>
       </c>
-      <c r="T22" s="17">
-        <v>210</v>
+      <c r="T22" s="48" t="s">
+        <v>275</v>
       </c>
       <c r="U22" s="17">
         <v>210</v>
@@ -12065,8 +12367,8 @@
       <c r="AC22" s="17">
         <v>210</v>
       </c>
-      <c r="AD22" s="17">
-        <v>210</v>
+      <c r="AD22" s="48" t="s">
+        <v>275</v>
       </c>
       <c r="AE22" s="17">
         <v>210</v>
@@ -12081,7 +12383,7 @@
         <v>197</v>
       </c>
       <c r="AI22" s="50" t="s">
-        <v>217</v>
+        <v>287</v>
       </c>
       <c r="AJ22" s="21" t="s">
         <v>197</v>
@@ -12111,7 +12413,7 @@
         <v>197</v>
       </c>
       <c r="AS22" s="50" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="AT22" s="21" t="s">
         <v>197</v>
@@ -12954,8 +13256,8 @@
       <c r="D23" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="E23" s="40" t="s">
-        <v>202</v>
+      <c r="E23" s="55" t="s">
+        <v>259</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>174</v>
@@ -12984,8 +13286,8 @@
       <c r="N23" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="O23" s="40" t="s">
-        <v>202</v>
+      <c r="O23" s="55" t="s">
+        <v>259</v>
       </c>
       <c r="P23" s="33" t="s">
         <v>174</v>
@@ -12999,8 +13301,8 @@
       <c r="S23" s="17">
         <v>1.79</v>
       </c>
-      <c r="T23" s="48">
-        <v>3</v>
+      <c r="T23" s="48" t="s">
+        <v>276</v>
       </c>
       <c r="U23" s="17">
         <v>1.79</v>
@@ -13029,8 +13331,8 @@
       <c r="AC23" s="17">
         <v>1.79</v>
       </c>
-      <c r="AD23" s="48">
-        <v>3</v>
+      <c r="AD23" s="48" t="s">
+        <v>276</v>
       </c>
       <c r="AE23" s="17">
         <v>1.79</v>
@@ -13045,7 +13347,7 @@
         <v>198</v>
       </c>
       <c r="AI23" s="50" t="s">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="AJ23" s="21" t="s">
         <v>198</v>
@@ -13075,7 +13377,7 @@
         <v>198</v>
       </c>
       <c r="AS23" s="50" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="AT23" s="21" t="s">
         <v>198</v>
@@ -17977,49 +18279,49 @@
         <v>0</v>
       </c>
       <c r="AG34" s="21" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AH34" s="21" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AI34" s="21" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AJ34" s="21" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AK34" s="21" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AL34" s="21" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AM34" s="21" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AN34" s="21" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AO34" s="21" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AP34" s="21" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AQ34" s="21" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AR34" s="21" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AS34" s="21" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AT34" s="21" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AU34" s="21" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AV34" s="5"/>
       <c r="AW34" s="5"/>
@@ -18941,49 +19243,49 @@
         <v>0</v>
       </c>
       <c r="AG35" s="21" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AH35" s="21" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AI35" s="21" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AJ35" s="21" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AK35" s="21" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AL35" s="21" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AM35" s="21" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AN35" s="21" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AO35" s="21" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AP35" s="21" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AQ35" s="21" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AR35" s="21" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AS35" s="21" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AT35" s="21" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AU35" s="21" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AV35" s="5"/>
       <c r="AW35" s="5"/>
@@ -19860,94 +20162,94 @@
         <v>169</v>
       </c>
       <c r="R36" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="S36" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="T36" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="U36" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="V36" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="W36" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="X36" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="Y36" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="Z36" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AA36" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AB36" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AC36" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AD36" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AE36" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AF36" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AG36" s="21" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="AH36" s="21" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="AI36" s="21" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="AJ36" s="21" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="AK36" s="21" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="AL36" s="21" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="AM36" s="21" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="AN36" s="21" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="AO36" s="21" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="AP36" s="21" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="AQ36" s="21" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="AR36" s="21" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="AS36" s="21" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="AT36" s="21" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="AU36" s="21" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="AV36" s="5"/>
       <c r="AW36" s="5"/>
@@ -20824,49 +21126,49 @@
         <v>0</v>
       </c>
       <c r="R37" s="17" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="S37" s="17" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="U37" s="17" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="V37" s="17" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="W37" s="17" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="X37" s="17" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="Y37" s="17" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="Z37" s="17" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="AA37" s="17" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="AB37" s="17" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="AC37" s="17" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="AD37" s="17" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="AE37" s="17" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="AF37" s="17" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="AG37" s="21">
         <v>0</v>
@@ -21791,94 +22093,94 @@
         <v>170</v>
       </c>
       <c r="R38" s="19" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="S38" s="19" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="T38" s="19" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="U38" s="19" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="V38" s="19" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="W38" s="19" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="X38" s="19" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="Y38" s="19" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="Z38" s="19" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="AA38" s="19" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="AB38" s="19" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="AC38" s="19" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="AD38" s="19" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="AE38" s="19" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="AF38" s="19" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="AG38" s="24" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="AH38" s="24" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="AI38" s="24" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="AJ38" s="24" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="AK38" s="24" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="AL38" s="24" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="AM38" s="24" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="AN38" s="24" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="AO38" s="24" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="AP38" s="24" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="AQ38" s="24" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="AR38" s="24" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="AS38" s="24" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="AT38" s="24" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="AU38" s="24" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="AV38" s="5"/>
       <c r="AW38" s="5"/>
@@ -22758,94 +23060,94 @@
         <v>171</v>
       </c>
       <c r="R39" s="19" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="S39" s="19" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="T39" s="19" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="U39" s="19" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="V39" s="19" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="W39" s="19" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="X39" s="19" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="Y39" s="19" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="Z39" s="19" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="AA39" s="19" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="AB39" s="19" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="AC39" s="19" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="AD39" s="19" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="AE39" s="19" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="AF39" s="19" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="AG39" s="24" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AH39" s="24" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AI39" s="24" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AJ39" s="24" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AK39" s="24" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AL39" s="24" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AM39" s="24" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AN39" s="24" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AO39" s="24" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AP39" s="24" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AQ39" s="24" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AR39" s="24" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AS39" s="24" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AT39" s="24" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AU39" s="24" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AV39" s="5"/>
       <c r="AW39" s="5"/>
@@ -23767,49 +24069,49 @@
         <v>0</v>
       </c>
       <c r="AG40" s="21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AH40" s="21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AI40" s="21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AJ40" s="21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AK40" s="21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AL40" s="21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AM40" s="21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AN40" s="21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AO40" s="21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AP40" s="21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AQ40" s="21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AR40" s="21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AS40" s="21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AT40" s="21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AU40" s="21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AV40" s="5"/>
       <c r="AW40" s="5"/>
@@ -24757,7 +25059,7 @@
         <v>173</v>
       </c>
       <c r="R43" s="18" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="S43" s="53">
         <v>0</v>
@@ -24769,16 +25071,16 @@
         <v>0</v>
       </c>
       <c r="V43" s="18" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="W43" s="18" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="X43" s="18" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="Y43" s="18" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="Z43" s="53">
         <v>0</v>
@@ -24787,22 +25089,22 @@
         <v>0</v>
       </c>
       <c r="AB43" s="18" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="AC43" s="18" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="AD43" s="18" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="AE43" s="18" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="AF43" s="18" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="AG43" s="23" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="AH43" s="54">
         <v>0</v>
@@ -24814,16 +25116,16 @@
         <v>0</v>
       </c>
       <c r="AK43" s="23" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="AL43" s="23" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="AM43" s="23" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="AN43" s="23" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="AO43" s="54">
         <v>0</v>
@@ -24832,19 +25134,19 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="23" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="AR43" s="23" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="AS43" s="23" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="AT43" s="23" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="AU43" s="23" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="AV43" s="5"/>
       <c r="AW43" s="5"/>
@@ -25724,7 +26026,7 @@
         <v>172</v>
       </c>
       <c r="R44" s="18" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="S44" s="53">
         <v>0</v>
@@ -25733,25 +26035,25 @@
         <v>0</v>
       </c>
       <c r="U44" s="18" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="V44" s="53">
         <v>0</v>
       </c>
       <c r="W44" s="18" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="X44" s="18" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="Y44" s="18" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="Z44" s="18" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="AA44" s="18" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="AB44" s="53">
         <v>0</v>
@@ -25760,13 +26062,13 @@
         <v>0</v>
       </c>
       <c r="AD44" s="18" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="AE44" s="18" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="AF44" s="18" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="AG44" s="23" t="s">
         <v>181</v>
@@ -26736,7 +27038,7 @@
         <v>171</v>
       </c>
       <c r="AG45" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AH45" s="54">
         <v>0</v>
@@ -26745,40 +27047,40 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AK45" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AL45" s="54">
         <v>0</v>
       </c>
       <c r="AM45" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AN45" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AO45" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AP45" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AQ45" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AR45" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AS45" s="54">
         <v>0</v>
       </c>
       <c r="AT45" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AU45" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AV45" s="5"/>
       <c r="AW45" s="5"/>
@@ -27658,7 +27960,7 @@
         <v>181</v>
       </c>
       <c r="R46" s="18" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="S46" s="53">
         <v>0</v>
@@ -27667,43 +27969,43 @@
         <v>0</v>
       </c>
       <c r="U46" s="18" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="V46" s="18" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="W46" s="18" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="X46" s="53">
         <v>0</v>
       </c>
       <c r="Y46" s="18" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="Z46" s="18" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AA46" s="18" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AB46" s="18" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AC46" s="18" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AD46" s="18" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AE46" s="53">
         <v>0</v>
       </c>
       <c r="AF46" s="18" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AG46" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AH46" s="54">
         <v>0</v>
@@ -27712,40 +28014,40 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AK46" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AL46" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AM46" s="54">
         <v>0</v>
       </c>
       <c r="AN46" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AO46" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AP46" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AQ46" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AR46" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AS46" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AT46" s="54">
         <v>0</v>
       </c>
       <c r="AU46" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AV46" s="5"/>
       <c r="AW46" s="5"/>
@@ -32651,14 +32953,14 @@
       <c r="B56" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="33">
-        <v>90</v>
-      </c>
-      <c r="D56" s="33">
-        <v>90</v>
-      </c>
-      <c r="E56" s="33">
-        <v>90</v>
+      <c r="C56" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="E56" s="55" t="s">
+        <v>260</v>
       </c>
       <c r="F56" s="33">
         <v>90</v>
@@ -32675,8 +32977,8 @@
       <c r="J56" s="33">
         <v>90</v>
       </c>
-      <c r="K56" s="33">
-        <v>90</v>
+      <c r="K56" s="55" t="s">
+        <v>260</v>
       </c>
       <c r="L56" s="33">
         <v>90</v>
@@ -32702,8 +33004,8 @@
       <c r="S56" s="17">
         <v>100</v>
       </c>
-      <c r="T56" s="17">
-        <v>100</v>
+      <c r="T56" s="58" t="s">
+        <v>281</v>
       </c>
       <c r="U56" s="17">
         <v>100</v>
@@ -32720,8 +33022,8 @@
       <c r="Y56" s="17">
         <v>100</v>
       </c>
-      <c r="Z56" s="17">
-        <v>100</v>
+      <c r="Z56" s="58" t="s">
+        <v>281</v>
       </c>
       <c r="AA56" s="17">
         <v>100</v>
@@ -32747,8 +33049,8 @@
       <c r="AH56" s="21">
         <v>147</v>
       </c>
-      <c r="AI56" s="21">
-        <v>147</v>
+      <c r="AI56" s="59" t="s">
+        <v>289</v>
       </c>
       <c r="AJ56" s="21">
         <v>147</v>
@@ -32765,8 +33067,8 @@
       <c r="AN56" s="21">
         <v>147</v>
       </c>
-      <c r="AO56" s="21">
-        <v>147</v>
+      <c r="AO56" s="59" t="s">
+        <v>289</v>
       </c>
       <c r="AP56" s="21">
         <v>147</v>
@@ -33618,14 +33920,14 @@
       <c r="B57" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="33">
-        <v>90</v>
-      </c>
-      <c r="D57" s="33">
-        <v>90</v>
-      </c>
-      <c r="E57" s="33">
-        <v>90</v>
+      <c r="C57" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="D57" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="E57" s="56" t="s">
+        <v>261</v>
       </c>
       <c r="F57" s="33">
         <v>90</v>
@@ -33645,8 +33947,8 @@
       <c r="K57" s="33">
         <v>90</v>
       </c>
-      <c r="L57" s="33">
-        <v>90</v>
+      <c r="L57" s="56" t="s">
+        <v>261</v>
       </c>
       <c r="M57" s="33">
         <v>90</v>
@@ -33669,8 +33971,8 @@
       <c r="S57" s="17">
         <v>100</v>
       </c>
-      <c r="T57" s="17">
-        <v>100</v>
+      <c r="T57" s="58" t="s">
+        <v>282</v>
       </c>
       <c r="U57" s="17">
         <v>100</v>
@@ -33690,8 +33992,8 @@
       <c r="Z57" s="17">
         <v>100</v>
       </c>
-      <c r="AA57" s="17">
-        <v>100</v>
+      <c r="AA57" s="58" t="s">
+        <v>282</v>
       </c>
       <c r="AB57" s="17">
         <v>100</v>
@@ -33714,8 +34016,8 @@
       <c r="AH57" s="21">
         <v>147</v>
       </c>
-      <c r="AI57" s="21">
-        <v>147</v>
+      <c r="AI57" s="59" t="s">
+        <v>290</v>
       </c>
       <c r="AJ57" s="21">
         <v>147</v>
@@ -33735,8 +34037,8 @@
       <c r="AO57" s="21">
         <v>147</v>
       </c>
-      <c r="AP57" s="21">
-        <v>147</v>
+      <c r="AP57" s="59" t="s">
+        <v>290</v>
       </c>
       <c r="AQ57" s="21">
         <v>147</v>
@@ -34585,14 +34887,14 @@
       <c r="B58" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="33">
-        <v>170</v>
-      </c>
-      <c r="D58" s="33">
-        <v>170</v>
-      </c>
-      <c r="E58" s="33">
-        <v>170</v>
+      <c r="C58" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="D58" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="E58" s="56" t="s">
+        <v>262</v>
       </c>
       <c r="F58" s="33">
         <v>170</v>
@@ -34615,8 +34917,8 @@
       <c r="L58" s="33">
         <v>170</v>
       </c>
-      <c r="M58" s="33">
-        <v>170</v>
+      <c r="M58" s="56" t="s">
+        <v>262</v>
       </c>
       <c r="N58" s="33">
         <v>170</v>
@@ -34636,8 +34938,8 @@
       <c r="S58" s="17">
         <v>180</v>
       </c>
-      <c r="T58" s="17">
-        <v>180</v>
+      <c r="T58" s="58" t="s">
+        <v>283</v>
       </c>
       <c r="U58" s="17">
         <v>180</v>
@@ -34660,8 +34962,8 @@
       <c r="AA58" s="17">
         <v>180</v>
       </c>
-      <c r="AB58" s="17">
-        <v>180</v>
+      <c r="AB58" s="58" t="s">
+        <v>283</v>
       </c>
       <c r="AC58" s="17">
         <v>180</v>
@@ -34681,8 +34983,8 @@
       <c r="AH58" s="21">
         <v>375</v>
       </c>
-      <c r="AI58" s="21">
-        <v>375</v>
+      <c r="AI58" s="59" t="s">
+        <v>291</v>
       </c>
       <c r="AJ58" s="21">
         <v>375</v>
@@ -34705,8 +35007,8 @@
       <c r="AP58" s="21">
         <v>375</v>
       </c>
-      <c r="AQ58" s="21">
-        <v>375</v>
+      <c r="AQ58" s="59" t="s">
+        <v>291</v>
       </c>
       <c r="AR58" s="21">
         <v>375</v>
@@ -35552,14 +35854,14 @@
       <c r="B59" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="33">
-        <v>170</v>
-      </c>
-      <c r="D59" s="33">
-        <v>170</v>
-      </c>
-      <c r="E59" s="33">
-        <v>170</v>
+      <c r="C59" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="D59" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="E59" s="56" t="s">
+        <v>263</v>
       </c>
       <c r="F59" s="33">
         <v>170</v>
@@ -35585,8 +35887,8 @@
       <c r="M59" s="33">
         <v>170</v>
       </c>
-      <c r="N59" s="33">
-        <v>170</v>
+      <c r="N59" s="56" t="s">
+        <v>263</v>
       </c>
       <c r="O59" s="33">
         <v>170</v>
@@ -35603,8 +35905,8 @@
       <c r="S59" s="17">
         <v>180</v>
       </c>
-      <c r="T59" s="17">
-        <v>180</v>
+      <c r="T59" s="58" t="s">
+        <v>284</v>
       </c>
       <c r="U59" s="17">
         <v>180</v>
@@ -35630,8 +35932,8 @@
       <c r="AB59" s="17">
         <v>180</v>
       </c>
-      <c r="AC59" s="17">
-        <v>180</v>
+      <c r="AC59" s="58" t="s">
+        <v>284</v>
       </c>
       <c r="AD59" s="17">
         <v>180</v>
@@ -35648,8 +35950,8 @@
       <c r="AH59" s="21">
         <v>375</v>
       </c>
-      <c r="AI59" s="21">
-        <v>375</v>
+      <c r="AI59" s="59" t="s">
+        <v>292</v>
       </c>
       <c r="AJ59" s="21">
         <v>375</v>
@@ -35675,8 +35977,8 @@
       <c r="AQ59" s="21">
         <v>375</v>
       </c>
-      <c r="AR59" s="21">
-        <v>375</v>
+      <c r="AR59" s="59" t="s">
+        <v>292</v>
       </c>
       <c r="AS59" s="21">
         <v>375</v>
@@ -36519,14 +36821,14 @@
       <c r="B60" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="33">
-        <v>255</v>
-      </c>
-      <c r="D60" s="33">
-        <v>255</v>
-      </c>
-      <c r="E60" s="33">
-        <v>255</v>
+      <c r="C60" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="E60" s="56" t="s">
+        <v>264</v>
       </c>
       <c r="F60" s="33">
         <v>255</v>
@@ -36555,8 +36857,8 @@
       <c r="N60" s="33">
         <v>255</v>
       </c>
-      <c r="O60" s="33">
-        <v>255</v>
+      <c r="O60" s="56" t="s">
+        <v>264</v>
       </c>
       <c r="P60" s="33">
         <v>255</v>
@@ -36570,8 +36872,8 @@
       <c r="S60" s="17">
         <v>240</v>
       </c>
-      <c r="T60" s="17">
-        <v>240</v>
+      <c r="T60" s="58" t="s">
+        <v>285</v>
       </c>
       <c r="U60" s="17">
         <v>240</v>
@@ -36600,8 +36902,8 @@
       <c r="AC60" s="17">
         <v>240</v>
       </c>
-      <c r="AD60" s="17">
-        <v>240</v>
+      <c r="AD60" s="58" t="s">
+        <v>285</v>
       </c>
       <c r="AE60" s="17">
         <v>240</v>
@@ -36615,8 +36917,8 @@
       <c r="AH60" s="21">
         <v>550</v>
       </c>
-      <c r="AI60" s="21">
-        <v>550</v>
+      <c r="AI60" s="59" t="s">
+        <v>293</v>
       </c>
       <c r="AJ60" s="21">
         <v>550</v>
@@ -36645,8 +36947,8 @@
       <c r="AR60" s="21">
         <v>550</v>
       </c>
-      <c r="AS60" s="21">
-        <v>550</v>
+      <c r="AS60" s="59" t="s">
+        <v>293</v>
       </c>
       <c r="AT60" s="21">
         <v>550</v>
@@ -37486,14 +37788,14 @@
       <c r="B61" t="s">
         <v>29</v>
       </c>
-      <c r="C61" s="33">
-        <v>255</v>
-      </c>
-      <c r="D61" s="33">
-        <v>255</v>
-      </c>
-      <c r="E61" s="33">
-        <v>255</v>
+      <c r="C61" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D61" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="E61" s="56" t="s">
+        <v>265</v>
       </c>
       <c r="F61" s="33">
         <v>255</v>
@@ -37525,8 +37827,8 @@
       <c r="O61" s="33">
         <v>255</v>
       </c>
-      <c r="P61" s="33">
-        <v>255</v>
+      <c r="P61" s="56" t="s">
+        <v>265</v>
       </c>
       <c r="Q61" s="33">
         <v>255</v>
@@ -37537,8 +37839,8 @@
       <c r="S61" s="17">
         <v>240</v>
       </c>
-      <c r="T61" s="17">
-        <v>240</v>
+      <c r="T61" s="58" t="s">
+        <v>286</v>
       </c>
       <c r="U61" s="17">
         <v>240</v>
@@ -37570,8 +37872,8 @@
       <c r="AD61" s="17">
         <v>240</v>
       </c>
-      <c r="AE61" s="17">
-        <v>240</v>
+      <c r="AE61" s="58" t="s">
+        <v>286</v>
       </c>
       <c r="AF61" s="17">
         <v>240</v>
@@ -37582,8 +37884,8 @@
       <c r="AH61" s="21">
         <v>550</v>
       </c>
-      <c r="AI61" s="21">
-        <v>550</v>
+      <c r="AI61" s="59" t="s">
+        <v>294</v>
       </c>
       <c r="AJ61" s="21">
         <v>550</v>
@@ -37615,8 +37917,8 @@
       <c r="AS61" s="21">
         <v>550</v>
       </c>
-      <c r="AT61" s="21">
-        <v>550</v>
+      <c r="AT61" s="59" t="s">
+        <v>294</v>
       </c>
       <c r="AU61" s="21">
         <v>550</v>
@@ -38450,14 +38752,14 @@
       <c r="A62" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C62" s="33">
-        <v>255</v>
-      </c>
-      <c r="D62" s="33">
-        <v>255</v>
-      </c>
-      <c r="E62" s="33">
-        <v>255</v>
+      <c r="C62" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D62" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="E62" s="56" t="s">
+        <v>265</v>
       </c>
       <c r="F62" s="33">
         <v>255</v>
@@ -38492,8 +38794,8 @@
       <c r="P62" s="33">
         <v>255</v>
       </c>
-      <c r="Q62" s="33">
-        <v>255</v>
+      <c r="Q62" s="56" t="s">
+        <v>265</v>
       </c>
       <c r="R62" s="17">
         <v>0</v>
@@ -38501,7 +38803,7 @@
       <c r="S62" s="17">
         <v>0</v>
       </c>
-      <c r="T62" s="17">
+      <c r="T62" s="48">
         <v>0</v>
       </c>
       <c r="U62" s="17">
@@ -38546,7 +38848,7 @@
       <c r="AH62" s="21">
         <v>0</v>
       </c>
-      <c r="AI62" s="21">
+      <c r="AI62" s="50">
         <v>0</v>
       </c>
       <c r="AJ62" s="21">
@@ -40449,8 +40751,8 @@
       <c r="D69" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E69" s="40" t="s">
-        <v>203</v>
+      <c r="E69" s="55" t="s">
+        <v>277</v>
       </c>
       <c r="F69" s="33" t="s">
         <v>182</v>
@@ -40467,8 +40769,8 @@
       <c r="J69" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="K69" s="40" t="s">
-        <v>203</v>
+      <c r="K69" s="55" t="s">
+        <v>277</v>
       </c>
       <c r="L69" s="33" t="s">
         <v>182</v>
@@ -40489,49 +40791,49 @@
         <v>182</v>
       </c>
       <c r="R69" s="17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="S69" s="17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="T69" s="48" t="s">
-        <v>210</v>
+        <v>277</v>
       </c>
       <c r="U69" s="17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="V69" s="17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W69" s="17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="X69" s="17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Y69" s="17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Z69" s="48" t="s">
-        <v>210</v>
+        <v>277</v>
       </c>
       <c r="AA69" s="17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AB69" s="17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AC69" s="17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AD69" s="17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AE69" s="17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AF69" s="17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AG69" s="21" t="s">
         <v>188</v>
@@ -40540,7 +40842,7 @@
         <v>188</v>
       </c>
       <c r="AI69" s="50" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="AJ69" s="21" t="s">
         <v>188</v>
@@ -40558,7 +40860,7 @@
         <v>188</v>
       </c>
       <c r="AO69" s="50" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="AP69" s="21" t="s">
         <v>188</v>
@@ -41416,8 +41718,8 @@
       <c r="D70" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="E70" s="40" t="s">
-        <v>204</v>
+      <c r="E70" s="55" t="s">
+        <v>278</v>
       </c>
       <c r="F70" s="33" t="s">
         <v>183</v>
@@ -41440,8 +41742,8 @@
       <c r="L70" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="M70" s="40" t="s">
-        <v>204</v>
+      <c r="M70" s="55" t="s">
+        <v>278</v>
       </c>
       <c r="N70" s="33" t="s">
         <v>183</v>
@@ -41456,49 +41758,49 @@
         <v>183</v>
       </c>
       <c r="R70" s="17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="S70" s="17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="T70" s="48" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="U70" s="17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="V70" s="17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W70" s="17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="X70" s="17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Y70" s="17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Z70" s="17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AA70" s="17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AB70" s="48" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="AC70" s="17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AD70" s="17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AE70" s="17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AF70" s="17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AG70" s="21" t="s">
         <v>189</v>
@@ -41507,7 +41809,7 @@
         <v>189</v>
       </c>
       <c r="AI70" s="50" t="s">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="AJ70" s="21" t="s">
         <v>189</v>
@@ -41531,7 +41833,7 @@
         <v>189</v>
       </c>
       <c r="AQ70" s="50" t="s">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="AR70" s="21" t="s">
         <v>189</v>
@@ -42383,8 +42685,8 @@
       <c r="D71" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="E71" s="40" t="s">
-        <v>205</v>
+      <c r="E71" s="55" t="s">
+        <v>272</v>
       </c>
       <c r="F71" s="33" t="s">
         <v>184</v>
@@ -42413,8 +42715,8 @@
       <c r="N71" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="O71" s="40" t="s">
-        <v>205</v>
+      <c r="O71" s="55" t="s">
+        <v>272</v>
       </c>
       <c r="P71" s="33" t="s">
         <v>184</v>
@@ -42423,49 +42725,49 @@
         <v>184</v>
       </c>
       <c r="R71" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="S71" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="T71" s="48" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="U71" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="V71" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W71" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="X71" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Y71" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Z71" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AA71" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AB71" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AC71" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AD71" s="48" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="AE71" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AF71" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AG71" s="21" t="s">
         <v>190</v>
@@ -42474,7 +42776,7 @@
         <v>190</v>
       </c>
       <c r="AI71" s="50" t="s">
-        <v>212</v>
+        <v>297</v>
       </c>
       <c r="AJ71" s="21" t="s">
         <v>190</v>
@@ -42504,7 +42806,7 @@
         <v>190</v>
       </c>
       <c r="AS71" s="50" t="s">
-        <v>212</v>
+        <v>297</v>
       </c>
       <c r="AT71" s="21" t="s">
         <v>190</v>
@@ -43350,8 +43652,8 @@
       <c r="D72" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="E72" s="40" t="s">
-        <v>206</v>
+      <c r="E72" s="55" t="s">
+        <v>273</v>
       </c>
       <c r="F72" s="33" t="s">
         <v>185</v>
@@ -43371,8 +43673,8 @@
       <c r="K72" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="L72" s="40" t="s">
-        <v>206</v>
+      <c r="L72" s="55" t="s">
+        <v>273</v>
       </c>
       <c r="M72" s="33" t="s">
         <v>185</v>
@@ -43390,49 +43692,49 @@
         <v>185</v>
       </c>
       <c r="R72" s="17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="S72" s="17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="T72" s="48" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="U72" s="17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="V72" s="17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W72" s="17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="X72" s="17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Y72" s="17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Z72" s="17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AA72" s="48" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="AB72" s="17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AC72" s="17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AD72" s="17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AE72" s="17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AF72" s="17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AG72" s="21" t="s">
         <v>191</v>
@@ -43441,7 +43743,7 @@
         <v>191</v>
       </c>
       <c r="AI72" s="50" t="s">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="AJ72" s="21" t="s">
         <v>191</v>
@@ -43462,7 +43764,7 @@
         <v>191</v>
       </c>
       <c r="AP72" s="50" t="s">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="AQ72" s="21" t="s">
         <v>191</v>
@@ -44317,8 +44619,8 @@
       <c r="D73" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="E73" s="40" t="s">
-        <v>207</v>
+      <c r="E73" s="55" t="s">
+        <v>279</v>
       </c>
       <c r="F73" s="33" t="s">
         <v>186</v>
@@ -44344,8 +44646,8 @@
       <c r="M73" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="N73" s="40" t="s">
-        <v>207</v>
+      <c r="N73" s="55" t="s">
+        <v>279</v>
       </c>
       <c r="O73" s="33" t="s">
         <v>186</v>
@@ -44357,49 +44659,49 @@
         <v>186</v>
       </c>
       <c r="R73" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="S73" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="T73" s="48" t="s">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="U73" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="V73" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="W73" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="X73" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Y73" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Z73" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AA73" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AB73" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AC73" s="48" t="s">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="AD73" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AE73" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AF73" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AG73" s="21" t="s">
         <v>192</v>
@@ -44408,7 +44710,7 @@
         <v>192</v>
       </c>
       <c r="AI73" s="50" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="AJ73" s="21" t="s">
         <v>192</v>
@@ -44435,7 +44737,7 @@
         <v>192</v>
       </c>
       <c r="AR73" s="50" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="AS73" s="21" t="s">
         <v>192</v>
@@ -45284,8 +45586,8 @@
       <c r="D74" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E74" s="40" t="s">
-        <v>208</v>
+      <c r="E74" s="55" t="s">
+        <v>280</v>
       </c>
       <c r="F74" s="33" t="s">
         <v>187</v>
@@ -45317,56 +45619,56 @@
       <c r="O74" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="P74" s="40" t="s">
-        <v>208</v>
+      <c r="P74" s="55" t="s">
+        <v>280</v>
       </c>
       <c r="Q74" s="33" t="s">
         <v>187</v>
       </c>
       <c r="R74" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="S74" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="T74" s="48" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="U74" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="V74" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="W74" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="X74" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Y74" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Z74" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AA74" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AB74" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AC74" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AD74" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AE74" s="48" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="AF74" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AG74" s="21" t="s">
         <v>193</v>
@@ -45375,7 +45677,7 @@
         <v>193</v>
       </c>
       <c r="AI74" s="50" t="s">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="AJ74" s="21" t="s">
         <v>193</v>
@@ -45408,7 +45710,7 @@
         <v>193</v>
       </c>
       <c r="AT74" s="50" t="s">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="AU74" s="21" t="s">
         <v>193</v>
@@ -46248,8 +46550,8 @@
       <c r="D75" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E75" s="40" t="s">
-        <v>208</v>
+      <c r="E75" s="55" t="s">
+        <v>280</v>
       </c>
       <c r="F75" s="33" t="s">
         <v>187</v>
@@ -46284,8 +46586,8 @@
       <c r="P75" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="Q75" s="40" t="s">
-        <v>208</v>
+      <c r="Q75" s="55" t="s">
+        <v>280</v>
       </c>
       <c r="R75" s="17">
         <v>0</v>
@@ -46329,7 +46631,7 @@
       <c r="AE75" s="17">
         <v>0</v>
       </c>
-      <c r="AF75" s="48">
+      <c r="AF75" s="17">
         <v>0</v>
       </c>
       <c r="AG75" s="21">

--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters CATTLE.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters CATTLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CCED44-FA81-7043-BB49-1D8188E8577C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEA1633-79A6-3D44-A8A6-7D8A93E1F853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="28100" windowHeight="16140" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="299">
   <si>
     <t># Initial population</t>
   </si>
@@ -899,9 +899,6 @@
     <t>rpert(10000, 200, 380, 290)</t>
   </si>
   <si>
-    <t>rpert(10000, 8.3, 11.7, 18)</t>
-  </si>
-  <si>
     <t>cattle_trial_CLM_ideal</t>
   </si>
   <si>
@@ -912,12 +909,6 @@
   </si>
   <si>
     <t>cattle_trial_periurban_dairy_ideal</t>
-  </si>
-  <si>
-    <t>rpert(10000, 10, 15, 20)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 250, 380, 290)</t>
   </si>
   <si>
     <t>cattle_trial_CLM_all_mortality_zero</t>
@@ -1073,9 +1064,6 @@
     <t>0.03/12</t>
   </si>
   <si>
-    <t>rpert(75, 540, 330)</t>
-  </si>
-  <si>
     <t>rpert(10000, 0.63, 0.75, 0.69)</t>
   </si>
   <si>
@@ -1206,6 +1194,12 @@
   </si>
   <si>
     <t>rpert(10000, (38324+(0*38324)), (38324+(0*38324)), (38324+(0*38324)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, 75, 540, 330)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 8.3, 18, 11.7)</t>
   </si>
 </sst>
 </file>
@@ -1792,9 +1786,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
   <dimension ref="A1:AGM159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AV23" sqref="AV23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1863,46 +1857,46 @@
         <v>154</v>
       </c>
       <c r="D1" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="N1" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="P1" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="Q1" s="31" t="s">
         <v>214</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>217</v>
       </c>
       <c r="R1" s="38" t="s">
         <v>155</v>
@@ -1911,43 +1905,43 @@
         <v>156</v>
       </c>
       <c r="T1" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U1" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="V1" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="W1" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="X1" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="Y1" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="Z1" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="AA1" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="AB1" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="AC1" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AD1" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AE1" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AF1" s="38" t="s">
         <v>226</v>
-      </c>
-      <c r="AD1" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE1" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF1" s="38" t="s">
-        <v>229</v>
       </c>
       <c r="AG1" s="2" t="s">
         <v>195</v>
@@ -1956,43 +1950,43 @@
         <v>196</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="AV1" s="4"/>
       <c r="AW1" s="4"/>
@@ -2017,7 +2011,7 @@
     </row>
     <row r="2" spans="1:871" s="42" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="43"/>
@@ -9372,7 +9366,7 @@
         <v>162</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F17" s="33" t="s">
         <v>162</v>
@@ -9402,7 +9396,7 @@
         <v>162</v>
       </c>
       <c r="O17" s="55" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P17" s="33" t="s">
         <v>162</v>
@@ -10336,7 +10330,7 @@
         <v>151</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F18" s="33" t="s">
         <v>151</v>
@@ -10366,7 +10360,7 @@
         <v>151</v>
       </c>
       <c r="O18" s="55" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="P18" s="33" t="s">
         <v>151</v>
@@ -10381,7 +10375,7 @@
         <v>151</v>
       </c>
       <c r="T18" s="48" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="U18" s="17" t="s">
         <v>151</v>
@@ -10411,7 +10405,7 @@
         <v>151</v>
       </c>
       <c r="AD18" s="48" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AE18" s="17" t="s">
         <v>151</v>
@@ -10426,7 +10420,7 @@
         <v>151</v>
       </c>
       <c r="AI18" s="50" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AJ18" s="21" t="s">
         <v>151</v>
@@ -10455,8 +10449,8 @@
       <c r="AR18" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="AS18" s="21" t="s">
-        <v>151</v>
+      <c r="AS18" s="50" t="s">
+        <v>270</v>
       </c>
       <c r="AT18" s="21" t="s">
         <v>151</v>
@@ -12293,7 +12287,7 @@
         <v>210</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="F22" s="33">
         <v>210</v>
@@ -12323,7 +12317,7 @@
         <v>210</v>
       </c>
       <c r="O22" s="55" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="P22" s="33">
         <v>210</v>
@@ -12338,7 +12332,7 @@
         <v>210</v>
       </c>
       <c r="T22" s="48" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="U22" s="17">
         <v>210</v>
@@ -12368,7 +12362,7 @@
         <v>210</v>
       </c>
       <c r="AD22" s="48" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AE22" s="17">
         <v>210</v>
@@ -12383,7 +12377,7 @@
         <v>197</v>
       </c>
       <c r="AI22" s="50" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AJ22" s="21" t="s">
         <v>197</v>
@@ -12413,7 +12407,7 @@
         <v>197</v>
       </c>
       <c r="AS22" s="50" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="AT22" s="21" t="s">
         <v>197</v>
@@ -13257,7 +13251,7 @@
         <v>174</v>
       </c>
       <c r="E23" s="55" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>174</v>
@@ -13287,7 +13281,7 @@
         <v>174</v>
       </c>
       <c r="O23" s="55" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P23" s="33" t="s">
         <v>174</v>
@@ -13302,7 +13296,7 @@
         <v>1.79</v>
       </c>
       <c r="T23" s="48" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="U23" s="17">
         <v>1.79</v>
@@ -13332,7 +13326,7 @@
         <v>1.79</v>
       </c>
       <c r="AD23" s="48" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AE23" s="17">
         <v>1.79</v>
@@ -13341,49 +13335,49 @@
         <v>1.79</v>
       </c>
       <c r="AG23" s="21" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="AH23" s="21" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="AI23" s="50" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AJ23" s="21" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="AK23" s="21" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="AL23" s="21" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="AM23" s="21" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="AN23" s="21" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="AO23" s="21" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="AP23" s="21" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="AQ23" s="21" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="AR23" s="21" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="AS23" s="50" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="AT23" s="21" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="AU23" s="21" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="AV23" s="5"/>
       <c r="AW23" s="5"/>
@@ -18279,49 +18273,49 @@
         <v>0</v>
       </c>
       <c r="AG34" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AH34" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AI34" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AJ34" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AK34" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AL34" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AM34" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AN34" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AO34" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AP34" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AQ34" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AR34" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AS34" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AT34" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AU34" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AV34" s="5"/>
       <c r="AW34" s="5"/>
@@ -19243,49 +19237,49 @@
         <v>0</v>
       </c>
       <c r="AG35" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AH35" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AI35" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AJ35" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AK35" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AL35" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AM35" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AN35" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AO35" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AP35" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AQ35" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AR35" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AS35" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AT35" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AU35" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AV35" s="5"/>
       <c r="AW35" s="5"/>
@@ -20162,94 +20156,94 @@
         <v>169</v>
       </c>
       <c r="R36" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="S36" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T36" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="U36" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="V36" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="W36" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="X36" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Y36" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Z36" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AA36" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AB36" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AC36" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AD36" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AE36" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AF36" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AG36" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH36" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AI36" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AJ36" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AK36" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AL36" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AM36" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AN36" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AO36" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AP36" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AQ36" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AR36" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AS36" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AT36" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AU36" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AV36" s="5"/>
       <c r="AW36" s="5"/>
@@ -21126,49 +21120,49 @@
         <v>0</v>
       </c>
       <c r="R37" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="S37" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="U37" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="V37" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="W37" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="X37" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Y37" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Z37" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AA37" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AB37" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AC37" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AD37" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AE37" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AF37" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AG37" s="21">
         <v>0</v>
@@ -22093,94 +22087,94 @@
         <v>170</v>
       </c>
       <c r="R38" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="S38" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="T38" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="U38" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="V38" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="W38" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="X38" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Y38" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Z38" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AA38" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AB38" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AC38" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AD38" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AE38" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AF38" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AG38" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AH38" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AI38" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AJ38" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AK38" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AL38" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AM38" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AN38" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AO38" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AP38" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AQ38" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AR38" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AS38" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AT38" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AU38" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AV38" s="5"/>
       <c r="AW38" s="5"/>
@@ -23060,94 +23054,94 @@
         <v>171</v>
       </c>
       <c r="R39" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="S39" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="T39" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="U39" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="V39" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="W39" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="X39" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Y39" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Z39" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AA39" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AB39" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AC39" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AD39" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AE39" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AF39" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AG39" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AH39" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AI39" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AJ39" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AK39" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AL39" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AM39" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AN39" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AO39" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AP39" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AQ39" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AR39" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AS39" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AT39" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AU39" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AV39" s="5"/>
       <c r="AW39" s="5"/>
@@ -24069,49 +24063,49 @@
         <v>0</v>
       </c>
       <c r="AG40" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AH40" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AI40" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AJ40" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AK40" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AL40" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AM40" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AN40" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AO40" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AP40" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AQ40" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AR40" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AS40" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AT40" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AU40" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AV40" s="5"/>
       <c r="AW40" s="5"/>
@@ -25059,7 +25053,7 @@
         <v>173</v>
       </c>
       <c r="R43" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="S43" s="53">
         <v>0</v>
@@ -25071,16 +25065,16 @@
         <v>0</v>
       </c>
       <c r="V43" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="W43" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="X43" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Y43" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Z43" s="53">
         <v>0</v>
@@ -25089,22 +25083,22 @@
         <v>0</v>
       </c>
       <c r="AB43" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AC43" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AD43" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AE43" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AF43" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AG43" s="23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AH43" s="54">
         <v>0</v>
@@ -25116,16 +25110,16 @@
         <v>0</v>
       </c>
       <c r="AK43" s="23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AL43" s="23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AM43" s="23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AN43" s="23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AO43" s="54">
         <v>0</v>
@@ -25134,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AR43" s="23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AS43" s="23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AT43" s="23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AU43" s="23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AV43" s="5"/>
       <c r="AW43" s="5"/>
@@ -26026,7 +26020,7 @@
         <v>172</v>
       </c>
       <c r="R44" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="S44" s="53">
         <v>0</v>
@@ -26035,25 +26029,25 @@
         <v>0</v>
       </c>
       <c r="U44" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="V44" s="53">
         <v>0</v>
       </c>
       <c r="W44" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="X44" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Y44" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z44" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AA44" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AB44" s="53">
         <v>0</v>
@@ -26062,13 +26056,13 @@
         <v>0</v>
       </c>
       <c r="AD44" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AE44" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AF44" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AG44" s="23" t="s">
         <v>181</v>
@@ -27038,7 +27032,7 @@
         <v>171</v>
       </c>
       <c r="AG45" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AH45" s="54">
         <v>0</v>
@@ -27047,40 +27041,40 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AK45" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AL45" s="54">
         <v>0</v>
       </c>
       <c r="AM45" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AN45" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AO45" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AP45" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AQ45" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AR45" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AS45" s="54">
         <v>0</v>
       </c>
       <c r="AT45" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AU45" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AV45" s="5"/>
       <c r="AW45" s="5"/>
@@ -27960,7 +27954,7 @@
         <v>181</v>
       </c>
       <c r="R46" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="S46" s="53">
         <v>0</v>
@@ -27969,43 +27963,43 @@
         <v>0</v>
       </c>
       <c r="U46" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="V46" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="W46" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="X46" s="53">
         <v>0</v>
       </c>
       <c r="Y46" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Z46" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AA46" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AB46" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AC46" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AD46" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AE46" s="53">
         <v>0</v>
       </c>
       <c r="AF46" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AG46" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AH46" s="54">
         <v>0</v>
@@ -28014,40 +28008,40 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AK46" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AL46" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AM46" s="54">
         <v>0</v>
       </c>
       <c r="AN46" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AO46" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AP46" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AQ46" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AR46" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AS46" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AT46" s="54">
         <v>0</v>
       </c>
       <c r="AU46" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AV46" s="5"/>
       <c r="AW46" s="5"/>
@@ -32954,13 +32948,13 @@
         <v>25</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E56" s="55" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F56" s="33">
         <v>90</v>
@@ -32978,7 +32972,7 @@
         <v>90</v>
       </c>
       <c r="K56" s="55" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L56" s="33">
         <v>90</v>
@@ -33005,7 +32999,7 @@
         <v>100</v>
       </c>
       <c r="T56" s="58" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="U56" s="17">
         <v>100</v>
@@ -33023,7 +33017,7 @@
         <v>100</v>
       </c>
       <c r="Z56" s="58" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AA56" s="17">
         <v>100</v>
@@ -33050,7 +33044,7 @@
         <v>147</v>
       </c>
       <c r="AI56" s="59" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AJ56" s="21">
         <v>147</v>
@@ -33068,7 +33062,7 @@
         <v>147</v>
       </c>
       <c r="AO56" s="59" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AP56" s="21">
         <v>147</v>
@@ -33921,13 +33915,13 @@
         <v>26</v>
       </c>
       <c r="C57" s="57" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D57" s="57" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E57" s="56" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F57" s="33">
         <v>90</v>
@@ -33948,7 +33942,7 @@
         <v>90</v>
       </c>
       <c r="L57" s="56" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M57" s="33">
         <v>90</v>
@@ -33972,7 +33966,7 @@
         <v>100</v>
       </c>
       <c r="T57" s="58" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="U57" s="17">
         <v>100</v>
@@ -33993,7 +33987,7 @@
         <v>100</v>
       </c>
       <c r="AA57" s="58" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AB57" s="17">
         <v>100</v>
@@ -34017,7 +34011,7 @@
         <v>147</v>
       </c>
       <c r="AI57" s="59" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AJ57" s="21">
         <v>147</v>
@@ -34038,7 +34032,7 @@
         <v>147</v>
       </c>
       <c r="AP57" s="59" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AQ57" s="21">
         <v>147</v>
@@ -34888,13 +34882,13 @@
         <v>27</v>
       </c>
       <c r="C58" s="57" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D58" s="57" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E58" s="56" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F58" s="33">
         <v>170</v>
@@ -34918,7 +34912,7 @@
         <v>170</v>
       </c>
       <c r="M58" s="56" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N58" s="33">
         <v>170</v>
@@ -34939,7 +34933,7 @@
         <v>180</v>
       </c>
       <c r="T58" s="58" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="U58" s="17">
         <v>180</v>
@@ -34963,7 +34957,7 @@
         <v>180</v>
       </c>
       <c r="AB58" s="58" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AC58" s="17">
         <v>180</v>
@@ -34984,7 +34978,7 @@
         <v>375</v>
       </c>
       <c r="AI58" s="59" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AJ58" s="21">
         <v>375</v>
@@ -35008,7 +35002,7 @@
         <v>375</v>
       </c>
       <c r="AQ58" s="59" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AR58" s="21">
         <v>375</v>
@@ -35855,13 +35849,13 @@
         <v>28</v>
       </c>
       <c r="C59" s="57" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D59" s="57" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E59" s="56" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F59" s="33">
         <v>170</v>
@@ -35888,7 +35882,7 @@
         <v>170</v>
       </c>
       <c r="N59" s="56" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O59" s="33">
         <v>170</v>
@@ -35906,7 +35900,7 @@
         <v>180</v>
       </c>
       <c r="T59" s="58" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="U59" s="17">
         <v>180</v>
@@ -35933,7 +35927,7 @@
         <v>180</v>
       </c>
       <c r="AC59" s="58" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AD59" s="17">
         <v>180</v>
@@ -35951,7 +35945,7 @@
         <v>375</v>
       </c>
       <c r="AI59" s="59" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AJ59" s="21">
         <v>375</v>
@@ -35978,7 +35972,7 @@
         <v>375</v>
       </c>
       <c r="AR59" s="59" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AS59" s="21">
         <v>375</v>
@@ -36822,13 +36816,13 @@
         <v>29</v>
       </c>
       <c r="C60" s="57" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D60" s="57" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E60" s="56" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F60" s="33">
         <v>255</v>
@@ -36858,7 +36852,7 @@
         <v>255</v>
       </c>
       <c r="O60" s="56" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P60" s="33">
         <v>255</v>
@@ -36873,7 +36867,7 @@
         <v>240</v>
       </c>
       <c r="T60" s="58" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="U60" s="17">
         <v>240</v>
@@ -36903,7 +36897,7 @@
         <v>240</v>
       </c>
       <c r="AD60" s="58" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AE60" s="17">
         <v>240</v>
@@ -36918,7 +36912,7 @@
         <v>550</v>
       </c>
       <c r="AI60" s="59" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AJ60" s="21">
         <v>550</v>
@@ -36948,7 +36942,7 @@
         <v>550</v>
       </c>
       <c r="AS60" s="59" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AT60" s="21">
         <v>550</v>
@@ -37789,13 +37783,13 @@
         <v>29</v>
       </c>
       <c r="C61" s="57" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D61" s="57" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E61" s="56" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F61" s="33">
         <v>255</v>
@@ -37828,7 +37822,7 @@
         <v>255</v>
       </c>
       <c r="P61" s="56" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q61" s="33">
         <v>255</v>
@@ -37840,7 +37834,7 @@
         <v>240</v>
       </c>
       <c r="T61" s="58" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="U61" s="17">
         <v>240</v>
@@ -37873,7 +37867,7 @@
         <v>240</v>
       </c>
       <c r="AE61" s="58" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AF61" s="17">
         <v>240</v>
@@ -37885,7 +37879,7 @@
         <v>550</v>
       </c>
       <c r="AI61" s="59" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AJ61" s="21">
         <v>550</v>
@@ -37918,7 +37912,7 @@
         <v>550</v>
       </c>
       <c r="AT61" s="59" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AU61" s="21">
         <v>550</v>
@@ -38753,13 +38747,13 @@
         <v>145</v>
       </c>
       <c r="C62" s="57" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D62" s="57" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E62" s="56" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F62" s="33">
         <v>255</v>
@@ -38795,7 +38789,7 @@
         <v>255</v>
       </c>
       <c r="Q62" s="56" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="R62" s="17">
         <v>0</v>
@@ -40752,7 +40746,7 @@
         <v>182</v>
       </c>
       <c r="E69" s="55" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F69" s="33" t="s">
         <v>182</v>
@@ -40770,7 +40764,7 @@
         <v>182</v>
       </c>
       <c r="K69" s="55" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L69" s="33" t="s">
         <v>182</v>
@@ -40797,7 +40791,7 @@
         <v>182</v>
       </c>
       <c r="T69" s="48" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="U69" s="17" t="s">
         <v>182</v>
@@ -40815,7 +40809,7 @@
         <v>182</v>
       </c>
       <c r="Z69" s="48" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AA69" s="17" t="s">
         <v>182</v>
@@ -40842,7 +40836,7 @@
         <v>188</v>
       </c>
       <c r="AI69" s="50" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AJ69" s="21" t="s">
         <v>188</v>
@@ -40860,7 +40854,7 @@
         <v>188</v>
       </c>
       <c r="AO69" s="50" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AP69" s="21" t="s">
         <v>188</v>
@@ -41719,7 +41713,7 @@
         <v>183</v>
       </c>
       <c r="E70" s="55" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F70" s="33" t="s">
         <v>183</v>
@@ -41743,7 +41737,7 @@
         <v>183</v>
       </c>
       <c r="M70" s="55" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N70" s="33" t="s">
         <v>183</v>
@@ -41764,7 +41758,7 @@
         <v>183</v>
       </c>
       <c r="T70" s="48" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="U70" s="17" t="s">
         <v>183</v>
@@ -41788,7 +41782,7 @@
         <v>183</v>
       </c>
       <c r="AB70" s="48" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AC70" s="17" t="s">
         <v>183</v>
@@ -41809,7 +41803,7 @@
         <v>189</v>
       </c>
       <c r="AI70" s="50" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AJ70" s="21" t="s">
         <v>189</v>
@@ -41833,7 +41827,7 @@
         <v>189</v>
       </c>
       <c r="AQ70" s="50" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AR70" s="21" t="s">
         <v>189</v>
@@ -42686,7 +42680,7 @@
         <v>184</v>
       </c>
       <c r="E71" s="55" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F71" s="33" t="s">
         <v>184</v>
@@ -42716,7 +42710,7 @@
         <v>184</v>
       </c>
       <c r="O71" s="55" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P71" s="33" t="s">
         <v>184</v>
@@ -42731,7 +42725,7 @@
         <v>184</v>
       </c>
       <c r="T71" s="48" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="U71" s="17" t="s">
         <v>184</v>
@@ -42761,7 +42755,7 @@
         <v>184</v>
       </c>
       <c r="AD71" s="48" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AE71" s="17" t="s">
         <v>184</v>
@@ -42776,7 +42770,7 @@
         <v>190</v>
       </c>
       <c r="AI71" s="50" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AJ71" s="21" t="s">
         <v>190</v>
@@ -42806,7 +42800,7 @@
         <v>190</v>
       </c>
       <c r="AS71" s="50" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AT71" s="21" t="s">
         <v>190</v>
@@ -43653,7 +43647,7 @@
         <v>185</v>
       </c>
       <c r="E72" s="55" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F72" s="33" t="s">
         <v>185</v>
@@ -43674,7 +43668,7 @@
         <v>185</v>
       </c>
       <c r="L72" s="55" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M72" s="33" t="s">
         <v>185</v>
@@ -43698,7 +43692,7 @@
         <v>185</v>
       </c>
       <c r="T72" s="48" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="U72" s="17" t="s">
         <v>185</v>
@@ -43719,7 +43713,7 @@
         <v>185</v>
       </c>
       <c r="AA72" s="48" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AB72" s="17" t="s">
         <v>185</v>
@@ -43743,7 +43737,7 @@
         <v>191</v>
       </c>
       <c r="AI72" s="50" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AJ72" s="21" t="s">
         <v>191</v>
@@ -43764,7 +43758,7 @@
         <v>191</v>
       </c>
       <c r="AP72" s="50" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AQ72" s="21" t="s">
         <v>191</v>
@@ -44620,7 +44614,7 @@
         <v>186</v>
       </c>
       <c r="E73" s="55" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F73" s="33" t="s">
         <v>186</v>
@@ -44647,7 +44641,7 @@
         <v>186</v>
       </c>
       <c r="N73" s="55" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O73" s="33" t="s">
         <v>186</v>
@@ -44665,7 +44659,7 @@
         <v>186</v>
       </c>
       <c r="T73" s="48" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="U73" s="17" t="s">
         <v>186</v>
@@ -44692,7 +44686,7 @@
         <v>186</v>
       </c>
       <c r="AC73" s="48" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AD73" s="17" t="s">
         <v>186</v>
@@ -44710,7 +44704,7 @@
         <v>192</v>
       </c>
       <c r="AI73" s="50" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AJ73" s="21" t="s">
         <v>192</v>
@@ -44737,7 +44731,7 @@
         <v>192</v>
       </c>
       <c r="AR73" s="50" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AS73" s="21" t="s">
         <v>192</v>
@@ -45587,7 +45581,7 @@
         <v>187</v>
       </c>
       <c r="E74" s="55" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F74" s="33" t="s">
         <v>187</v>
@@ -45620,7 +45614,7 @@
         <v>187</v>
       </c>
       <c r="P74" s="55" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q74" s="33" t="s">
         <v>187</v>
@@ -45632,7 +45626,7 @@
         <v>187</v>
       </c>
       <c r="T74" s="48" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="U74" s="17" t="s">
         <v>187</v>
@@ -45665,7 +45659,7 @@
         <v>187</v>
       </c>
       <c r="AE74" s="48" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AF74" s="17" t="s">
         <v>187</v>
@@ -45677,7 +45671,7 @@
         <v>193</v>
       </c>
       <c r="AI74" s="50" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AJ74" s="21" t="s">
         <v>193</v>
@@ -45710,7 +45704,7 @@
         <v>193</v>
       </c>
       <c r="AT74" s="50" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AU74" s="21" t="s">
         <v>193</v>
@@ -46551,7 +46545,7 @@
         <v>187</v>
       </c>
       <c r="E75" s="55" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F75" s="33" t="s">
         <v>187</v>
@@ -46587,7 +46581,7 @@
         <v>187</v>
       </c>
       <c r="Q75" s="55" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="R75" s="17">
         <v>0</v>

--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters CATTLE.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters CATTLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEA1633-79A6-3D44-A8A6-7D8A93E1F853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8CE2D3-7D7F-6842-9A29-056ED6342601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="28100" windowHeight="16140" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="540" yWindow="2360" windowWidth="28100" windowHeight="16140" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="297">
   <si>
     <t># Initial population</t>
   </si>
@@ -827,9 +827,6 @@
     <t>rpert(10000, 0.09/12, 0.26/12, 0.12/12)</t>
   </si>
   <si>
-    <t>rpert(10000, 1.45, 1.482, 1.47)</t>
-  </si>
-  <si>
     <t>rpert(10000, 0.5, 0.8, 0.65)</t>
   </si>
   <si>
@@ -894,9 +891,6 @@
   </si>
   <si>
     <t>cattle_trial_periurban_dairy_mortality_zero</t>
-  </si>
-  <si>
-    <t>rpert(10000, 200, 380, 290)</t>
   </si>
   <si>
     <t>cattle_trial_CLM_ideal</t>
@@ -1118,12 +1112,6 @@
     <t>rpert(10000, 1, 2, 1.0001)</t>
   </si>
   <si>
-    <t>rpert(10000, 75, 450, 273)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1, 8, 2.21)</t>
-  </si>
-  <si>
     <t>rpert(10000, (10876+(0.2*10876)), (11616+(0.2*11616)), (11088+(0.2*11088)))</t>
   </si>
   <si>
@@ -1152,9 +1140,6 @@
   </si>
   <si>
     <t>rpert(10000, 150, 500, 400)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 90, 450, 261)</t>
   </si>
   <si>
     <t>rpert(10000, 2, 45, 10.5)</t>
@@ -1196,10 +1181,19 @@
     <t>rpert(10000, (38324+(0*38324)), (38324+(0*38324)), (38324+(0*38324)))</t>
   </si>
   <si>
+    <t>rpert(10000, 8.3, 18, 11.7)</t>
+  </si>
+  <si>
     <t>rpert(10000, 75, 540, 330)</t>
   </si>
   <si>
-    <t>rpert(10000, 8.3, 18, 11.7)</t>
+    <t>rpert(10000, 1.45, 1.482, 1.47)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 200, 380, 290)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 90, 450, 261)</t>
   </si>
 </sst>
 </file>
@@ -1786,9 +1780,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
   <dimension ref="A1:AGM159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV23" sqref="AV23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1857,46 +1851,46 @@
         <v>154</v>
       </c>
       <c r="D1" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="N1" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="P1" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="Q1" s="31" t="s">
         <v>212</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>214</v>
       </c>
       <c r="R1" s="38" t="s">
         <v>155</v>
@@ -1905,88 +1899,88 @@
         <v>156</v>
       </c>
       <c r="T1" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="U1" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="V1" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="W1" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="X1" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="Y1" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="Z1" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="AA1" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="AB1" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AC1" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AD1" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AE1" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="AD1" s="38" t="s">
+      <c r="AF1" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="AE1" s="38" t="s">
+      <c r="AG1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AF1" s="38" t="s">
+      <c r="AK1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="AG1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="AV1" s="4"/>
       <c r="AW1" s="4"/>
@@ -2011,7 +2005,7 @@
     </row>
     <row r="2" spans="1:871" s="42" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="43"/>
@@ -9366,7 +9360,7 @@
         <v>162</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F17" s="33" t="s">
         <v>162</v>
@@ -9396,7 +9390,7 @@
         <v>162</v>
       </c>
       <c r="O17" s="55" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P17" s="33" t="s">
         <v>162</v>
@@ -10330,7 +10324,7 @@
         <v>151</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F18" s="33" t="s">
         <v>151</v>
@@ -10360,7 +10354,7 @@
         <v>151</v>
       </c>
       <c r="O18" s="55" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P18" s="33" t="s">
         <v>151</v>
@@ -10375,7 +10369,7 @@
         <v>151</v>
       </c>
       <c r="T18" s="48" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="U18" s="17" t="s">
         <v>151</v>
@@ -10405,7 +10399,7 @@
         <v>151</v>
       </c>
       <c r="AD18" s="48" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AE18" s="17" t="s">
         <v>151</v>
@@ -10420,7 +10414,7 @@
         <v>151</v>
       </c>
       <c r="AI18" s="50" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AJ18" s="21" t="s">
         <v>151</v>
@@ -10450,7 +10444,7 @@
         <v>151</v>
       </c>
       <c r="AS18" s="50" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AT18" s="21" t="s">
         <v>151</v>
@@ -11314,94 +11308,94 @@
         <v>161</v>
       </c>
       <c r="C21" s="33">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D21" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="E21" s="40">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="E21" s="33">
+        <v>1</v>
       </c>
       <c r="F21" s="33">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G21" s="33">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H21" s="33">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I21" s="33">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J21" s="33">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="K21" s="33">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L21" s="33">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M21" s="33">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="N21" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="O21" s="40">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="O21" s="33">
+        <v>1</v>
       </c>
       <c r="P21" s="33">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="33">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="R21" s="17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="S21" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="T21" s="48">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="T21" s="17">
+        <v>1</v>
       </c>
       <c r="U21" s="17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="V21" s="17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W21" s="17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="X21" s="17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AA21" s="17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="AD21" s="48">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="AD21" s="17">
+        <v>1</v>
       </c>
       <c r="AE21" s="17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AG21" s="21">
         <v>1</v>
@@ -12287,7 +12281,7 @@
         <v>210</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F22" s="33">
         <v>210</v>
@@ -12317,7 +12311,7 @@
         <v>210</v>
       </c>
       <c r="O22" s="55" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P22" s="33">
         <v>210</v>
@@ -12332,7 +12326,7 @@
         <v>210</v>
       </c>
       <c r="T22" s="48" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="U22" s="17">
         <v>210</v>
@@ -12362,7 +12356,7 @@
         <v>210</v>
       </c>
       <c r="AD22" s="48" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="AE22" s="17">
         <v>210</v>
@@ -12371,49 +12365,49 @@
         <v>210</v>
       </c>
       <c r="AG22" s="21" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="AH22" s="21" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="AI22" s="50" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="AJ22" s="21" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="AK22" s="21" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="AL22" s="21" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="AM22" s="21" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="AN22" s="21" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="AO22" s="21" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="AP22" s="21" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="AQ22" s="21" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="AR22" s="21" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="AS22" s="50" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="AT22" s="21" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="AU22" s="21" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="AV22" s="5"/>
       <c r="AW22" s="5"/>
@@ -13245,49 +13239,49 @@
         <v>85</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="E23" s="55" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="L23" s="33" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="M23" s="33" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="O23" s="55" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P23" s="33" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="R23" s="17">
         <v>1.79</v>
@@ -13296,7 +13290,7 @@
         <v>1.79</v>
       </c>
       <c r="T23" s="48" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="U23" s="17">
         <v>1.79</v>
@@ -13326,7 +13320,7 @@
         <v>1.79</v>
       </c>
       <c r="AD23" s="48" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="AE23" s="17">
         <v>1.79</v>
@@ -13335,49 +13329,49 @@
         <v>1.79</v>
       </c>
       <c r="AG23" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AH23" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AI23" s="50" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AJ23" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AK23" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AL23" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AM23" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AN23" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AO23" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AP23" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AQ23" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AR23" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AS23" s="50" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AT23" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AU23" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AV23" s="5"/>
       <c r="AW23" s="5"/>
@@ -15222,52 +15216,52 @@
         <v>140</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K27" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L27" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M27" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N27" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O27" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P27" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q27" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R27" s="17">
         <v>0</v>
@@ -18273,49 +18267,49 @@
         <v>0</v>
       </c>
       <c r="AG34" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AH34" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AI34" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AJ34" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AK34" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AL34" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM34" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AN34" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AO34" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AP34" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AQ34" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AR34" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AS34" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AT34" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AU34" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AV34" s="5"/>
       <c r="AW34" s="5"/>
@@ -19237,49 +19231,49 @@
         <v>0</v>
       </c>
       <c r="AG35" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AH35" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AI35" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AJ35" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AK35" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AL35" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AM35" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AN35" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AO35" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AP35" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AQ35" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AR35" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AS35" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AT35" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AU35" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV35" s="5"/>
       <c r="AW35" s="5"/>
@@ -20156,94 +20150,94 @@
         <v>169</v>
       </c>
       <c r="R36" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="S36" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="T36" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="U36" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="V36" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="W36" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="X36" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Y36" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z36" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AA36" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AB36" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AC36" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AD36" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AE36" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF36" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AG36" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AH36" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AI36" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AJ36" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AK36" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AL36" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AM36" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AN36" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AO36" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AP36" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AQ36" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AR36" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AS36" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AT36" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AU36" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AV36" s="5"/>
       <c r="AW36" s="5"/>
@@ -21120,49 +21114,49 @@
         <v>0</v>
       </c>
       <c r="R37" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="S37" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="U37" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="V37" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="W37" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="X37" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Y37" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Z37" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AA37" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AB37" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AC37" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AD37" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AE37" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AF37" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AG37" s="21">
         <v>0</v>
@@ -22087,94 +22081,94 @@
         <v>170</v>
       </c>
       <c r="R38" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="S38" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="T38" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="U38" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V38" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="W38" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="X38" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Y38" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Z38" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA38" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AB38" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AC38" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AD38" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AE38" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AF38" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AG38" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AH38" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AI38" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AJ38" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AK38" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AL38" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AM38" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AN38" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AO38" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AP38" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AQ38" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AR38" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AS38" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AT38" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AU38" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AV38" s="5"/>
       <c r="AW38" s="5"/>
@@ -23054,94 +23048,94 @@
         <v>171</v>
       </c>
       <c r="R39" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="S39" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="T39" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="U39" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="V39" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="W39" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="X39" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Y39" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Z39" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AA39" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AB39" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AC39" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AD39" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AE39" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AF39" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AG39" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AH39" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AI39" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AJ39" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AK39" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AL39" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AM39" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AN39" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AO39" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AP39" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AQ39" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AR39" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AS39" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AT39" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AU39" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AV39" s="5"/>
       <c r="AW39" s="5"/>
@@ -24063,49 +24057,49 @@
         <v>0</v>
       </c>
       <c r="AG40" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH40" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AI40" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AJ40" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AK40" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AL40" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AM40" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AN40" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AO40" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AP40" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AQ40" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AR40" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AS40" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AT40" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AU40" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AV40" s="5"/>
       <c r="AW40" s="5"/>
@@ -25053,7 +25047,7 @@
         <v>173</v>
       </c>
       <c r="R43" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="S43" s="53">
         <v>0</v>
@@ -25065,16 +25059,16 @@
         <v>0</v>
       </c>
       <c r="V43" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="W43" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="X43" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Y43" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Z43" s="53">
         <v>0</v>
@@ -25083,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="AB43" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC43" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD43" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE43" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF43" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG43" s="23" t="s">
         <v>249</v>
-      </c>
-      <c r="AC43" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD43" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE43" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF43" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="AG43" s="23" t="s">
-        <v>251</v>
       </c>
       <c r="AH43" s="54">
         <v>0</v>
@@ -25110,16 +25104,16 @@
         <v>0</v>
       </c>
       <c r="AK43" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AL43" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AM43" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AN43" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AO43" s="54">
         <v>0</v>
@@ -25128,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AR43" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AS43" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AT43" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AU43" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AV43" s="5"/>
       <c r="AW43" s="5"/>
@@ -26020,7 +26014,7 @@
         <v>172</v>
       </c>
       <c r="R44" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S44" s="53">
         <v>0</v>
@@ -26029,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="U44" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="V44" s="53">
         <v>0</v>
       </c>
       <c r="W44" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="X44" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Y44" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Z44" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA44" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AB44" s="53">
         <v>0</v>
@@ -26056,16 +26050,16 @@
         <v>0</v>
       </c>
       <c r="AD44" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AE44" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AF44" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AG44" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AH44" s="54">
         <v>0</v>
@@ -26074,25 +26068,25 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK44" s="54">
         <v>0</v>
       </c>
       <c r="AL44" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AM44" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AN44" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AO44" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AP44" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ44" s="54">
         <v>0</v>
@@ -26101,13 +26095,13 @@
         <v>0</v>
       </c>
       <c r="AS44" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AT44" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AU44" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AV44" s="5"/>
       <c r="AW44" s="5"/>
@@ -26942,7 +26936,7 @@
         <v>18</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D45" s="51">
         <v>0</v>
@@ -26951,40 +26945,40 @@
         <v>0</v>
       </c>
       <c r="F45" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G45" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H45" s="51">
         <v>0</v>
       </c>
       <c r="I45" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J45" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K45" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L45" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M45" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N45" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O45" s="51">
         <v>0</v>
       </c>
       <c r="P45" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q45" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R45" s="18" t="s">
         <v>171</v>
@@ -27032,7 +27026,7 @@
         <v>171</v>
       </c>
       <c r="AG45" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AH45" s="54">
         <v>0</v>
@@ -27041,40 +27035,40 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AK45" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL45" s="54">
         <v>0</v>
       </c>
       <c r="AM45" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AN45" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AO45" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AP45" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AQ45" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AR45" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AS45" s="54">
         <v>0</v>
       </c>
       <c r="AT45" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AU45" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AV45" s="5"/>
       <c r="AW45" s="5"/>
@@ -27909,7 +27903,7 @@
         <v>19</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D46" s="51">
         <v>0</v>
@@ -27918,43 +27912,43 @@
         <v>0</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G46" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H46" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I46" s="51">
         <v>0</v>
       </c>
       <c r="J46" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K46" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L46" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M46" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N46" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O46" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P46" s="51">
         <v>0</v>
       </c>
       <c r="Q46" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R46" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="S46" s="53">
         <v>0</v>
@@ -27963,43 +27957,43 @@
         <v>0</v>
       </c>
       <c r="U46" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="V46" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="W46" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="X46" s="53">
         <v>0</v>
       </c>
       <c r="Y46" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Z46" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AA46" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AB46" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AC46" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AD46" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AE46" s="53">
         <v>0</v>
       </c>
       <c r="AF46" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AG46" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AH46" s="54">
         <v>0</v>
@@ -28008,40 +28002,40 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AK46" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL46" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AM46" s="54">
         <v>0</v>
       </c>
       <c r="AN46" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AO46" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AP46" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AQ46" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AR46" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AS46" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AT46" s="54">
         <v>0</v>
       </c>
       <c r="AU46" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AV46" s="5"/>
       <c r="AW46" s="5"/>
@@ -28873,7 +28867,7 @@
         <v>144</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D47" s="51">
         <v>0</v>
@@ -28882,37 +28876,37 @@
         <v>0</v>
       </c>
       <c r="F47" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G47" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I47" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J47" s="51">
         <v>0</v>
       </c>
       <c r="K47" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L47" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M47" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N47" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O47" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P47" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q47" s="51">
         <v>0</v>
@@ -32948,13 +32942,13 @@
         <v>25</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E56" s="55" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F56" s="33">
         <v>90</v>
@@ -32972,7 +32966,7 @@
         <v>90</v>
       </c>
       <c r="K56" s="55" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L56" s="33">
         <v>90</v>
@@ -32999,7 +32993,7 @@
         <v>100</v>
       </c>
       <c r="T56" s="58" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="U56" s="17">
         <v>100</v>
@@ -33017,7 +33011,7 @@
         <v>100</v>
       </c>
       <c r="Z56" s="58" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AA56" s="17">
         <v>100</v>
@@ -33044,7 +33038,7 @@
         <v>147</v>
       </c>
       <c r="AI56" s="59" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AJ56" s="21">
         <v>147</v>
@@ -33062,7 +33056,7 @@
         <v>147</v>
       </c>
       <c r="AO56" s="59" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AP56" s="21">
         <v>147</v>
@@ -33915,13 +33909,13 @@
         <v>26</v>
       </c>
       <c r="C57" s="57" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D57" s="57" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E57" s="56" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F57" s="33">
         <v>90</v>
@@ -33942,7 +33936,7 @@
         <v>90</v>
       </c>
       <c r="L57" s="56" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M57" s="33">
         <v>90</v>
@@ -33966,7 +33960,7 @@
         <v>100</v>
       </c>
       <c r="T57" s="58" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="U57" s="17">
         <v>100</v>
@@ -33987,7 +33981,7 @@
         <v>100</v>
       </c>
       <c r="AA57" s="58" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AB57" s="17">
         <v>100</v>
@@ -34011,7 +34005,7 @@
         <v>147</v>
       </c>
       <c r="AI57" s="59" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AJ57" s="21">
         <v>147</v>
@@ -34032,7 +34026,7 @@
         <v>147</v>
       </c>
       <c r="AP57" s="59" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AQ57" s="21">
         <v>147</v>
@@ -34882,13 +34876,13 @@
         <v>27</v>
       </c>
       <c r="C58" s="57" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D58" s="57" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E58" s="56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F58" s="33">
         <v>170</v>
@@ -34912,7 +34906,7 @@
         <v>170</v>
       </c>
       <c r="M58" s="56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N58" s="33">
         <v>170</v>
@@ -34933,7 +34927,7 @@
         <v>180</v>
       </c>
       <c r="T58" s="58" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="U58" s="17">
         <v>180</v>
@@ -34957,7 +34951,7 @@
         <v>180</v>
       </c>
       <c r="AB58" s="58" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AC58" s="17">
         <v>180</v>
@@ -34978,7 +34972,7 @@
         <v>375</v>
       </c>
       <c r="AI58" s="59" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AJ58" s="21">
         <v>375</v>
@@ -35002,7 +34996,7 @@
         <v>375</v>
       </c>
       <c r="AQ58" s="59" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AR58" s="21">
         <v>375</v>
@@ -35849,13 +35843,13 @@
         <v>28</v>
       </c>
       <c r="C59" s="57" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D59" s="57" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E59" s="56" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F59" s="33">
         <v>170</v>
@@ -35882,7 +35876,7 @@
         <v>170</v>
       </c>
       <c r="N59" s="56" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O59" s="33">
         <v>170</v>
@@ -35900,7 +35894,7 @@
         <v>180</v>
       </c>
       <c r="T59" s="58" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="U59" s="17">
         <v>180</v>
@@ -35927,7 +35921,7 @@
         <v>180</v>
       </c>
       <c r="AC59" s="58" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AD59" s="17">
         <v>180</v>
@@ -35945,7 +35939,7 @@
         <v>375</v>
       </c>
       <c r="AI59" s="59" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AJ59" s="21">
         <v>375</v>
@@ -35972,7 +35966,7 @@
         <v>375</v>
       </c>
       <c r="AR59" s="59" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AS59" s="21">
         <v>375</v>
@@ -36816,13 +36810,13 @@
         <v>29</v>
       </c>
       <c r="C60" s="57" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D60" s="57" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E60" s="56" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F60" s="33">
         <v>255</v>
@@ -36852,7 +36846,7 @@
         <v>255</v>
       </c>
       <c r="O60" s="56" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P60" s="33">
         <v>255</v>
@@ -36867,7 +36861,7 @@
         <v>240</v>
       </c>
       <c r="T60" s="58" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="U60" s="17">
         <v>240</v>
@@ -36897,7 +36891,7 @@
         <v>240</v>
       </c>
       <c r="AD60" s="58" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AE60" s="17">
         <v>240</v>
@@ -36912,7 +36906,7 @@
         <v>550</v>
       </c>
       <c r="AI60" s="59" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AJ60" s="21">
         <v>550</v>
@@ -36942,7 +36936,7 @@
         <v>550</v>
       </c>
       <c r="AS60" s="59" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AT60" s="21">
         <v>550</v>
@@ -37783,13 +37777,13 @@
         <v>29</v>
       </c>
       <c r="C61" s="57" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D61" s="57" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E61" s="56" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F61" s="33">
         <v>255</v>
@@ -37822,7 +37816,7 @@
         <v>255</v>
       </c>
       <c r="P61" s="56" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q61" s="33">
         <v>255</v>
@@ -37834,7 +37828,7 @@
         <v>240</v>
       </c>
       <c r="T61" s="58" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="U61" s="17">
         <v>240</v>
@@ -37867,7 +37861,7 @@
         <v>240</v>
       </c>
       <c r="AE61" s="58" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AF61" s="17">
         <v>240</v>
@@ -37879,7 +37873,7 @@
         <v>550</v>
       </c>
       <c r="AI61" s="59" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AJ61" s="21">
         <v>550</v>
@@ -37912,7 +37906,7 @@
         <v>550</v>
       </c>
       <c r="AT61" s="59" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AU61" s="21">
         <v>550</v>
@@ -38747,13 +38741,13 @@
         <v>145</v>
       </c>
       <c r="C62" s="57" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D62" s="57" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E62" s="56" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F62" s="33">
         <v>255</v>
@@ -38789,7 +38783,7 @@
         <v>255</v>
       </c>
       <c r="Q62" s="56" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="R62" s="17">
         <v>0</v>
@@ -40740,139 +40734,139 @@
         <v>34</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E69" s="55" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F69" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G69" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H69" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I69" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J69" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K69" s="55" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L69" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M69" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N69" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O69" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P69" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q69" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R69" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S69" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T69" s="48" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="U69" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V69" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W69" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X69" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y69" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z69" s="48" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AA69" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB69" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AC69" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AD69" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AE69" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF69" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AG69" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH69" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AI69" s="50" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AJ69" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AK69" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AL69" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM69" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AN69" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AO69" s="50" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AP69" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ69" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AR69" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AS69" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AT69" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AU69" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AV69" s="5"/>
       <c r="AW69" s="5"/>
@@ -41707,139 +41701,139 @@
         <v>35</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E70" s="55" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G70" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H70" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I70" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J70" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K70" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L70" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M70" s="55" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N70" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O70" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P70" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q70" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R70" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S70" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T70" s="48" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="U70" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V70" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W70" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X70" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y70" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z70" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA70" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB70" s="48" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AC70" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AD70" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE70" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF70" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG70" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AH70" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI70" s="50" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AJ70" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AK70" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL70" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM70" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN70" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AO70" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AP70" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AQ70" s="50" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AR70" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AS70" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AT70" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AU70" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AV70" s="5"/>
       <c r="AW70" s="5"/>
@@ -42674,139 +42668,139 @@
         <v>36</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E71" s="55" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G71" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H71" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I71" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J71" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K71" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L71" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M71" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N71" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O71" s="55" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P71" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q71" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R71" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S71" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T71" s="48" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="U71" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V71" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W71" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X71" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y71" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z71" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AA71" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB71" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AC71" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD71" s="48" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AE71" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF71" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG71" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AH71" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI71" s="50" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AJ71" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AK71" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL71" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM71" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AN71" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AO71" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AP71" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AQ71" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AR71" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AS71" s="50" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AT71" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AU71" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AV71" s="5"/>
       <c r="AW71" s="5"/>
@@ -43641,139 +43635,139 @@
         <v>37</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E72" s="55" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G72" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H72" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I72" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J72" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K72" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L72" s="55" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M72" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N72" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O72" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P72" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q72" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R72" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S72" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T72" s="48" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="U72" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V72" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W72" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X72" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y72" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z72" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA72" s="48" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AB72" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AC72" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AD72" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE72" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF72" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG72" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AH72" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI72" s="50" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AJ72" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK72" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AL72" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AM72" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AN72" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AO72" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AP72" s="50" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AQ72" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AR72" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AS72" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AT72" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AU72" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AV72" s="5"/>
       <c r="AW72" s="5"/>
@@ -44608,139 +44602,139 @@
         <v>38</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E73" s="55" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G73" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H73" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I73" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J73" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K73" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L73" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M73" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N73" s="55" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="O73" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P73" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q73" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R73" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S73" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T73" s="48" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="U73" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V73" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="W73" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X73" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Y73" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z73" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA73" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB73" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AC73" s="48" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AD73" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE73" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF73" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG73" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH73" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI73" s="50" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AJ73" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK73" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AL73" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AM73" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AN73" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AO73" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AP73" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AQ73" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AR73" s="50" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AS73" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AT73" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AU73" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AV73" s="5"/>
       <c r="AW73" s="5"/>
@@ -45575,139 +45569,139 @@
         <v>39</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E74" s="55" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F74" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G74" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H74" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I74" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J74" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K74" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L74" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M74" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N74" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O74" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P74" s="55" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q74" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R74" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S74" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T74" s="48" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="U74" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V74" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="W74" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X74" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y74" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z74" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA74" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB74" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AC74" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AD74" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AE74" s="48" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AF74" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG74" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH74" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI74" s="50" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AJ74" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AK74" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL74" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM74" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN74" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AO74" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AP74" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AQ74" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AR74" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AS74" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AT74" s="50" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AU74" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AV74" s="5"/>
       <c r="AW74" s="5"/>
@@ -46539,49 +46533,49 @@
         <v>146</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E75" s="55" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G75" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H75" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I75" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J75" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K75" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L75" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M75" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N75" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O75" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P75" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q75" s="55" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="R75" s="17">
         <v>0</v>
@@ -49504,139 +49498,139 @@
         <v>108</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E84" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F84" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G84" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H84" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I84" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J84" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K84" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L84" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M84" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N84" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O84" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P84" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q84" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R84" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S84" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T84" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U84" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V84" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W84" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X84" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Y84" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z84" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA84" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB84" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC84" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AD84" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AE84" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF84" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG84" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AH84" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AI84" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AJ84" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AK84" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AL84" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AM84" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AN84" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AO84" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AP84" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AQ84" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AR84" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AS84" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AT84" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AU84" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AV84" s="5"/>
       <c r="AW84" s="5"/>
@@ -50494,139 +50488,139 @@
         <v>45</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Y87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Z87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AE87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AH87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AI87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AJ87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AK87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AM87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AN87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AO87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AP87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AQ87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AR87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AS87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AT87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AU87" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AV87" s="5"/>
       <c r="AW87" s="5"/>
@@ -51461,139 +51455,139 @@
         <v>46</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Z88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AA88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AD88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AE88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AI88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AJ88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AK88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AL88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AM88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AN88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AO88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AP88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AQ88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU88" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AV88" s="5"/>
       <c r="AW88" s="5"/>
@@ -52428,139 +52422,139 @@
         <v>47</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AE89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AH89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AI89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AJ89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AK89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AL89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AN89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AO89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AP89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AQ89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AR89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AT89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU89" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AV89" s="5"/>
       <c r="AW89" s="5"/>

--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters CATTLE.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters CATTLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8CE2D3-7D7F-6842-9A29-056ED6342601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB744730-EB9A-9340-A8B0-4DC2F56F029D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="2360" windowWidth="28100" windowHeight="16140" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="540" yWindow="500" windowWidth="28100" windowHeight="16140" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,370 @@
         </r>
       </text>
     </comment>
+    <comment ref="F61" authorId="1" shapeId="0" xr:uid="{8681758D-DB32-814F-BE7E-2E5CEB3799E0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>we didn’t elcit this parameter os taken form the AM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G61" authorId="1" shapeId="0" xr:uid="{3DA8DB71-74B9-6749-B8AA-8DBEF5D14887}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>we didn’t elcit this parameter os taken form the AM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H61" authorId="1" shapeId="0" xr:uid="{E9281452-B7CE-0A43-869E-7E88B7B5D10F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>we didn’t elcit this parameter os taken form the AM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I61" authorId="1" shapeId="0" xr:uid="{AB5D3590-E365-0D4E-B750-8A82ADD944ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>we didn’t elcit this parameter os taken form the AM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J61" authorId="1" shapeId="0" xr:uid="{9D3FEF81-BEDF-BF4C-ACEB-A21E1ECCCF94}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>we didn’t elcit this parameter os taken form the AM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K61" authorId="1" shapeId="0" xr:uid="{B531BFC8-06AD-1A4D-9758-3C71FBFF8F58}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>we didn’t elcit this parameter os taken form the AM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L61" authorId="1" shapeId="0" xr:uid="{ACC72A40-72C1-E64B-A41A-A258407DBA9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>we didn’t elcit this parameter os taken form the AM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M61" authorId="1" shapeId="0" xr:uid="{D421B0EE-8284-474D-A27C-CA894278DEBE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>we didn’t elcit this parameter os taken form the AM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N61" authorId="1" shapeId="0" xr:uid="{4AFBBDD4-B71A-A547-8139-A70B50E141DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>we didn’t elcit this parameter os taken form the AM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O61" authorId="1" shapeId="0" xr:uid="{8B1C245A-AAD0-104A-B1EB-206E44EB1382}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>we didn’t elcit this parameter os taken form the AM</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="P61" authorId="1" shapeId="0" xr:uid="{582C5344-82DE-FF44-8DA1-9E27F974436C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>we didn’t elcit this parameter os taken form the AM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q61" authorId="1" shapeId="0" xr:uid="{2EBD08FA-9B59-4A47-A9D8-7A818DB89D75}">
       <text>
         <r>
           <rPr>
@@ -303,7 +666,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="297">
   <si>
     <t># Initial population</t>
   </si>
@@ -1780,9 +2143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
   <dimension ref="A1:AGM159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG21" sqref="AG21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32950,41 +33313,41 @@
       <c r="E56" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="F56" s="33">
-        <v>90</v>
-      </c>
-      <c r="G56" s="33">
-        <v>90</v>
-      </c>
-      <c r="H56" s="33">
-        <v>90</v>
-      </c>
-      <c r="I56" s="33">
-        <v>90</v>
-      </c>
-      <c r="J56" s="33">
-        <v>90</v>
+      <c r="F56" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="H56" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="I56" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="J56" s="33" t="s">
+        <v>260</v>
       </c>
       <c r="K56" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="L56" s="33">
-        <v>90</v>
-      </c>
-      <c r="M56" s="33">
-        <v>90</v>
-      </c>
-      <c r="N56" s="33">
-        <v>90</v>
-      </c>
-      <c r="O56" s="33">
-        <v>90</v>
-      </c>
-      <c r="P56" s="33">
-        <v>90</v>
-      </c>
-      <c r="Q56" s="33">
-        <v>90</v>
+      <c r="L56" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="M56" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="N56" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="O56" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="P56" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q56" s="33" t="s">
+        <v>260</v>
       </c>
       <c r="R56" s="17">
         <v>100</v>
@@ -33917,41 +34280,41 @@
       <c r="E57" s="56" t="s">
         <v>255</v>
       </c>
-      <c r="F57" s="33">
-        <v>90</v>
-      </c>
-      <c r="G57" s="33">
-        <v>90</v>
-      </c>
-      <c r="H57" s="33">
-        <v>90</v>
-      </c>
-      <c r="I57" s="33">
-        <v>90</v>
-      </c>
-      <c r="J57" s="33">
-        <v>90</v>
-      </c>
-      <c r="K57" s="33">
-        <v>90</v>
+      <c r="F57" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="G57" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="H57" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="I57" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="J57" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="K57" s="57" t="s">
+        <v>261</v>
       </c>
       <c r="L57" s="56" t="s">
         <v>255</v>
       </c>
-      <c r="M57" s="33">
-        <v>90</v>
-      </c>
-      <c r="N57" s="33">
-        <v>90</v>
-      </c>
-      <c r="O57" s="33">
-        <v>90</v>
-      </c>
-      <c r="P57" s="33">
-        <v>90</v>
-      </c>
-      <c r="Q57" s="33">
-        <v>90</v>
+      <c r="M57" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="N57" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="O57" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="P57" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q57" s="57" t="s">
+        <v>261</v>
       </c>
       <c r="R57" s="17">
         <v>100</v>
@@ -34884,41 +35247,41 @@
       <c r="E58" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="F58" s="33">
-        <v>170</v>
-      </c>
-      <c r="G58" s="33">
-        <v>170</v>
-      </c>
-      <c r="H58" s="33">
-        <v>170</v>
-      </c>
-      <c r="I58" s="33">
-        <v>170</v>
-      </c>
-      <c r="J58" s="33">
-        <v>170</v>
-      </c>
-      <c r="K58" s="33">
-        <v>170</v>
-      </c>
-      <c r="L58" s="33">
-        <v>170</v>
+      <c r="F58" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="G58" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="H58" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="I58" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="J58" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="K58" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="L58" s="57" t="s">
+        <v>265</v>
       </c>
       <c r="M58" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="N58" s="33">
-        <v>170</v>
-      </c>
-      <c r="O58" s="33">
-        <v>170</v>
-      </c>
-      <c r="P58" s="33">
-        <v>170</v>
-      </c>
-      <c r="Q58" s="33">
-        <v>170</v>
+      <c r="N58" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="O58" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="P58" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q58" s="57" t="s">
+        <v>265</v>
       </c>
       <c r="R58" s="17">
         <v>180</v>
@@ -35851,41 +36214,41 @@
       <c r="E59" s="56" t="s">
         <v>257</v>
       </c>
-      <c r="F59" s="33">
-        <v>170</v>
-      </c>
-      <c r="G59" s="33">
-        <v>170</v>
-      </c>
-      <c r="H59" s="33">
-        <v>170</v>
-      </c>
-      <c r="I59" s="33">
-        <v>170</v>
-      </c>
-      <c r="J59" s="33">
-        <v>170</v>
-      </c>
-      <c r="K59" s="33">
-        <v>170</v>
-      </c>
-      <c r="L59" s="33">
-        <v>170</v>
-      </c>
-      <c r="M59" s="33">
-        <v>170</v>
+      <c r="F59" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="G59" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="H59" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="I59" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="J59" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="K59" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="L59" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="M59" s="57" t="s">
+        <v>262</v>
       </c>
       <c r="N59" s="56" t="s">
         <v>257</v>
       </c>
-      <c r="O59" s="33">
-        <v>170</v>
-      </c>
-      <c r="P59" s="33">
-        <v>170</v>
-      </c>
-      <c r="Q59" s="33">
-        <v>170</v>
+      <c r="O59" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="P59" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q59" s="57" t="s">
+        <v>262</v>
       </c>
       <c r="R59" s="17">
         <v>180</v>
@@ -36818,41 +37181,41 @@
       <c r="E60" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="F60" s="33">
-        <v>255</v>
-      </c>
-      <c r="G60" s="33">
-        <v>255</v>
-      </c>
-      <c r="H60" s="33">
-        <v>255</v>
-      </c>
-      <c r="I60" s="33">
-        <v>255</v>
-      </c>
-      <c r="J60" s="33">
-        <v>255</v>
-      </c>
-      <c r="K60" s="33">
-        <v>255</v>
-      </c>
-      <c r="L60" s="33">
-        <v>255</v>
-      </c>
-      <c r="M60" s="33">
-        <v>255</v>
-      </c>
-      <c r="N60" s="33">
-        <v>255</v>
+      <c r="F60" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="G60" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="H60" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="I60" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="J60" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="K60" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="L60" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="M60" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="N60" s="57" t="s">
+        <v>263</v>
       </c>
       <c r="O60" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="P60" s="33">
-        <v>255</v>
-      </c>
-      <c r="Q60" s="33">
-        <v>255</v>
+      <c r="P60" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q60" s="57" t="s">
+        <v>263</v>
       </c>
       <c r="R60" s="17">
         <v>240</v>
@@ -37785,41 +38148,41 @@
       <c r="E61" s="56" t="s">
         <v>259</v>
       </c>
-      <c r="F61" s="33">
-        <v>255</v>
-      </c>
-      <c r="G61" s="33">
-        <v>255</v>
-      </c>
-      <c r="H61" s="33">
-        <v>255</v>
-      </c>
-      <c r="I61" s="33">
-        <v>255</v>
-      </c>
-      <c r="J61" s="33">
-        <v>255</v>
-      </c>
-      <c r="K61" s="33">
-        <v>255</v>
-      </c>
-      <c r="L61" s="33">
-        <v>255</v>
-      </c>
-      <c r="M61" s="33">
-        <v>255</v>
-      </c>
-      <c r="N61" s="33">
-        <v>255</v>
-      </c>
-      <c r="O61" s="33">
-        <v>255</v>
+      <c r="F61" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="G61" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="H61" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="I61" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="J61" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="K61" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="L61" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="M61" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="N61" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="O61" s="57" t="s">
+        <v>264</v>
       </c>
       <c r="P61" s="56" t="s">
         <v>259</v>
       </c>
-      <c r="Q61" s="33">
-        <v>255</v>
+      <c r="Q61" s="57" t="s">
+        <v>264</v>
       </c>
       <c r="R61" s="17">
         <v>240</v>
@@ -38749,38 +39112,38 @@
       <c r="E62" s="56" t="s">
         <v>259</v>
       </c>
-      <c r="F62" s="33">
-        <v>255</v>
-      </c>
-      <c r="G62" s="33">
-        <v>255</v>
-      </c>
-      <c r="H62" s="33">
-        <v>255</v>
-      </c>
-      <c r="I62" s="33">
-        <v>255</v>
-      </c>
-      <c r="J62" s="33">
-        <v>255</v>
-      </c>
-      <c r="K62" s="33">
-        <v>255</v>
-      </c>
-      <c r="L62" s="33">
-        <v>255</v>
-      </c>
-      <c r="M62" s="33">
-        <v>255</v>
-      </c>
-      <c r="N62" s="33">
-        <v>255</v>
-      </c>
-      <c r="O62" s="33">
-        <v>255</v>
-      </c>
-      <c r="P62" s="33">
-        <v>255</v>
+      <c r="F62" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="G62" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="H62" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="I62" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="J62" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="K62" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="L62" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="M62" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="N62" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="O62" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="P62" s="57" t="s">
+        <v>264</v>
       </c>
       <c r="Q62" s="56" t="s">
         <v>259</v>
